--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.33千萬</t>
+          <t>1.57億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.93千萬</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22.39</t>
+          <t>23.70</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>-1.530%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.76千萬</t>
+          <t>7.39千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71億</t>
+          <t>4.52千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>13.89</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+1.910%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>-1.020%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.25億</t>
+          <t>2.23億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>1.75億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>8.95</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>-4.890%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.14億</t>
+          <t>4.07億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99億</t>
+          <t>3.24億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>-4.550%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.740%</t>
+          <t>-2.860%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.20百萬</t>
+          <t>4.64千萬</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.19千萬</t>
+          <t>2.20千萬</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>6.98</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>-2.870%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.45億</t>
+          <t>12.52億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.61億</t>
+          <t>7.94億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>11.58</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-1.660%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>-1.770%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.61億</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.25億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>5.17</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>-1.850%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.16億</t>
+          <t>13.12億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.40億</t>
+          <t>11.48億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>12.49</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.490%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.12億</t>
+          <t>2.55億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.87億</t>
+          <t>1.90億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>5.93</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>+0.540%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.76億</t>
+          <t>57.25億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55.23億</t>
+          <t>47.56億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>140.08</t>
+          <t>66.05</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-1.010%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.56億</t>
+          <t>71.21億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>47.42億</t>
+          <t>40.91億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>6.93</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-1.680%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16.58億</t>
+          <t>25.56億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28.88億</t>
+          <t>18.06億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.08</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.57千萬</t>
+          <t>1.24億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>8.47千萬</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.31</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+1.620%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+1.500%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.87億</t>
+          <t>11.31億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.19億</t>
+          <t>7.06億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.75億</t>
+          <t>1.25億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>16.31</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-2.050%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.08億</t>
+          <t>8.31億</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.07億</t>
+          <t>6.07億</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>5.79</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.78千萬</t>
+          <t>1.43億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.10億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>21.06</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.93億</t>
+          <t>3.62億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.44億</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.11</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-1.460%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.19億</t>
+          <t>3.30億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.10億</t>
+          <t>1.49億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.40</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>-1.550%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.09千萬</t>
+          <t>9.01千萬</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.00千萬</t>
+          <t>7.63千萬</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.29</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+1.540%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.22億</t>
+          <t>4.56億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.55億</t>
+          <t>5.04億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>5.70</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+2.740%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.06千萬</t>
+          <t>1.41億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.03千萬</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.90</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.45千萬</t>
+          <t>6.86千萬</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.98千萬</t>
+          <t>5.21千萬</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>8.71</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>-1.530%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-1.670%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18.61萬</t>
+          <t>76.05萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>40.52萬</t>
+          <t>48.83萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27.63</t>
+          <t>24.21</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-1.790%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>133.09億</t>
+          <t>233.72億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>194.56億</t>
+          <t>142.48億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>10.10</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+1.800%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+1.520%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.91千萬</t>
+          <t>8.10千萬</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8.99千萬</t>
+          <t>6.70千萬</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>11.05</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-1.410%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>+2.640%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.90億</t>
+          <t>12.44億</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10.91億</t>
+          <t>9.83億</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20.72</t>
+          <t>18.05</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.78億</t>
+          <t>6.86億</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.86億</t>
+          <t>4.48億</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>-1.070%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9.34億</t>
+          <t>11.79億</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11.96億</t>
+          <t>4.95億</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>7.39</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+0.750%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-1.310%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.20億</t>
+          <t>2.06億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.79億</t>
+          <t>1.45億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>10.37</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+1.050%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>+3.020%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.80千萬</t>
+          <t>2.32千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.03千萬</t>
+          <t>1.35千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-1.110%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.85千萬</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9.03千萬</t>
+          <t>5.46千萬</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>19.48</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>-1.690%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.41千萬</t>
+          <t>1.36億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.77億</t>
+          <t>9.76千萬</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>185.85</t>
+          <t>113.09</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+1.570%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-1.520%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.77百萬</t>
+          <t>49.51萬</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.76百萬</t>
+          <t>61.65萬</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-1.830%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-1.570%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.20百萬</t>
+          <t>1.74千萬</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.76百萬</t>
+          <t>6.62百萬</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>8.72</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>-0.770%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+0.420%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8.08千萬</t>
+          <t>7.01千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>4.02千萬</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>17.69</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-2.500%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>-1.990%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.20億</t>
+          <t>12.87億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.50億</t>
+          <t>13.16億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>8.42</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>-1.370%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.71億</t>
+          <t>8.83億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.10億</t>
+          <t>5.35億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23.41</t>
+          <t>18.69</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+1.850%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>-3.170%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>45.70萬</t>
+          <t>5.37百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.87百萬</t>
+          <t>15.25萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.55</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>-0.850%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.93千萬</t>
+          <t>6.96千萬</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.37千萬</t>
+          <t>6.10千萬</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.89</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>-1.610%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.76億</t>
+          <t>6.54億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.67億</t>
+          <t>4.96億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>6.66</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.27億</t>
+          <t>2.09億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.96億</t>
+          <t>1.38億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26.81</t>
+          <t>24.35</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.96億</t>
+          <t>1.37億</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.49億</t>
+          <t>7.75千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>16.55</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20.22億</t>
+          <t>42.88億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>30.94億</t>
+          <t>38.62億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+1.570%</t>
+          <t>+1.220%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>45.87億</t>
+          <t>34.50億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>34.92億</t>
+          <t>36.16億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>-0.620%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.14億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.83億</t>
+          <t>2.13億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.21</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.97千萬</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.14千萬</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.82億</t>
+          <t>2.23億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.62億</t>
+          <t>1.19億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>16.26</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>-1.750%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+2.540%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9.74億</t>
+          <t>9.92億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.55億</t>
+          <t>6.93億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>8.89</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.83億</t>
+          <t>9.21億</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8.31億</t>
+          <t>5.66億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>28.80</t>
+          <t>24.24</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9.34億</t>
+          <t>16.62億</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>14.55億</t>
+          <t>12.34億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>8.71</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6.60千萬</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.51億</t>
+          <t>9.58千萬</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.14億</t>
+          <t>6.30億</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.49億</t>
+          <t>4.52億</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>5.81</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10.66億</t>
+          <t>12.65億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8.92億</t>
+          <t>10.86億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>14.35</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+1.390%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-1.890%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6.11億</t>
+          <t>1.37億</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.23億</t>
+          <t>1.12億</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>48.65</t>
+          <t>26.28</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>-1.240%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.980%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>6.21億</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8.39億</t>
+          <t>5.40億</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>13.64</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8.13千萬</t>
+          <t>2.14億</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.04億</t>
+          <t>1.59億</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>13.96</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+2.230%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+1.130%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.40千萬</t>
+          <t>7.38千萬</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5.57千萬</t>
+          <t>3.85千萬</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12.21億</t>
+          <t>14.88億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>12.38億</t>
+          <t>11.83億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>9.78</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>-3.860%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.64千萬</t>
+          <t>7.88千萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4.38千萬</t>
+          <t>5.77千萬</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>17.78</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+1.630%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.10億</t>
+          <t>2.91億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2.61億</t>
+          <t>2.84億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>51.88</t>
+          <t>41.50</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>+1.690%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2.19千萬</t>
+          <t>1.46千萬</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.18千萬</t>
+          <t>1.10千萬</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>35.08</t>
+          <t>29.00</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.820%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27.24億</t>
+          <t>35.55億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>23.05億</t>
+          <t>22.88億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>13.64</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-1.440%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13.21億</t>
+          <t>5.79億</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.66億</t>
+          <t>6.18億</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>10.71</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7.73億</t>
+          <t>9.95億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>13.10億</t>
+          <t>5.98億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8.05千萬</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7.07</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>57.84萬</t>
+          <t>1.71百萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.57百萬</t>
+          <t>1.47百萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>14.40</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.980%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.04億</t>
+          <t>2.12億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.19億</t>
+          <t>2.67億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>14.34</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>-1.690%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-1.720%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.29億</t>
+          <t>7.63億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4.20億</t>
+          <t>5.44億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>15.53</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+1.240%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>-1.880%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.54千萬</t>
+          <t>8.10千萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5.46千萬</t>
+          <t>8.48千萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.40</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.65千萬</t>
+          <t>4.39千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>1.88千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.95</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.150%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.95億</t>
+          <t>4.91億</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.76億</t>
+          <t>3.25億</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>9.05</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+2.190%</t>
+          <t>-1.990%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9.34億</t>
+          <t>13.35億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>14.97億</t>
+          <t>7.14億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.44億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.48億</t>
+          <t>2.13億</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>11.29</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>-3.210%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.32億</t>
+          <t>8.80億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.21億</t>
+          <t>4.89億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>10.54</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>-1.890%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.17千萬</t>
+          <t>4.43千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.72千萬</t>
+          <t>2.44千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2.70億</t>
+          <t>1.80億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>17.43</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10.46億</t>
+          <t>15.14億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>14.98億</t>
+          <t>8.48億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>6.82</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+1.100%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14.25億</t>
+          <t>16.61億</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>11.83億</t>
+          <t>9.52億</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>116.84</t>
+          <t>109.56</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.340%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.980%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>8.32億</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>4.91億</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3.81億</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>4.96</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+1.100%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7.63千萬</t>
+          <t>2.74億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.44億</t>
+          <t>8.75千萬</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15.29</t>
+          <t>11.75</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-1.700%</t>
+          <t>-1.930%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>6.99億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>4.64億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.73</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-1.720%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>6.77千萬</t>
+          <t>2.31億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>1.32億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>5.39</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5.39千萬</t>
+          <t>1.29億</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>6.04千萬</t>
+          <t>9.63千萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.16</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.30千萬</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7.20千萬</t>
+          <t>7.87千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.80</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,3145 +473,3515 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>235010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>服飾配件及皮革</t>
+          <t>廣告及宣傳</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>+0.540%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>+4.540%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.57億</t>
+          <t>4.07億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.11億</t>
+          <t>3.42億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>6.18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>101060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>廣告</t>
+          <t>航空航天與國防</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.530%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>+1.340%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.39千萬</t>
+          <t>2.76千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52千萬</t>
+          <t>5.15千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>9.53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>252020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>農畜漁產品</t>
+          <t>農產品</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1.910%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.020%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.23億</t>
+          <t>4.29千萬</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.75億</t>
+          <t>4.93千萬</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>12.46</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>102030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>航空服務</t>
+          <t>航空貨運及物流</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-4.890%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.07億</t>
+          <t>1.24億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.24億</t>
+          <t>6.86億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>100.27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>234020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>航空支援</t>
+          <t>航空服務</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-4.550%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.860%</t>
+          <t>+3.240%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.64千萬</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.20千萬</t>
+          <t>3.87億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>37.65</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>251040</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>煙酒</t>
+          <t>酒精飲料</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+1.580%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.870%</t>
+          <t>+3.520%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.52億</t>
+          <t>6.47億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.94億</t>
+          <t>10.01億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>10.45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0013</t>
+          <t>400040</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>替代能源</t>
+          <t>非傳統/可再生能源</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.660%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.770%</t>
+          <t>+1.900%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.66億</t>
+          <t>2.19億</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.42億</t>
+          <t>4.22億</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>6.40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>052030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>服裝</t>
+          <t>鋁</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-1.320%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.850%</t>
+          <t>+4.140%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.12億</t>
+          <t>2.01億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11.48億</t>
+          <t>2.60億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>252030</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>汽車零售及維護維修</t>
+          <t>禽畜飼料</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.55億</t>
+          <t>1.46千萬</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>1.23千萬</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>24.93</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>233020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>汽車及零部件</t>
+          <t>服裝</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>+1.330%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>57.25億</t>
+          <t>18.52億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47.56億</t>
+          <t>24.25億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>66.05</t>
+          <t>12.26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5011</t>
+          <t>237020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>銀行</t>
+          <t>服裝零售商</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+1.090%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-1.010%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.21億</t>
+          <t>6.81千萬</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.91億</t>
+          <t>9.94千萬</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>22.65</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>231020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>生物科技</t>
+          <t>汽車零件</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-1.680%</t>
+          <t>+1.630%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25.56億</t>
+          <t>1.89億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18.06億</t>
+          <t>2.00億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>14.09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0532</t>
+          <t>231010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>化工產品</t>
+          <t>汽車</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+2.550%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+4.570%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.24億</t>
+          <t>26.57億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.47千萬</t>
+          <t>42.33億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>7.54</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0021</t>
+          <t>237010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>汽車零售商</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-2.180%</t>
+          <t>+3.210%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11.31億</t>
+          <t>1.91億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.06億</t>
+          <t>2.62億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>501010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>商用交通工具</t>
+          <t>銀行</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>+0.850%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>56.82億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.25億</t>
+          <t>74.14億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>9.66</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>281020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>綜合企業</t>
+          <t>生物技術</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.050%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>+1.980%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.31億</t>
+          <t>19.20億</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.07億</t>
+          <t>30.88億</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>235020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>建築及裝修</t>
+          <t>廣播</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>-2.290%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>+9.120%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.43億</t>
+          <t>1.63億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.10億</t>
+          <t>7.99千萬</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>602020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>建築材料</t>
+          <t>樓宇建造</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.62億</t>
+          <t>1.27億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.40億</t>
+          <t>1.03億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>28.78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>234030</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>電子消費品</t>
+          <t>賭場及博彩</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1.130%</t>
+          <t>+1.400%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>+3.150%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.30億</t>
+          <t>6.53億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.49億</t>
+          <t>12.02億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>281030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>美容及個人護理</t>
+          <t>中醫藥</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.550%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.01千萬</t>
+          <t>8.86千萬</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.63千萬</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.37</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>002010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>乳製品</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+1.060%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.56億</t>
+          <t>12.68億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>21.49億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>101010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>超市/百貨/商城</t>
+          <t>商業用車及貨車</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>+2.010%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>11.96億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>16.53億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>8.86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>701020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>綜合飲食製造</t>
+          <t>電腦及週邊器材</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>+2.100%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.86千萬</t>
+          <t>3.01億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.21千萬</t>
+          <t>4.66億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>15.57</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>800010</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>綜合旅遊、酒店及餐飲</t>
+          <t>綜合企業</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1.530%</t>
+          <t>+0.480%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>+1.180%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.05萬</t>
+          <t>3.67億</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>48.83萬</t>
+          <t>7.33億</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>10.35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>602010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>電子商貿及互聯網服務</t>
+          <t>建築材料</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-1.790%</t>
+          <t>+2.580%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>233.72億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>142.48億</t>
+          <t>5.00億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>110.68</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>232020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>電氣設備</t>
+          <t>消費電子產品</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.10千萬</t>
+          <t>1.13億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.70千萬</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>3.89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>052020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>供電供熱</t>
+          <t>銅</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-1.410%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+2.640%</t>
+          <t>+1.800%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12.44億</t>
+          <t>8.08千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9.83億</t>
+          <t>1.19億</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>54.57</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>251020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>電子元器件</t>
+          <t>乳製品</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.880%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+2.480%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.86億</t>
+          <t>5.24億</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.48億</t>
+          <t>5.75億</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>13.03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0536</t>
+          <t>237040</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>新能源材料</t>
+          <t>多元化零售商</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-1.070%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+1.830%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.79億</t>
+          <t>3.28千萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.95億</t>
+          <t>4.51千萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>5.36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>702020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>環保</t>
+          <t>電子商貿及互聯網服務</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1.310%</t>
+          <t>+2.880%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.06億</t>
+          <t>171.11億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.45億</t>
+          <t>300.19億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>16.67</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0533</t>
+          <t>236010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>化肥農藥</t>
+          <t>教育</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+3.020%</t>
+          <t>+1.270%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.32千萬</t>
+          <t>7.05億</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.35千萬</t>
+          <t>10.51億</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>15.37</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>400010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>食品添加劑及調味料</t>
+          <t>電力</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1.110%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>+0.630%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.01億</t>
+          <t>10.17億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5.46千萬</t>
+          <t>15.30億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>17.96</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>101025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>鞋類</t>
+          <t>電子零件</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+1.480%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-1.690%</t>
+          <t>+2.950%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>5.65億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.76千萬</t>
+          <t>7.33億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>113.09</t>
+          <t>18.82</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0534</t>
+          <t>101030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>林木業</t>
+          <t>環保工程</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+2.010%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>49.51萬</t>
+          <t>1.16億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>61.65萬</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>17.13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>053010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>殯儀</t>
+          <t>化肥及農用化合物</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.74千萬</t>
+          <t>1.43千萬</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6.62百萬</t>
+          <t>3.08千萬</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>503030</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>家具及家居用品</t>
+          <t>信貸</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.770%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.01千萬</t>
+          <t>9.99千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.02千萬</t>
+          <t>1.54億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>10.22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>251050</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>博彩</t>
+          <t>食品添加劑</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-2.500%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-1.990%</t>
+          <t>+1.130%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12.87億</t>
+          <t>8.00千萬</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13.16億</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>19.64</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>233030</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>燃氣供應</t>
+          <t>鞋類</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-1.370%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.83億</t>
+          <t>5.89千萬</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.35億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>10.19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>053020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>林業及木材</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-3.170%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.37百萬</t>
+          <t>8.92千</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15.25萬</t>
+          <t>5.75萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>400020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>酒店及度假村</t>
+          <t>燃氣供應</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-2.180%</t>
+          <t>-2.210%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.850%</t>
+          <t>+1.550%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.96千萬</t>
+          <t>9.32億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.10千萬</t>
+          <t>9.46億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>20.48</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>051010</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>家用電器</t>
+          <t>黃金及貴金屬</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-3.320%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-1.610%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.54億</t>
+          <t>10.10億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.96億</t>
+          <t>9.53億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>22.28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>602030</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>工業用品</t>
+          <t>重型基建</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.09億</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.38億</t>
+          <t>3.28億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>13.92</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>101040</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>重機械</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>+1.720%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.37億</t>
+          <t>7.88千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.75千萬</t>
+          <t>1.49億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>12.46</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>232010</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>保險</t>
+          <t>家庭電器</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>+1.270%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>42.88億</t>
+          <t>8.00億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>38.62億</t>
+          <t>10.88億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>8.07</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>237030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>投資及資產管理</t>
+          <t>家居裝修零售商</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>34.50億</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>36.16億</t>
+          <t>1.73萬</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>8.14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>234040</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>資訊科技器材</t>
+          <t>酒店及度假村</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>8.03千萬</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.13億</t>
+          <t>1.08億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>232040</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>休閒娛樂</t>
+          <t>家具</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.750%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-1.170%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.05億</t>
+          <t>6.60千萬</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.97億</t>
+          <t>6.98千萬</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>41.90</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>101020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>機械裝備及器材</t>
+          <t>工業零件及器材</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.580%</t>
+          <t>+1.650%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.23億</t>
+          <t>2.41億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.19億</t>
+          <t>4.34億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16.26</t>
+          <t>9.74</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>航運及港務</t>
+          <t>保險</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-1.750%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>+2.150%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9.92億</t>
+          <t>38.96億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6.93億</t>
+          <t>51.33億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>38.72</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>503020</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>醫療器械及服務</t>
+          <t>投資及資產管理</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.21億</t>
+          <t>33.18億</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5.66億</t>
+          <t>37.38億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>052010</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>藥品</t>
+          <t>鋼鐵</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>16.62億</t>
+          <t>2.84千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>12.34億</t>
+          <t>4.43千萬</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>13.47</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>233040</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>影視娛樂</t>
+          <t>珠寶鐘錶</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.820%</t>
+          <t>+4.530%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9.58千萬</t>
+          <t>2.35億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0522</t>
+          <t>234070</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>有色金屬</t>
+          <t>消閒及文娛設施</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.30億</t>
+          <t>2.53千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4.52億</t>
+          <t>2.57千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>0.62</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5032</t>
+          <t>282020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>其他金融</t>
+          <t>醫療及醫學美容服務</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12.65億</t>
+          <t>4.75億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10.86億</t>
+          <t>7.08億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>14.30</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0511</t>
+          <t>282010</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>其他礦物</t>
+          <t>醫療保健設備</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-1.890%</t>
+          <t>+2.440%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.37億</t>
+          <t>2.50億</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.12億</t>
+          <t>4.74億</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26.28</t>
+          <t>8.05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>235030</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>其他支援服務</t>
+          <t>影視娛樂</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1.240%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>+4.480%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6.21億</t>
+          <t>1.46億</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5.40億</t>
+          <t>1.89億</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>45.79</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>101050</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>包裝食品</t>
+          <t>新能源物料</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+3.230%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.14億</t>
+          <t>5.43億</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.59億</t>
+          <t>7.04億</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>8.92</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0535</t>
+          <t>251030</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>造紙</t>
+          <t>非酒精飲料</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+1.130%</t>
+          <t>+2.060%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7.38千萬</t>
+          <t>2.29億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.85千萬</t>
+          <t>5.18億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>11.72</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0011</t>
+          <t>001020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>石油及天然氣</t>
+          <t>氣油設備與服務</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.930%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14.88億</t>
+          <t>8.02千萬</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11.83億</t>
+          <t>1.17億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>117.69</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0012</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>石油天然氣設備及服務</t>
+          <t>氣油生產商</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-3.860%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.88千萬</t>
+          <t>28.85億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5.77千萬</t>
+          <t>31.55億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17.78</t>
+          <t>7.24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0512</t>
+          <t>233050</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>貴金屬</t>
+          <t>其他服飾配件</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-1.200%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+1.630%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.91億</t>
+          <t>1.52億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2.84億</t>
+          <t>2.15億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>41.50</t>
+          <t>7.82</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>503040</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>印刷及包裝</t>
+          <t>其他金融</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+3.690%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.46千萬</t>
+          <t>10.41億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.10千萬</t>
+          <t>16.00億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>7.56</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6011</t>
+          <t>052040</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>地產發展</t>
+          <t>其他金屬及礦物</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-1.300%</t>
+          <t>+0.150%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>+2.810%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>35.55億</t>
+          <t>3.32億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>22.88億</t>
+          <t>3.62億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>8.30</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>237050</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>地產投資</t>
+          <t>其他零售商</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-1.440%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.79億</t>
+          <t>3.35千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6.18億</t>
+          <t>3.86千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>26.64</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>236020</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>物業管理及代理</t>
+          <t>其他支援服務</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-1.330%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-1.200%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>9.95億</t>
+          <t>1.87千萬</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5.98億</t>
+          <t>4.45千萬</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>39.17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>251010</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>公用運輸</t>
+          <t>包裝食品</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.340%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>5.57千萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.11億</t>
+          <t>2.05億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>28.12</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>053030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>出版傳媒</t>
+          <t>紙及紙製品</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.770%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.71百萬</t>
+          <t>1.37億</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.47百萬</t>
+          <t>2.04億</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>11.35</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6013</t>
+          <t>253020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>房地產投資信託基金</t>
+          <t>個人護理</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.980%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.12億</t>
+          <t>5.96千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.67億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>17.56</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>281010</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>餐飲</t>
+          <t>藥品</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.690%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-1.720%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.63億</t>
+          <t>17.21億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5.44億</t>
+          <t>24.80億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>17.67</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>252010</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>公路及鐵路</t>
+          <t>禽畜肉類</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+1.240%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-1.880%</t>
+          <t>+1.540%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>8.10千萬</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>8.48千萬</t>
+          <t>1.66億</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>103020</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>衛星及航天科技</t>
+          <t>印刷及包裝</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+0.930%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4.39千萬</t>
+          <t>1.90千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.88千萬</t>
+          <t>1.61千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>21.01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5041</t>
+          <t>601020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>證券</t>
+          <t>地產發展商</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.150%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>+4.110%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4.91億</t>
+          <t>23.15億</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.25億</t>
+          <t>35.88億</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>26.24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>601030</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>半導體</t>
+          <t>地產投資</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-1.990%</t>
+          <t>+0.700%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13.35億</t>
+          <t>3.93億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>7.14億</t>
+          <t>8.42億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>11.89</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>601050</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>軟飲料</t>
+          <t>物業服務及管理</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-1.030%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+3.540%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>7.06億</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.13億</t>
+          <t>8.27億</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>17.74</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7023</t>
+          <t>235040</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>軟件開發</t>
+          <t>出版</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-0.030%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-3.210%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>8.80億</t>
+          <t>9.76千萬</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.89億</t>
+          <t>1.44億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>7.82</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0521</t>
+          <t>102020</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>鋼鐵</t>
+          <t>鐵路及公路</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-1.890%</t>
+          <t>+1.580%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.43千萬</t>
+          <t>7.01千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.44千萬</t>
+          <t>1.63億</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>11.12</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7021</t>
+          <t>601040</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>系統開發及信息科技顧問</t>
+          <t>房地產投資信托</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+1.830%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.86億</t>
+          <t>3.00億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.80億</t>
+          <t>5.93億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>21.03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>234060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>電訊及網絡器材</t>
+          <t>餐飲</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+2.130%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15.14億</t>
+          <t>5.04億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>8.48億</t>
+          <t>9.34億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>22.81</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>350010</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>電訊服務</t>
+          <t>衛星及無線通訊</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>16.61億</t>
+          <t>3.04千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>9.52億</t>
+          <t>1.32億</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>109.56</t>
+          <t>8.30</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>503010</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>紡織及制衣</t>
+          <t>證券及經紀</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-0.340%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>8.32億</t>
+          <t>6.78億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4.91億</t>
+          <t>8.13億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>9.97</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>703010</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>玩具</t>
+          <t>半導體</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>+1.050%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>+2.280%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.74億</t>
+          <t>16.19億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>8.75千萬</t>
+          <t>10.44億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>6.21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>102010</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>旅遊及觀光</t>
+          <t>航運及港口</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-1.930%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>6.99億</t>
+          <t>5.25億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4.64億</t>
+          <t>11.25億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>9.57</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>702030</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>倉儲物流</t>
+          <t>軟件開發</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-1.720%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+1.590%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.31億</t>
+          <t>13.89億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1.32億</t>
+          <t>14.57億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>10.74</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>103010</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>鐘錶珠寶</t>
+          <t>採購及供應鏈管理</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+2.790%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.29億</t>
+          <t>89.00萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>9.63千萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>3.01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>053040</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>水務供應</t>
+          <t>特殊化工用品</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>+1.040%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>+0.960%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>1.41億</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7.87千萬</t>
+          <t>1.38億</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>9.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>253010</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>超市及便利店</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-1.140%</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>+2.660%</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2.32千萬</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.45千萬</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>702010</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>系統開發及資訊科技顧問</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>+0.370%</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>+0.200%</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>6.11億</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.87億</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>701010</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>電訊設備</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-0.090%</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>+1.370%</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>8.45億</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>12.08億</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>350020</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>電訊服務</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-0.550%</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>+1.260%</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>14.17億</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>19.72億</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>紡織品及布料</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>+1.780%</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>+0.690%</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4.56千萬</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.17千萬</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>251045</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>煙草</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-0.210%</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>+2.270%</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1.84百萬</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.72百萬</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>232030</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>玩具及消閒用品</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-0.910%</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>+0.570%</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>9.13千萬</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.27億</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>234010</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>公共運輸</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-0.800%</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>+0.860%</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1.36億</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.15億</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>234050</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>旅遊及觀光</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>+0.870%</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>+2.620%</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>7.68億</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>10.10億</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>400030</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>水務</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>+0.280%</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>+0.700%</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>9.01千萬</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.77億</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4.16</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,3515 +473,4921 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>235010</t>
+          <t>100201</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>廣告及宣傳</t>
+          <t>廣告</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+4.540%</t>
+          <t>+2.250%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07億</t>
+          <t>7.94億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42億</t>
+          <t>8.17億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>31.71</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101060</t>
+          <t>020702</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>航空航天與國防</t>
+          <t>農產品</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1.340%</t>
+          <t>+2.400%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.76千萬</t>
+          <t>2.91千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15千萬</t>
+          <t>3.83千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>10.32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>252020</t>
+          <t>100508</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>農產品</t>
+          <t>航空貨運與物流</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.29千萬</t>
+          <t>10.10億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.93千萬</t>
+          <t>16.19億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>14.69</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>102030</t>
+          <t>100501</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>航空貨運及物流</t>
+          <t>航空公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>-0.810%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.24億</t>
+          <t>3.26億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.86億</t>
+          <t>4.07億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100.27</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>234020</t>
+          <t>100502</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>航空服務</t>
+          <t>機場服務</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+1.120%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+3.240%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>2.02億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.87億</t>
+          <t>3.11億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>7.55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>251040</t>
+          <t>080401</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>酒精飲料</t>
+          <t>鋁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+1.580%</t>
+          <t>+3.060%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+3.520%</t>
+          <t>+1.450%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.47億</t>
+          <t>9.87億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.01億</t>
+          <t>7.42億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>6.38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>400040</t>
+          <t>020703</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>非傳統/可再生能源</t>
+          <t>禽畜飼料</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.710%</t>
+          <t>+0.790%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+1.900%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.19億</t>
+          <t>6.32千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.22億</t>
+          <t>4.96萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>14.38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>052030</t>
+          <t>100301</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鋁</t>
+          <t>服裝、服飾與奢侈品零售</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.320%</t>
+          <t>+0.220%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+4.140%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.01億</t>
+          <t>1.07千萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.60億</t>
+          <t>7.87百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>6.71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>252030</t>
+          <t>020601</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>禽畜飼料</t>
+          <t>服裝與服飾</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.46千萬</t>
+          <t>3.72億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>3.19億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>10.47</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>233020</t>
+          <t>070203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>服裝</t>
+          <t>應用軟件</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+1.330%</t>
+          <t>+2.080%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18.52億</t>
+          <t>99.11億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24.25億</t>
+          <t>75.58億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>8.76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237020</t>
+          <t>020102</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>服裝零售商</t>
+          <t>機動車零配件與設備</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+1.090%</t>
+          <t>+0.950%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.81千萬</t>
+          <t>3.97億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.94千萬</t>
+          <t>4.90億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>20.98</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>231020</t>
+          <t>020101</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>汽車零件</t>
+          <t>汽車製造商</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+1.970%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+1.630%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>90.38億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.00億</t>
+          <t>117.29億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>43.94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>231010</t>
+          <t>100302</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>汽車</t>
+          <t>汽車零售</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+2.550%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+4.570%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26.57億</t>
+          <t>4.76億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>42.33億</t>
+          <t>2.49億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>14.50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>237010</t>
+          <t>060103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>汽車零售商</t>
+          <t>電池產品</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+3.210%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.91億</t>
+          <t>7.52億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.62億</t>
+          <t>10.85億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>501010</t>
+          <t>020305</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>銀行</t>
+          <t>美容護膚產品及服務</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+1.230%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+0.850%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56.82億</t>
+          <t>12.90億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>74.14億</t>
+          <t>7.26億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>11.96</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281020</t>
+          <t>100308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>生物技術</t>
+          <t>美容護膚產品零售</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+1.770%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+1.980%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19.20億</t>
+          <t>2.51百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>30.88億</t>
+          <t>3.36百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>30.52</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>235020</t>
+          <t>020204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>廣播</t>
+          <t>飲品 (酒精類)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-2.290%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+9.120%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.63億</t>
+          <t>3.71億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.99千萬</t>
+          <t>7.19億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>7.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>602020</t>
+          <t>020205</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>樓宇建造</t>
+          <t>飲品 (非酒精類)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>14.14億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>17.77億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>20.93</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>234030</t>
+          <t>050203</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>賭場及博彩</t>
+          <t>生物科技- 醫療器械</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+1.400%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+3.150%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.53億</t>
+          <t>2.06億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12.02億</t>
+          <t>2.89億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>9.58</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>281030</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中醫藥</t>
+          <t>生物科技- 製藥</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-2.400%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.86千萬</t>
+          <t>102.43億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>95.17億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>14.77</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>002010</t>
+          <t>050204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>生物科技- 用品與服務</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+1.060%</t>
+          <t>-1.920%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12.68億</t>
+          <t>99.93億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.49億</t>
+          <t>86.23億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>39.24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>090102</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>商業用車及貨車</t>
+          <t>樓宇建造</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+1.660%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+2.010%</t>
+          <t>+1.390%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11.96億</t>
+          <t>5.98千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16.53億</t>
+          <t>5.31千萬</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>19.41</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>701020</t>
+          <t>100405</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>電腦及週邊器材</t>
+          <t>賭場與賭博</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+2.100%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.01億</t>
+          <t>20.50億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.66億</t>
+          <t>14.65億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>362.94</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>800010</t>
+          <t>020304</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>綜合企業</t>
+          <t>兒童及幼兒用品</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+0.480%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+1.180%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.67億</t>
+          <t>3.77百萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.33億</t>
+          <t>1.33千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>602010</t>
+          <t>060108</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>建築材料</t>
+          <t>卷煙產品</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+4.280%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+2.580%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>4.95億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.00億</t>
+          <t>6.31億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>110.68</t>
+          <t>22.23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>232020</t>
+          <t>030101</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>消費電子產品</t>
+          <t>煤炭開採</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>+0.830%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.13億</t>
+          <t>9.95億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>16.41億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.84</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>052020</t>
+          <t>030103</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>銅</t>
+          <t>焦煤炭開採</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+1.800%</t>
+          <t>+1.820%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.08千萬</t>
+          <t>4.16千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.19億</t>
+          <t>4.84千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>54.57</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>251020</t>
+          <t>100105</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>乳製品</t>
+          <t>工商及專業服務</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>-1.510%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+2.480%</t>
+          <t>+2.120%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.24億</t>
+          <t>5.64千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.75億</t>
+          <t>7.30千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>237040</t>
+          <t>100102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>多元化零售商</t>
+          <t>商業印刷</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+1.830%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.28千萬</t>
+          <t>9.26百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.51千萬</t>
+          <t>5.57百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>702020</t>
+          <t>070302</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>電子商貿及互聯網服務</t>
+          <t>電腦硬件</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+2.880%</t>
+          <t>+5.030%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>171.11億</t>
+          <t>9.31億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>300.19億</t>
+          <t>11.11億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>30.56</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>236010</t>
+          <t>070303</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>教育</t>
+          <t>電腦存儲與周邊設備</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>+1.590%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+1.270%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.05億</t>
+          <t>6.04千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.51億</t>
+          <t>9.81千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>7.84</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>400010</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>電力</t>
+          <t>綜合企業</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>-1.460%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+0.630%</t>
+          <t>+1.020%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.17億</t>
+          <t>7.91億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15.30億</t>
+          <t>7.79億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17.96</t>
+          <t>6.64</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>101025</t>
+          <t>090101</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>電子零件</t>
+          <t>建築與工程</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+1.480%</t>
+          <t>+0.700%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+2.950%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.65億</t>
+          <t>6.34億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.33億</t>
+          <t>2.54億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18.82</t>
+          <t>13.87</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>101030</t>
+          <t>060202</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>環保工程</t>
+          <t>建築、農用機械與重型卡車</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+1.360%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+2.010%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.16億</t>
+          <t>6.08億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>5.87億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17.13</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>053010</t>
+          <t>080201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>化肥及農用化合物</t>
+          <t>建築材料</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+1.350%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.43千萬</t>
+          <t>13.20億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.08千萬</t>
+          <t>5.58億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>95.29</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>503030</t>
+          <t>020401</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>信貸</t>
+          <t>消費電子產品</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.99千萬</t>
+          <t>2.52千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.54億</t>
+          <t>2.59千萬</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>12.37</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>251050</t>
+          <t>040201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>食品添加劑</t>
+          <t>消費信貸與貸款融資</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+1.130%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8.00千萬</t>
+          <t>3.28億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.05億</t>
+          <t>2.69億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>18.50</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>233030</t>
+          <t>020206</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>鞋類</t>
+          <t>乳製品</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+1.160%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.89千萬</t>
+          <t>4.19億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>4.92億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>55.61</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>053020</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>林業及木材</t>
+          <t>百貨商店</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>+3.420%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8.92千</t>
+          <t>3.53百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.75萬</t>
+          <t>2.66百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>040101</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>燃氣供應</t>
+          <t>綜合性銀行</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-2.210%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+1.550%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9.32億</t>
+          <t>64.26億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>9.46億</t>
+          <t>89.71億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20.48</t>
+          <t>7.48</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>051010</t>
+          <t>080101</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黃金及貴金屬</t>
+          <t>綜合化工產品</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-3.320%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+2.330%</t>
+          <t>+1.670%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.10億</t>
+          <t>5.17億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9.53億</t>
+          <t>3.22億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22.28</t>
+          <t>34.46</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>602030</t>
+          <t>080402</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>重型基建</t>
+          <t>多種金屬與礦石</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>+0.420%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>+1.720%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>28.19億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.28億</t>
+          <t>17.97億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.92</t>
+          <t>10.74</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>101040</t>
+          <t>100404</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>重機械</t>
+          <t>綜合旅遊、酒店及餐館食肆</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+1.720%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.88千萬</t>
+          <t>6.07千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.49億</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>84.82</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>232010</t>
+          <t>070201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>家庭電器</t>
+          <t>電子商貿及互聯網服務</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+1.270%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8.00億</t>
+          <t>239.30億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10.88億</t>
+          <t>297.72億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>19.48</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>237030</t>
+          <t>100104</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>家居裝修零售商</t>
+          <t>教育服務</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>-0.340%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+0.910%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>600.00</t>
+          <t>7.57億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.73萬</t>
+          <t>8.21億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>22.61</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>234040</t>
+          <t>120101</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>酒店及度假村</t>
+          <t>電力公用事業</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8.03千萬</t>
+          <t>13.82億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.08億</t>
+          <t>13.01億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>11.76</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>232040</t>
+          <t>060101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>家具</t>
+          <t>電器部件與設備</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>+3.250%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6.60千萬</t>
+          <t>7.42億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.98千萬</t>
+          <t>3.82億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>41.90</t>
+          <t>19.11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>101020</t>
+          <t>070305</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>工業零件及器材</t>
+          <t>電子元件</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>-2.210%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+1.650%</t>
+          <t>+1.480%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.41億</t>
+          <t>1.69億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.34億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>32.27</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>070304</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>保險</t>
+          <t>電子設備與儀器</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+2.150%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>38.96億</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>51.33億</t>
+          <t>1.91億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>15.33</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>503020</t>
+          <t>100103</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>投資及資產管理</t>
+          <t>環境與設施服務</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>33.18億</t>
+          <t>1.53億</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>37.38億</t>
+          <t>9.89千萬</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>15.49</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>052010</t>
+          <t>060106</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>鋼鐵</t>
+          <t>環保產品</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>+0.950%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2.84千萬</t>
+          <t>7.33千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4.43千萬</t>
+          <t>8.92千萬</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>23.71</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>233040</t>
+          <t>120105</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>珠寶鐘錶</t>
+          <t>環保公用事業</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+4.530%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.01億</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.35億</t>
+          <t>1.36億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>6.67</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>234070</t>
+          <t>080102</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>消閒及文娛設施</t>
+          <t>化肥與農用藥劑</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>+5.320%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.53千萬</t>
+          <t>4.71千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.57千萬</t>
+          <t>5.43千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>6.06</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>282020</t>
+          <t>020207</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>醫療及醫學美容服務</t>
+          <t>食品添加劑</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.75億</t>
+          <t>1.10億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7.08億</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>14.35</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>282010</t>
+          <t>020602</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>醫療保健設備</t>
+          <t>鞋類</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+2.440%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.50億</t>
+          <t>2.32千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.74億</t>
+          <t>3.09千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>235030</t>
+          <t>080501</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>影視娛樂</t>
+          <t>林業產品</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+1.320%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>+4.480%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.46億</t>
+          <t>9.74萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>1.18百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>45.79</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>101050</t>
+          <t>100101</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>新能源物料</t>
+          <t>殯儀服務</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>-4.240%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>+3.230%</t>
+          <t>-3.960%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.43億</t>
+          <t>7.06千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>7.04億</t>
+          <t>8.96千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>19.52</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>251030</t>
+          <t>070204</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>非酒精飲料</t>
+          <t>遊戲軟件</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+2.060%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.29億</t>
+          <t>13.84億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5.18億</t>
+          <t>17.74億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>5.92</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>001020</t>
+          <t>120102</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>氣油設備與服務</t>
+          <t>燃氣公用事業</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.930%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8.02千萬</t>
+          <t>5.83億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.17億</t>
+          <t>6.05億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>117.69</t>
+          <t>12.61</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>060104</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>氣油生產商</t>
+          <t>玻璃產品</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.960%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>28.85億</t>
+          <t>2.32億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>31.55億</t>
+          <t>2.59億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>233050</t>
+          <t>080601</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>其他服飾配件</t>
+          <t>黃金與貴金屬</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+4.230%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+1.940%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.52億</t>
+          <t>25.73億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2.15億</t>
+          <t>19.39億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>26.84</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>503040</t>
+          <t>050101</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>其他金融</t>
+          <t>醫療保健設備</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+3.690%</t>
+          <t>-1.530%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.41億</t>
+          <t>16.48億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>16.00億</t>
+          <t>15.46億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>34.36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>052040</t>
+          <t>050102</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>其他金屬及礦物</t>
+          <t>保健護理服務</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.150%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+2.810%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.32億</t>
+          <t>16.44億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.62億</t>
+          <t>24.75億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>16.55</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>237050</t>
+          <t>050103</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>其他零售商</t>
+          <t>醫療保健用品</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>-2.160%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>+1.600%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.35千萬</t>
+          <t>3.55千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3.86千萬</t>
+          <t>7.26千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>26.64</t>
+          <t>14.18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>236020</t>
+          <t>060201</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>其他支援服務</t>
+          <t>重型電氣設備</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+1.780%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.87千萬</t>
+          <t>15.14億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4.45千萬</t>
+          <t>9.93億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>39.17</t>
+          <t>15.66</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>251010</t>
+          <t>100503</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>包裝食品</t>
+          <t>公路基建</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+0.340%</t>
+          <t>+1.070%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.57千萬</t>
+          <t>8.87千萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.05億</t>
+          <t>1.59億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28.12</t>
+          <t>7.99</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>053030</t>
+          <t>020404</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>紙及紙製品</t>
+          <t>家庭裝飾品</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.37億</t>
+          <t>1.51千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.04億</t>
+          <t>2.03千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>19.53</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>253020</t>
+          <t>100401</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>個人護理</t>
+          <t>酒店、度假村與豪華遊輪</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.96千萬</t>
+          <t>1.09億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.42億</t>
+          <t>8.62千萬</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>281010</t>
+          <t>020402</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>藥品</t>
+          <t>家用電器</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>-0.790%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17.21億</t>
+          <t>7.26億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>24.80億</t>
+          <t>10.59億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>19.02</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>252010</t>
+          <t>100306</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>禽畜肉類</t>
+          <t>家用電器零售</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.600%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>+1.540%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.01億</t>
+          <t>8.23百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.66億</t>
+          <t>4.54百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.81</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>103020</t>
+          <t>020301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>印刷及包裝</t>
+          <t>家庭用品</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>+0.930%</t>
+          <t>+1.100%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.90千萬</t>
+          <t>8.88千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.61千萬</t>
+          <t>8.06千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>27.84</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>601020</t>
+          <t>020403</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>地產發展商</t>
+          <t>家用器具與特殊消費品</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+4.110%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23.15億</t>
+          <t>39.49萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>35.88億</t>
+          <t>4.51百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>26.24</t>
+          <t>4.96</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>601030</t>
+          <t>100305</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>地產投資</t>
+          <t>大賣場/超市/便利店</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>-3.530%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+0.700%</t>
+          <t>+6.080%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.93億</t>
+          <t>2.41億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8.42億</t>
+          <t>3.31億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>7.66</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>601050</t>
+          <t>060205</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>物業服務及管理</t>
+          <t>工業集團企業</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-1.030%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+3.540%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7.06億</t>
+          <t>1.84千萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8.27億</t>
+          <t>4.08千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>14.80</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>235040</t>
+          <t>060203</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>出版</t>
+          <t>工業機械</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>9.76千萬</t>
+          <t>4.26億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.44億</t>
+          <t>3.23億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>23.09</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>102020</t>
+          <t>100505</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>鐵路及公路</t>
+          <t>基建投資企業</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+1.580%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7.01千萬</t>
+          <t>6.53千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.63億</t>
+          <t>6.75千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>17.23</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>601040</t>
+          <t>030201</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>房地產投資信托</t>
+          <t>綜合性石油與天然氣企業</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>-1.360%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+1.830%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3.00億</t>
+          <t>15.72億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5.93億</t>
+          <t>28.63億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>4.11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>234060</t>
+          <t>040202</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>餐飲</t>
+          <t>投資銀行業與經紀業</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+2.380%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+2.130%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>39.49億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9.34億</t>
+          <t>62.68億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>26.05</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>350010</t>
+          <t>040204</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>衛星及無線通訊</t>
+          <t>投資公司</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.04千萬</t>
+          <t>3.28千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.32億</t>
+          <t>2.22千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>209.28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>503010</t>
+          <t>040203</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>證券及經紀</t>
+          <t>投資控股及資產管理</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>+1.840%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6.78億</t>
+          <t>11.00億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>8.13億</t>
+          <t>9.23億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>112.67</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>703010</t>
+          <t>080403</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>半導體</t>
+          <t>鋼鐵</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+1.050%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+2.280%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>16.19億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10.44億</t>
+          <t>3.64億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.48</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>102010</t>
+          <t>070202</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>航運及港口</t>
+          <t>資訊科技諮詢與其它服務</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5.25億</t>
+          <t>2.20億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>11.25億</t>
+          <t>3.28億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>115.51</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>702030</t>
+          <t>070307</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>軟件開發</t>
+          <t>資訊科技產品經銷商</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+1.590%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13.89億</t>
+          <t>1.62億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>14.57億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>318.24</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>103010</t>
+          <t>020606</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>採購及供應鏈管理</t>
+          <t>皮具產品</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+2.790%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>89.00萬</t>
+          <t>1.08億</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>2.92億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>4.14</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>053040</t>
+          <t>020501</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>特殊化工用品</t>
+          <t>消閒用品</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+1.040%</t>
+          <t>+2.140%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+0.960%</t>
+          <t>+1.520%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>1.83千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.38億</t>
+          <t>2.25千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>253010</t>
+          <t>040301</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>超市及便利店</t>
+          <t>人壽與健康保險</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-1.140%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+2.660%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.32千萬</t>
+          <t>29.94億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2.45千萬</t>
+          <t>56.16億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>6.26</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>702010</t>
+          <t>020405</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>系統開發及資訊科技顧問</t>
+          <t>照明產品</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+2.680%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6.11億</t>
+          <t>1.57百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7.87億</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>701010</t>
+          <t>060105</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>電訊設備</t>
+          <t>液晶顯示器</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+1.370%</t>
+          <t>+3.130%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>8.45億</t>
+          <t>4.38千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>12.08億</t>
+          <t>5.17千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>8.46</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>350020</t>
+          <t>100506</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>電訊服務</t>
+          <t>海運</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>+0.600%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14.17億</t>
+          <t>7.34億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>19.72億</t>
+          <t>6.18億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>6.73</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>233010</t>
+          <t>100507</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>紡織品及布料</t>
+          <t>海港與服務</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>+1.780%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.56千萬</t>
+          <t>2.79億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.17千萬</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>14.34</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>251045</t>
+          <t>080301</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>煙草</t>
+          <t>金屬、玻璃與塑膠材料包裝</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+2.270%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.84百萬</t>
+          <t>19.96萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.72百萬</t>
+          <t>27.50萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>17.48</t>
+          <t>7.40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>232030</t>
+          <t>100202</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>玩具及消閒用品</t>
+          <t>電影與娛樂</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+1.790%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+1.790%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>9.13千萬</t>
+          <t>17.54億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>26.54億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>10.40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>234010</t>
+          <t>040302</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>公共運輸</t>
+          <t>多元化保險</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>+0.860%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>18.23億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2.15億</t>
+          <t>26.26億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>14.06</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>234050</t>
+          <t>030202</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>旅遊及觀光</t>
+          <t>石油天然氣設備與服務</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+2.620%</t>
+          <t>+1.210%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7.68億</t>
+          <t>3.98億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>10.10億</t>
+          <t>7.86億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>24.53</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>400030</t>
+          <t>030203</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>水務</t>
+          <t>石油與天然氣勘探及生產</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>+0.700%</t>
+          <t>-0.490%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>9.01千萬</t>
+          <t>1.98千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.77億</t>
+          <t>3.13千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>5.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>030204</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>石油與天然氣煉製及營銷</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>+0.060%</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-1.630%</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>4.06千萬</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.22千萬</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>55.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>030205</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>石油與天然氣儲存及運輸</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-0.270%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>+1.210%</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3.19百萬</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.23百萬</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>020303</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>視力產品</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>+0.980%</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>+0.110%</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5.26千萬</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.30千萬</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>040205</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>其它綜合性金融服務</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-0.260%</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-0.910%</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>12.59億</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>26.36億</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>020203</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>包裝食品</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-0.540%</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>+0.020%</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3.12億</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.70億</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>080302</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>紙材料包裝</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>+5.710%</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>-0.710%</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.23千萬</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.50千萬</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>080502</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>紙製品</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>-2.910%</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>+1.040%</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.02億</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.57億</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>020302</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>個人用品</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>+0.670%</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>+2.380%</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.66億</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.07億</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>050202</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>製藥</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-0.180%</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>-0.760%</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>52.18億</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>47.87億</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>020701</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>禽畜、肉類與海產</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>+0.040%</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2.32億</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.85億</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>060102</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>線路板</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>+1.420%</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-1.250%</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3.74千萬</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.18千萬</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>040303</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>財產與意外傷害保險</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>-0.190%</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>+1.200%</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4.76億</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.33億</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>090201</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>綜合房地產</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>-0.960%</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>+0.980%</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>4.67億</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.41億</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>090204</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>房地產開發</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>-0.430%</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>+0.980%</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.30億</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>23.16億</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>090202</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>房地產投資</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>+0.240%</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>+0.090%</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6.31億</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.45億</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>090203</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>物業服務及管理</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>+1.670%</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>+1.910%</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>6.75億</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.47億</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>100203</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>出版</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>+0.530%</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>+0.820%</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.03億</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.81千萬</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>100504</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>鐵路基建</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>-1.070%</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>+0.880%</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.67億</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.73億</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>100402</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>餐館食肆</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>+0.040%</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>+0.370%</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>5.37億</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.50億</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>110102</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>衛星電訊服務</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>+1.950%</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>-0.490%</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.89萬</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>74.55萬</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>100106</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>安全與報警服務</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>+0.520%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>-1.540%</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>48.03萬</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.26百萬</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>070101</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>半導體產品及設備</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>-0.470%</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>+1.300%</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>147.01億</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>91.12億</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>060204</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>船舶建造</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>-2.630%</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>-3.820%</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.32億</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.89億</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>58.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>070306</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>智能手機</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-1.000%</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>-0.480%</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>82.00億</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>94.80億</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>060107</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>太陽能產品</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>+0.820%</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-2.550%</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>6.17億</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.38億</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>020605</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>體育用品</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>+1.110%</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>+1.190%</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7.48億</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>11.53億</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>070205</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>系統軟件</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>+0.140%</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>+2.770%</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>12.49億</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>10.55億</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>110101</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>電訊服務</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-0.680%</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>+0.750%</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>35.02億</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>27.96億</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>141.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>070301</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>電訊及網絡器材設備</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-0.510%</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>+0.710%</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>16.83億</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>16.13億</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>59.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>020603</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>紡織品</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>-0.540%</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>+0.590%</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1.18千萬</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.25千萬</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>020103</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>輪胎與橡膠</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>+2.410%</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>-0.720%</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>9.46百萬</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7.37百萬</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>100403</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>旅遊</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>+1.410%</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-0.440%</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>9.93億</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>11.51億</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>020502</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>玩具</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>+0.030%</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>+0.940%</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>16.57億</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>33.91億</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>100509</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>陸運</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>-1.080%</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>+2.860%</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.34億</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.59千萬</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>100204</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>電視廣播</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-0.830%</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>-1.400%</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4.77百萬</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.29千萬</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>020604</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>鐘錶珠寶</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>+0.520%</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>+0.450%</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>12.49億</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>17.10億</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>100307</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>鐘錶珠寶零售</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>+0.600%</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>-0.140%</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1.86億</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.08億</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>120103</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>水公用事業</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-0.600%</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>+0.630%</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1.08億</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.24億</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>4.45</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+2.250%</t>
+          <t>+1.080%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.94億</t>
+          <t>10.69億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.17億</t>
+          <t>8.66億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>33.03</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2.400%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.91千萬</t>
+          <t>9.29千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.83千萬</t>
+          <t>2.98億</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>12.38</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.10億</t>
+          <t>17.89億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16.19億</t>
+          <t>18.17億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>15.03</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>-0.430%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-1.790%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.26億</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.07億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+1.120%</t>
+          <t>-0.490%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.02億</t>
+          <t>2.00億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.11億</t>
+          <t>3.65億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+3.060%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.450%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.87億</t>
+          <t>7.32億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.42億</t>
+          <t>13.95億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.67</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>-2.130%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+9.380%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.32千</t>
+          <t>4.50千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.96萬</t>
+          <t>11.38萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>16.92</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>+1.250%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.07千萬</t>
+          <t>6.93百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.87百萬</t>
+          <t>1.05千萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.64</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+0.860%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>+0.630%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.72億</t>
+          <t>2.43億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.19億</t>
+          <t>8.48億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>11.02</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+2.080%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.11億</t>
+          <t>81.33億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.58億</t>
+          <t>176.65億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>9.86</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.950%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.97億</t>
+          <t>6.33億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.90億</t>
+          <t>13.53億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>22.97</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+1.970%</t>
+          <t>-1.380%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.38億</t>
+          <t>135.95億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>117.29億</t>
+          <t>151.43億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>61.20</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.76億</t>
+          <t>2.21億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.49億</t>
+          <t>7.41億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>15.75</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+1.900%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.52億</t>
+          <t>7.19億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.85億</t>
+          <t>18.38億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.89</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+1.230%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.90億</t>
+          <t>4.48億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.26億</t>
+          <t>12.49億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>12.03</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+1.770%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+0.960%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.51百萬</t>
+          <t>1.66百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.36百萬</t>
+          <t>2.75百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30.52</t>
+          <t>31.01</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>+0.530%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.71億</t>
+          <t>4.59億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.19億</t>
+          <t>10.75億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.32</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.14億</t>
+          <t>9.12億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17.77億</t>
+          <t>17.27億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>19.77</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>+3.840%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+2.450%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.06億</t>
+          <t>1.87億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.89億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+2.410%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-2.400%</t>
+          <t>+2.450%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>102.43億</t>
+          <t>72.21億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>95.17億</t>
+          <t>138.27億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>13.58</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+3.390%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-1.920%</t>
+          <t>+3.690%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.93億</t>
+          <t>57.29億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>86.23億</t>
+          <t>95.07億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>46.33</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+1.660%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+1.390%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.98千萬</t>
+          <t>3.65千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.31千萬</t>
+          <t>1.03億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.41</t>
+          <t>19.24</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20.50億</t>
+          <t>7.21億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14.65億</t>
+          <t>16.71億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>362.94</t>
+          <t>320.67</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>-1.730%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.77百萬</t>
+          <t>1.18千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.33千萬</t>
+          <t>3.44千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+4.280%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+1.440%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.95億</t>
+          <t>6.00億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.31億</t>
+          <t>9.92億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>22.49</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+0.830%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.95億</t>
+          <t>10.57億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>16.41億</t>
+          <t>11.85億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.99</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+15.760%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+1.820%</t>
+          <t>+1.340%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.16千萬</t>
+          <t>1.84千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.84千萬</t>
+          <t>3.67千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1.510%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+2.120%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.64千萬</t>
+          <t>4.19千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.30千萬</t>
+          <t>5.11千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+3.110%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9.26百萬</t>
+          <t>2.62千萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.57百萬</t>
+          <t>2.51千萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.30</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+9.990%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+5.030%</t>
+          <t>+7.140%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.31億</t>
+          <t>4.98億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11.11億</t>
+          <t>12.50億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>33.28</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+1.590%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.04千萬</t>
+          <t>4.83千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.81千萬</t>
+          <t>7.55千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>8.36</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1.460%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+1.020%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.91億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.79億</t>
+          <t>8.45億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.55</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.700%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.34億</t>
+          <t>5.58億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.54億</t>
+          <t>6.16億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>14.74</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+1.360%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.08億</t>
+          <t>6.14億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.87億</t>
+          <t>7.52億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+1.350%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.800%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13.20億</t>
+          <t>5.22億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.58億</t>
+          <t>8.61億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>95.29</t>
+          <t>98.41</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+1.000%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.52千萬</t>
+          <t>1.03千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.59千萬</t>
+          <t>2.75千萬</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>12.74</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.28億</t>
+          <t>1.89億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.69億</t>
+          <t>4.29億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>17.23</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.19億</t>
+          <t>5.46億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.92億</t>
+          <t>11.54億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>55.61</t>
+          <t>51.88</t>
         </is>
       </c>
     </row>
@@ -1889,22 +1889,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>-1.760%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+3.420%</t>
+          <t>+0.810%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.53百萬</t>
+          <t>1.47百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.66百萬</t>
+          <t>1.32千萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>-0.680%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>64.26億</t>
+          <t>62.63億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>89.71億</t>
+          <t>100.43億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+1.670%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5.17億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.22億</t>
+          <t>6.66億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>34.46</t>
+          <t>35.70</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.420%</t>
+          <t>+1.310%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+1.720%</t>
+          <t>+2.460%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>28.19億</t>
+          <t>34.97億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>17.97億</t>
+          <t>56.83億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>12.78</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6.07千萬</t>
+          <t>1.67千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>6.26千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>79.58</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+1.480%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>239.30億</t>
+          <t>573.87億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>297.72億</t>
+          <t>519.11億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>149.85</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.340%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.57億</t>
+          <t>2.65億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8.21億</t>
+          <t>7.54億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22.61</t>
+          <t>22.56</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13.82億</t>
+          <t>7.88億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13.01億</t>
+          <t>21.35億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>11.62</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+3.250%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.42億</t>
+          <t>4.14億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.82億</t>
+          <t>11.56億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>21.91</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-2.210%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+1.480%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.69億</t>
+          <t>1.48億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>5.00億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>32.27</t>
+          <t>32.17</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>+1.180%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>7.40千萬</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.91億</t>
+          <t>3.37億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>16.37</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.53億</t>
+          <t>7.76千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9.89千萬</t>
+          <t>2.15億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>15.43</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+0.950%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.33千萬</t>
+          <t>5.50千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8.92千萬</t>
+          <t>1.00億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>23.89</t>
         </is>
       </c>
     </row>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+0.150%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>+1.030%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>1.21億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>2.88億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+5.320%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.71千萬</t>
+          <t>3.90千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.43千萬</t>
+          <t>1.28億</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.93</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+1.160%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.10億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>3.56億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>14.04</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>+0.970%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+2.090%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.32千萬</t>
+          <t>3.54千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3.09千萬</t>
+          <t>6.60千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>+1.320%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>-1.410%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>9.74萬</t>
+          <t>13.12萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.18百萬</t>
+          <t>1.50百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-4.240%</t>
+          <t>-2.660%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-3.960%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7.06千萬</t>
+          <t>1.91億</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8.96千萬</t>
+          <t>3.03千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19.52</t>
+          <t>18.21</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13.84億</t>
+          <t>6.64億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>17.74億</t>
+          <t>19.91億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.95</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.83億</t>
+          <t>3.73億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6.05億</t>
+          <t>10.31億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>12.56</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-0.960%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.32億</t>
+          <t>8.82千萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.59億</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>8.07</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+4.230%</t>
+          <t>+4.560%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+1.940%</t>
+          <t>+4.070%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25.73億</t>
+          <t>32.89億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>19.39億</t>
+          <t>28.43億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>27.06</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-1.530%</t>
+          <t>+1.260%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>+2.010%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>16.48億</t>
+          <t>10.12億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>15.46億</t>
+          <t>11.95億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>37.91</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>16.44億</t>
+          <t>15.01億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>24.75億</t>
+          <t>36.58億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>18.36</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-2.160%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>+1.600%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.55千萬</t>
+          <t>3.96千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7.26千萬</t>
+          <t>6.70千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>13.43</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+1.780%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15.14億</t>
+          <t>5.19億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>9.93億</t>
+          <t>15.74億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>15.71</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+1.070%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8.87千萬</t>
+          <t>1.04億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.59億</t>
+          <t>2.73億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.82</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+3.250%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.51千萬</t>
+          <t>1.45千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.03千萬</t>
+          <t>3.70千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19.53</t>
+          <t>23.50</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>4.54千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8.62千萬</t>
+          <t>1.18億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-0.790%</t>
+          <t>-1.940%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.26億</t>
+          <t>8.32億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10.59億</t>
+          <t>19.31億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>21.57</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>+0.950%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>8.23百萬</t>
+          <t>3.88百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.54百萬</t>
+          <t>6.54百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>6.13</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>-1.180%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>+1.100%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>8.88千萬</t>
+          <t>3.17千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8.06千萬</t>
+          <t>8.87千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27.84</t>
+          <t>28.20</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>39.49萬</t>
+          <t>1.54百萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.51百萬</t>
+          <t>6.39百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.76</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-3.530%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+6.080%</t>
+          <t>-1.860%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.41億</t>
+          <t>1.75億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3.31億</t>
+          <t>5.62億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.56</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>-2.510%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.84千萬</t>
+          <t>3.99百萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4.08千萬</t>
+          <t>1.99千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>14.38</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>+1.040%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4.26億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.23億</t>
+          <t>5.92億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>22.57</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.53千萬</t>
+          <t>2.87千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6.75千萬</t>
+          <t>1.13億</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>16.24</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-1.360%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+2.010%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15.72億</t>
+          <t>15.09億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>28.63億</t>
+          <t>37.77億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.08</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+2.380%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>39.49億</t>
+          <t>40.91億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>62.68億</t>
+          <t>76.71億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>26.30</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.28千萬</t>
+          <t>2.53千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.22千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>209.28</t>
+          <t>283.85</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+1.840%</t>
+          <t>-0.720%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11.00億</t>
+          <t>7.39億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9.23億</t>
+          <t>14.02億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>112.67</t>
+          <t>112.38</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3.64億</t>
+          <t>4.35億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.64</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-1.330%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>-1.370%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.20億</t>
+          <t>2.07億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.28億</t>
+          <t>6.37億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>115.51</t>
+          <t>106.78</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>-1.840%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>-1.910%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.62億</t>
+          <t>4.31億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>6.69億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>318.24</t>
+          <t>359.14</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+1.280%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.08億</t>
+          <t>5.36千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.92億</t>
+          <t>3.11億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+2.140%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+1.520%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.83千萬</t>
+          <t>5.43百萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.25千萬</t>
+          <t>2.43千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-0.790%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29.94億</t>
+          <t>34.55億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>56.16億</t>
+          <t>97.62億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.35</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>+2.680%</t>
+          <t>-1.740%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.57百萬</t>
+          <t>1.83百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>5.23百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.13</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>+1.200%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+3.130%</t>
+          <t>-1.100%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.38千萬</t>
+          <t>5.62千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5.17千萬</t>
+          <t>1.62億</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.62</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>-2.040%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.34億</t>
+          <t>9.95億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>6.18億</t>
+          <t>14.34億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.54</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.960%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.79億</t>
+          <t>1.70億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>3.18億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>14.77</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>-1.410%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>+5.020%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>19.96萬</t>
+          <t>2.08百萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>27.50萬</t>
+          <t>1.31百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>7.45</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>+1.790%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+1.790%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>17.54億</t>
+          <t>25.91億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>26.54億</t>
+          <t>33.57億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>10.30</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>18.23億</t>
+          <t>12.59億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>26.26億</t>
+          <t>27.62億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>15.27</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+1.210%</t>
+          <t>-2.030%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.98億</t>
+          <t>1.81億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>7.86億</t>
+          <t>4.25億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>25.04</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+2.020%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>-1.450%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.98千萬</t>
+          <t>3.47千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.13千萬</t>
+          <t>5.29千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>+1.550%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-1.630%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.06千萬</t>
+          <t>2.14千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.22千萬</t>
+          <t>4.95千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>55.83</t>
+          <t>49.65</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>+1.210%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3.19百萬</t>
+          <t>5.09百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.23百萬</t>
+          <t>2.04千萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.62</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+1.050%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-1.030%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5.26千萬</t>
+          <t>3.57千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.30千萬</t>
+          <t>1.25億</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>12.40</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>12.59億</t>
+          <t>10.45億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>26.36億</t>
+          <t>33.44億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>11.42</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.770%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3.12億</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4.70億</t>
+          <t>5.36億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>26.45</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+5.710%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-0.710%</t>
+          <t>+1.560%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>1.47千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.50千萬</t>
+          <t>4.85千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-2.910%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>+1.040%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>4.92千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2.57億</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>9.28</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+2.380%</t>
+          <t>+2.150%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.66億</t>
+          <t>1.68千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1.07億</t>
+          <t>8.18千萬</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>11.34</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>52.18億</t>
+          <t>38.67億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>47.87億</t>
+          <t>61.16億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>25.13</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-2.040%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.32億</t>
+          <t>1.99億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2.85億</t>
+          <t>4.73億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>+1.420%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>+1.490%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3.74千萬</t>
+          <t>6.75千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.18千萬</t>
+          <t>2.54億</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18.08</t>
+          <t>15.48</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+1.200%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.76億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>5.33億</t>
+          <t>12.70億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>9.40</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-0.960%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+0.530%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4.67億</t>
+          <t>1.93億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5.41億</t>
+          <t>6.47億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.05</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+1.450%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>22.30億</t>
+          <t>13.53億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>23.16億</t>
+          <t>40.99億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>12.49</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+0.920%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>6.31億</t>
+          <t>1.33億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.45億</t>
+          <t>3.73億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>14.57</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+1.670%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+1.910%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>6.75億</t>
+          <t>6.28億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>7.47億</t>
+          <t>20.36億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>10.84</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9.81千萬</t>
+          <t>3.63億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-1.070%</t>
+          <t>-1.140%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>+3.260%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.67億</t>
+          <t>1.85億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1.73億</t>
+          <t>3.86億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>32.15</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>5.37億</t>
+          <t>3.77億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.50億</t>
+          <t>16.36億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>10.01</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>+1.950%</t>
+          <t>-2.250%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>+2.300%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>96.89萬</t>
+          <t>1.04百萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>74.55萬</t>
+          <t>8.18百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>9.82</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>-1.790%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-1.540%</t>
+          <t>-3.360%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>48.03萬</t>
+          <t>24.93萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4.26百萬</t>
+          <t>61.55萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>66.85</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>-1.800%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>147.01億</t>
+          <t>140.24億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>91.12億</t>
+          <t>184.23億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>25.50</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-2.630%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-3.820%</t>
+          <t>+2.550%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.32億</t>
+          <t>6.12千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>9.18千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>58.74</t>
+          <t>56.94</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>+0.420%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>82.00億</t>
+          <t>83.74億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>94.80億</t>
+          <t>101.79億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>17.71</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-2.550%</t>
+          <t>+1.560%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6.17億</t>
+          <t>6.67億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7.38億</t>
+          <t>10.74億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-2.020%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>+1.180%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>7.48億</t>
+          <t>7.11億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11.53億</t>
+          <t>26.32億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.87</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+2.770%</t>
+          <t>+1.880%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>12.49億</t>
+          <t>8.42億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>10.55億</t>
+          <t>22.35億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>23.13</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.680%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>+0.750%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>35.02億</t>
+          <t>17.66億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>27.96億</t>
+          <t>33.32億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>141.47</t>
+          <t>138.69</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>16.83億</t>
+          <t>33.71億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>16.13億</t>
+          <t>66.71億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>59.59</t>
+          <t>64.13</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>-0.810%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.18千萬</t>
+          <t>1.33千萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.25千萬</t>
+          <t>1.84千萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.49</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>+2.410%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-0.720%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>9.46百萬</t>
+          <t>3.73百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>7.37百萬</t>
+          <t>4.79百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>16.41</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>+1.410%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>9.93億</t>
+          <t>7.38億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>11.51億</t>
+          <t>25.10億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>10.61</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-1.820%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+1.960%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>16.57億</t>
+          <t>30.33億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>33.91億</t>
+          <t>37.69億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24.18</t>
+          <t>25.80</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+2.860%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>4.92千萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>8.59千萬</t>
+          <t>1.16億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.50</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>-1.900%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>-2.900%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4.77百萬</t>
+          <t>8.62百萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1.29千萬</t>
+          <t>3.05千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>12.49億</t>
+          <t>7.11億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>17.10億</t>
+          <t>20.69億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.75</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>+2.750%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1.86億</t>
+          <t>5.71千萬</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.08億</t>
+          <t>1.85億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>20.51</t>
         </is>
       </c>
     </row>
@@ -5367,22 +5367,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>+0.630%</t>
+          <t>-1.410%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1.08億</t>
+          <t>8.69千萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.24億</t>
+          <t>2.51億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1.080%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.69億</t>
+          <t>7.97億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.66億</t>
+          <t>10.02億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>33.03</t>
+          <t>30.28</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+0.340%</t>
+          <t>+1.600%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.29千萬</t>
+          <t>8.73千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98億</t>
+          <t>3.04億</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.26</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>-1.760%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.330%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17.89億</t>
+          <t>9.88億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.17億</t>
+          <t>20.94億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>14.76</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>-1.400%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.790%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>2.32億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>2.55億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.00億</t>
+          <t>2.79億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.65億</t>
+          <t>3.95億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+1.370%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.32億</t>
+          <t>11.84億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.95億</t>
+          <t>16.10億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.69</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.130%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+9.380%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.50千</t>
+          <t>6.12千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.38萬</t>
+          <t>9.40萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16.92</t>
+          <t>15.69</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+1.250%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.93百萬</t>
+          <t>6.19百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.05千萬</t>
+          <t>9.96百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.63</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.630%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.43億</t>
+          <t>3.36億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.48億</t>
+          <t>7.33億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>11.63</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>-2.770%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.33億</t>
+          <t>79.47億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>176.65億</t>
+          <t>174.75億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.41</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+1.690%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>+1.870%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.33億</t>
+          <t>13.47億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13.53億</t>
+          <t>13.82億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22.97</t>
+          <t>25.68</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.380%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>135.95億</t>
+          <t>91.53億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>151.43億</t>
+          <t>150.29億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61.20</t>
+          <t>61.76</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.21億</t>
+          <t>5.76億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.41億</t>
+          <t>5.92億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>16.30</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+1.900%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.19億</t>
+          <t>7.94億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18.38億</t>
+          <t>15.28億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.83</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>+0.850%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.48億</t>
+          <t>4.07億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12.49億</t>
+          <t>11.02億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>12.41</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-2.040%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+0.960%</t>
+          <t>+2.930%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.66百萬</t>
+          <t>2.17百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.75百萬</t>
+          <t>2.66百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31.01</t>
+          <t>30.49</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-1.690%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.59億</t>
+          <t>11.11億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.75億</t>
+          <t>9.23億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>7.26</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-1.130%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.12億</t>
+          <t>9.86億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17.27億</t>
+          <t>17.31億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.77</t>
+          <t>19.58</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+3.840%</t>
+          <t>+1.830%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+2.450%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.87億</t>
+          <t>9.36億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.58億</t>
+          <t>3.68億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>10.30</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+2.410%</t>
+          <t>+1.150%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+2.450%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>72.21億</t>
+          <t>66.88億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>138.27億</t>
+          <t>124.28億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>13.62</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+3.390%</t>
+          <t>+4.220%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+3.690%</t>
+          <t>-0.430%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>57.29億</t>
+          <t>70.99億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>95.07億</t>
+          <t>94.51億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46.33</t>
+          <t>46.49</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.940%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.65千萬</t>
+          <t>2.17億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>8.17千萬</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>21.13</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>+1.920%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.21億</t>
+          <t>6.70億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16.71億</t>
+          <t>12.74億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>320.67</t>
+          <t>320.56</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1.730%</t>
+          <t>+2.180%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+2.950%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.18千萬</t>
+          <t>1.06千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.44千萬</t>
+          <t>2.68千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+1.820%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+1.440%</t>
+          <t>-2.350%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.00億</t>
+          <t>3.74億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9.92億</t>
+          <t>8.37億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>21.97</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-0.980%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+1.840%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10.57億</t>
+          <t>7.93億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11.85億</t>
+          <t>12.69億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.08</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>+15.760%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+1.340%</t>
+          <t>-3.760%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.84千萬</t>
+          <t>1.23千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.67千萬</t>
+          <t>3.26千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.890%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.19千萬</t>
+          <t>2.77千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.11千萬</t>
+          <t>5.44千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.72</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+3.110%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.62千萬</t>
+          <t>1.09千萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.51千萬</t>
+          <t>3.20千萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+9.990%</t>
+          <t>+5.760%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+7.140%</t>
+          <t>+3.270%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.98億</t>
+          <t>5.38億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12.50億</t>
+          <t>10.05億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>33.28</t>
+          <t>32.82</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-1.480%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.83千萬</t>
+          <t>5.66千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7.55千萬</t>
+          <t>8.01千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>64.77</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.86億</t>
+          <t>5.01億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.45億</t>
+          <t>7.17億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.66</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.58億</t>
+          <t>5.18億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6.16億</t>
+          <t>7.15億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>14.77</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.770%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+0.910%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.14億</t>
+          <t>10.16億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7.52億</t>
+          <t>9.90億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.43</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.22億</t>
+          <t>6.57億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8.61億</t>
+          <t>9.24億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>127.72</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+1.000%</t>
+          <t>-1.450%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.03千萬</t>
+          <t>1.92千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.75千萬</t>
+          <t>2.47千萬</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>11.46</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>3.61億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.29億</t>
+          <t>3.96億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-1.210%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>-2.390%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.46億</t>
+          <t>6.01億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11.54億</t>
+          <t>13.56億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>51.88</t>
+          <t>50.89</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-1.760%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+0.810%</t>
+          <t>-1.530%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.47百萬</t>
+          <t>1.35百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.32千萬</t>
+          <t>5.25百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.39</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.680%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>62.63億</t>
+          <t>67.70億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.43億</t>
+          <t>101.76億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.38</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>2.97億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.66億</t>
+          <t>5.69億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.70</t>
+          <t>35.52</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+1.310%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+2.460%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>34.97億</t>
+          <t>46.11億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>56.83億</t>
+          <t>53.10億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>12.96</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-0.680%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>-1.990%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.67千萬</t>
+          <t>2.32千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6.26千萬</t>
+          <t>5.07千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>79.58</t>
+          <t>76.96</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+1.480%</t>
+          <t>+0.990%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>-1.840%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>573.87億</t>
+          <t>307.67億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>519.11億</t>
+          <t>590.38億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>149.85</t>
+          <t>150.44</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+0.770%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.65億</t>
+          <t>3.53億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.54億</t>
+          <t>6.25億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22.56</t>
+          <t>22.92</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.88億</t>
+          <t>15.78億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>21.35億</t>
+          <t>17.32億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.56</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.850%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>-1.550%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.14億</t>
+          <t>5.43億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>11.56億</t>
+          <t>10.53億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>21.53</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-1.800%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.48億</t>
+          <t>2.10億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.00億</t>
+          <t>3.84億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>32.17</t>
+          <t>32.12</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+1.180%</t>
+          <t>-2.960%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>-1.340%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.40千萬</t>
+          <t>7.76千萬</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.37億</t>
+          <t>1.91億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16.37</t>
+          <t>15.54</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.76千萬</t>
+          <t>9.84千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.15億</t>
+          <t>1.56億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.43</t>
+          <t>16.03</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-0.430%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.50千萬</t>
+          <t>9.43千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.00億</t>
+          <t>1.18億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23.89</t>
+          <t>23.81</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+0.150%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+1.030%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.21億</t>
+          <t>2.11億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.88億</t>
+          <t>2.30億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.51</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>-2.050%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.90千萬</t>
+          <t>8.02千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.28億</t>
+          <t>9.04千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.65</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.73億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.56億</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>14.06</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.970%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+2.090%</t>
+          <t>-1.350%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.54千萬</t>
+          <t>7.20千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6.60千萬</t>
+          <t>6.03千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-2.180%</t>
+          <t>+2.030%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-1.410%</t>
+          <t>-0.490%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13.12萬</t>
+          <t>35.47萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.50百萬</t>
+          <t>1.23百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-2.660%</t>
+          <t>+3.270%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-1.180%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.91億</t>
+          <t>3.98千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.03千萬</t>
+          <t>8.27千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>18.00</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.64億</t>
+          <t>11.69億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>19.91億</t>
+          <t>16.82億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.90</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-0.890%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.73億</t>
+          <t>5.69億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10.31億</t>
+          <t>9.41億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>12.47</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8.82千萬</t>
+          <t>1.57億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.97億</t>
+          <t>1.90億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>7.92</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+4.560%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+4.070%</t>
+          <t>-1.400%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>32.89億</t>
+          <t>37.77億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>28.43億</t>
+          <t>38.92億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>27.58</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>+2.010%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.12億</t>
+          <t>10.20億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11.95億</t>
+          <t>15.15億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>37.91</t>
+          <t>37.99</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15.01億</t>
+          <t>27.33億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>36.58億</t>
+          <t>31.82億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>18.62</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.96千萬</t>
+          <t>3.16千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6.70千萬</t>
+          <t>5.86千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>13.64</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>-1.030%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.19億</t>
+          <t>8.42億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15.74億</t>
+          <t>11.62億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>15.37</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>+1.100%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.04億</t>
+          <t>2.53億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.73億</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>7.77</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+3.250%</t>
+          <t>-2.000%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.45千萬</t>
+          <t>2.00千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3.70千萬</t>
+          <t>3.69千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>21.55</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4.54千萬</t>
+          <t>7.61千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>1.17億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.940%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>8.32億</t>
+          <t>11.69億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>19.31億</t>
+          <t>20.09億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>18.47</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+0.950%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>+0.700%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.88百萬</t>
+          <t>1.66百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6.54百萬</t>
+          <t>7.46百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1.180%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>-0.720%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.17千萬</t>
+          <t>5.19千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8.87千萬</t>
+          <t>7.46千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28.20</t>
+          <t>26.53</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.54百萬</t>
+          <t>1.07百萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6.39百萬</t>
+          <t>4.36百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.83</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-1.860%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.75億</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5.62億</t>
+          <t>3.27億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.63</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+0.740%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-2.510%</t>
+          <t>-1.100%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.99百萬</t>
+          <t>1.78千萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.99千萬</t>
+          <t>2.55千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>14.31</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+1.040%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2.58億</t>
+          <t>4.07億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5.92億</t>
+          <t>6.22億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.57</t>
+          <t>21.78</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.87千萬</t>
+          <t>5.81千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.13億</t>
+          <t>9.16千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>16.21</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+2.010%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15.09億</t>
+          <t>23.01億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>37.77億</t>
+          <t>39.50億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.16</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>-0.620%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>-0.720%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>40.91億</t>
+          <t>38.04億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>76.71億</t>
+          <t>76.99億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26.30</t>
+          <t>25.94</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+0.480%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.53千萬</t>
+          <t>3.82千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.83千萬</t>
+          <t>2.76千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>283.85</t>
+          <t>268.51</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-0.720%</t>
+          <t>-1.140%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-1.190%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7.39億</t>
+          <t>14.81億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>14.02億</t>
+          <t>12.77億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>112.38</t>
+          <t>109.52</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+1.720%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>1.61億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.35億</t>
+          <t>2.59億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.52</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-1.370%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.07億</t>
+          <t>2.34億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.37億</t>
+          <t>5.24億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>106.78</t>
+          <t>100.39</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-1.840%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-1.910%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.31億</t>
+          <t>4.12億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.69億</t>
+          <t>6.14億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>359.14</t>
+          <t>377.45</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+1.280%</t>
+          <t>+0.960%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.570%</t>
+          <t>-4.580%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5.36千萬</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3.11億</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.55</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.570%</t>
+          <t>-2.800%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.43百萬</t>
+          <t>5.20百萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.43千萬</t>
+          <t>1.64千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.65</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-0.790%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>34.55億</t>
+          <t>46.08億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>97.62億</t>
+          <t>93.01億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.20</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-1.740%</t>
+          <t>-1.670%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.83百萬</t>
+          <t>2.30百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>5.23百萬</t>
+          <t>4.29百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+1.200%</t>
+          <t>-3.730%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-1.100%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5.62千萬</t>
+          <t>6.63千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.62億</t>
+          <t>1.27億</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.33</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-2.040%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>9.95億</t>
+          <t>7.77億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>14.34億</t>
+          <t>14.30億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.49</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+0.960%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.70億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.18億</t>
+          <t>3.16億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>14.60</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-1.410%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+5.020%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.08百萬</t>
+          <t>35.97萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.31百萬</t>
+          <t>1.78百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.33</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-1.330%</t>
+          <t>+1.100%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-1.390%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>25.91億</t>
+          <t>11.84億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>33.57億</t>
+          <t>28.79億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.27</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>-1.400%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>12.59億</t>
+          <t>14.80億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>27.62億</t>
+          <t>27.61億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>14.61</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-2.030%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.81億</t>
+          <t>2.73億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.25億</t>
+          <t>4.46億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>25.04</t>
+          <t>24.03</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+2.020%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-1.450%</t>
+          <t>-1.880%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.47千萬</t>
+          <t>2.01千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5.29千萬</t>
+          <t>5.33千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>+1.550%</t>
+          <t>-1.690%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>-2.570%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.14千萬</t>
+          <t>4.59千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.95千萬</t>
+          <t>5.45千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>49.65</t>
+          <t>4.65</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.570%</t>
+          <t>-0.810%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+1.030%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5.09百萬</t>
+          <t>5.88百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.04千萬</t>
+          <t>1.15千萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>+1.050%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-1.030%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3.57千萬</t>
+          <t>5.53千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.25億</t>
+          <t>8.33千萬</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>11.92</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10.45億</t>
+          <t>24.15億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>33.44億</t>
+          <t>24.61億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.24</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-0.770%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5.36億</t>
+          <t>4.00億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>26.54</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+1.740%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>+1.560%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.47千萬</t>
+          <t>2.12千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4.85千萬</t>
+          <t>2.89千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>-3.090%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.92千萬</t>
+          <t>6.65千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.15億</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.18</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+2.150%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.68千萬</t>
+          <t>1.13億</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>8.18千萬</t>
+          <t>6.68千萬</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>11.07</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>+1.150%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>38.67億</t>
+          <t>74.58億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>61.16億</t>
+          <t>66.91億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>26.21</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-2.040%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.99億</t>
+          <t>1.92億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4.73億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-1.320%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>+1.490%</t>
+          <t>-1.410%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6.75千萬</t>
+          <t>9.63千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2.54億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>15.09</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2.86億</t>
+          <t>4.40億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>12.70億</t>
+          <t>10.45億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>9.35</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-1.680%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.93億</t>
+          <t>4.94億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>6.47億</t>
+          <t>4.65億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.95</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>+1.450%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>13.53億</t>
+          <t>21.61億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>40.99億</t>
+          <t>28.49億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>12.36</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>+0.920%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.33億</t>
+          <t>2.42億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.73億</t>
+          <t>3.05億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>14.43</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>6.28億</t>
+          <t>8.31億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>20.36億</t>
+          <t>17.46億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>10.81</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+0.800%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.15億</t>
+          <t>1.82億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3.63億</t>
+          <t>2.79億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-1.140%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>+3.260%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.85億</t>
+          <t>1.86億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3.86億</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>31.67</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3.77億</t>
+          <t>8.31億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>16.36億</t>
+          <t>11.16億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>9.78</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-2.250%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>+2.300%</t>
+          <t>-1.390%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.04百萬</t>
+          <t>1.17百萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>8.18百萬</t>
+          <t>3.69百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.64</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-1.790%</t>
+          <t>+1.220%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-3.360%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>24.93萬</t>
+          <t>27.14萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>61.55萬</t>
+          <t>57.06萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>66.85</t>
+          <t>65.44</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-1.800%</t>
+          <t>-1.760%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>140.24億</t>
+          <t>83.56億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>184.23億</t>
+          <t>199.32億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>23.88</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-2.180%</t>
+          <t>-8.380%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>+2.550%</t>
+          <t>-2.660%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6.12千萬</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>9.18千萬</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>56.94</t>
+          <t>52.15</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>+0.420%</t>
+          <t>-1.120%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-1.340%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>83.74億</t>
+          <t>85.49億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>101.79億</t>
+          <t>123.16億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>16.82</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-1.950%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>+1.560%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6.67億</t>
+          <t>10.13億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>10.74億</t>
+          <t>12.39億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.03</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-2.020%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+1.180%</t>
+          <t>-1.620%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>7.11億</t>
+          <t>8.35億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>26.32億</t>
+          <t>22.47億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.74</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>-1.110%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+1.880%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>8.42億</t>
+          <t>10.50億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>22.35億</t>
+          <t>16.30億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>22.98</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>-0.940%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>17.66億</t>
+          <t>23.06億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>33.32億</t>
+          <t>32.39億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>138.69</t>
+          <t>135.05</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>-1.780%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>33.71億</t>
+          <t>41.24億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>66.71億</t>
+          <t>66.41億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>64.13</t>
+          <t>64.03</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>+0.540%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.33千萬</t>
+          <t>1.04千萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.84千萬</t>
+          <t>1.67千萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.57</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-0.820%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3.73百萬</t>
+          <t>2.32百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4.79百萬</t>
+          <t>3.83百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>16.85</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>-1.060%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>-1.140%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>7.38億</t>
+          <t>13.28億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>25.10億</t>
+          <t>22.39億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>10.34</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-1.820%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+1.960%</t>
+          <t>+4.030%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>30.33億</t>
+          <t>16.44億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>37.69億</t>
+          <t>31.94億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.80</t>
+          <t>25.95</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+1.530%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4.92千萬</t>
+          <t>1.93億</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.16億</t>
+          <t>1.18億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-1.900%</t>
+          <t>-1.980%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-2.900%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>8.62百萬</t>
+          <t>2.07千萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3.05千萬</t>
+          <t>2.38千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-0.890%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>+1.040%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>7.11億</t>
+          <t>15.24億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>20.69億</t>
+          <t>18.70億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>9.02</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>+2.750%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5.71千萬</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1.85億</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20.51</t>
+          <t>19.22</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-1.870%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-1.410%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>8.69千萬</t>
+          <t>2.75億</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2.51億</t>
+          <t>2.16億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.41</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.97億</t>
+          <t>5.47億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.02億</t>
+          <t>9.95億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30.28</t>
+          <t>31.66</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1.600%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.73千萬</t>
+          <t>2.96千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04億</t>
+          <t>7.88千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>12.20</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.760%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.88億</t>
+          <t>10.15億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20.94億</t>
+          <t>15.09億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>14.79</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.32億</t>
+          <t>1.72億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.55億</t>
+          <t>2.49億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.78</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.79億</t>
+          <t>2.54億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.95億</t>
+          <t>2.67億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+1.370%</t>
+          <t>+1.260%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.170%</t>
+          <t>-1.680%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.84億</t>
+          <t>13.34億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.10億</t>
+          <t>12.90億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.12千</t>
+          <t>2.08萬</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.40萬</t>
+          <t>3.21萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>15.52</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.19百萬</t>
+          <t>1.18千萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.96百萬</t>
+          <t>1.65千萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.82</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.36億</t>
+          <t>4.60億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.33億</t>
+          <t>6.06億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>13.29</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-2.770%</t>
+          <t>+1.350%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.47億</t>
+          <t>97.56億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>174.75億</t>
+          <t>131.65億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.39</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+1.690%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+1.870%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.47億</t>
+          <t>7.37億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13.82億</t>
+          <t>11.33億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>25.68</t>
+          <t>30.14</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-0.770%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.53億</t>
+          <t>101.59億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>150.29億</t>
+          <t>117.76億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61.76</t>
+          <t>61.91</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+1.520%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.76億</t>
+          <t>4.32億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.92億</t>
+          <t>3.84億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>18.86</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+1.550%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.94億</t>
+          <t>14.96億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15.28億</t>
+          <t>25.36億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+0.850%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.07億</t>
+          <t>12.05億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11.02億</t>
+          <t>12.45億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.73</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.040%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+2.930%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.17百萬</t>
+          <t>1.06百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.66百萬</t>
+          <t>3.82百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30.49</t>
+          <t>31.21</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.690%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.11億</t>
+          <t>7.27億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.23億</t>
+          <t>7.40億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>7.34</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.86億</t>
+          <t>9.26億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17.31億</t>
+          <t>11.39億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>20.14</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+1.830%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.36億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.68億</t>
+          <t>4.52億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>11.22</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+1.150%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>66.88億</t>
+          <t>224.32億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>124.28億</t>
+          <t>115.81億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>13.33</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+4.220%</t>
+          <t>-2.850%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>70.99億</t>
+          <t>188.28億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>94.51億</t>
+          <t>93.57億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46.49</t>
+          <t>47.79</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.940%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.17億</t>
+          <t>1.03億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.17千萬</t>
+          <t>1.48億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>18.44</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+1.920%</t>
+          <t>+2.040%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.70億</t>
+          <t>12.36億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12.74億</t>
+          <t>11.79億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>320.56</t>
+          <t>334.56</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+2.180%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+2.950%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.06千萬</t>
+          <t>9.68百萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.68千萬</t>
+          <t>7.23百萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+1.820%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-2.350%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.74億</t>
+          <t>3.65億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8.37億</t>
+          <t>4.42億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>22.54</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.980%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+1.840%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.93億</t>
+          <t>10.99億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12.69億</t>
+          <t>12.08億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.41</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-1.200%</t>
+          <t>+5.420%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-3.760%</t>
+          <t>-1.700%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>2.28千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.26千萬</t>
+          <t>2.06千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.77千萬</t>
+          <t>7.54千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.44千萬</t>
+          <t>7.37千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.09千萬</t>
+          <t>8.31百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.20千萬</t>
+          <t>5.33百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+5.760%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+3.270%</t>
+          <t>+2.420%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.38億</t>
+          <t>10.73億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.05億</t>
+          <t>11.74億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>32.82</t>
+          <t>33.15</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>+2.870%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-1.480%</t>
+          <t>+2.220%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.66千萬</t>
+          <t>1.40億</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.01千萬</t>
+          <t>8.70千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>64.77</t>
+          <t>64.91</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>+1.060%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.01億</t>
+          <t>7.44億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.17億</t>
+          <t>8.29億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>6.87</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.18億</t>
+          <t>3.93億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.15億</t>
+          <t>4.41億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>16.19</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>+3.730%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10.16億</t>
+          <t>7.72億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.90億</t>
+          <t>9.21億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+1.690%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.57億</t>
+          <t>7.00億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9.24億</t>
+          <t>7.12億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>127.72</t>
+          <t>126.52</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-1.450%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.92千萬</t>
+          <t>8.50千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.47千萬</t>
+          <t>1.52億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>11.10</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.61億</t>
+          <t>2.63億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.96億</t>
+          <t>3.68億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>17.13</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-2.390%</t>
+          <t>-0.340%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.01億</t>
+          <t>11.00億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13.56億</t>
+          <t>7.50億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>50.89</t>
+          <t>52.06</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-1.530%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.35百萬</t>
+          <t>2.31百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.25百萬</t>
+          <t>3.73百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>+1.400%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>67.70億</t>
+          <t>88.01億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>101.76億</t>
+          <t>93.72億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.53</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.97億</t>
+          <t>3.67億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.69億</t>
+          <t>5.26億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>37.12</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+1.120%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>-1.140%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>46.11億</t>
+          <t>37.72億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>53.10億</t>
+          <t>53.26億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>13.30</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-0.680%</t>
+          <t>-2.400%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-1.990%</t>
+          <t>-4.020%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.32千萬</t>
+          <t>5.02千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5.07千萬</t>
+          <t>1.88億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>76.96</t>
+          <t>85.34</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-1.840%</t>
+          <t>+0.870%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>307.67億</t>
+          <t>565.94億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>590.38億</t>
+          <t>541.14億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>150.44</t>
+          <t>132.75</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.53億</t>
+          <t>8.39億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.25億</t>
+          <t>6.32億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22.92</t>
+          <t>23.68</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15.78億</t>
+          <t>13.00億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>17.32億</t>
+          <t>20.21億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>12.01</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.850%</t>
+          <t>+2.160%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-1.550%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.43億</t>
+          <t>11.99億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10.53億</t>
+          <t>8.31億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.53</t>
+          <t>21.25</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-1.800%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.10億</t>
+          <t>2.16億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.84億</t>
+          <t>2.88億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>33.30</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-2.960%</t>
+          <t>+2.370%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-1.340%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.76千萬</t>
+          <t>3.77億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.91億</t>
+          <t>1.27億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>16.02</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.84千萬</t>
+          <t>9.90千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.56億</t>
+          <t>1.53億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.03</t>
+          <t>16.27</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>+1.550%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9.43千萬</t>
+          <t>7.77千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>1.25億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>25.33</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+1.140%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.11億</t>
+          <t>4.80億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.30億</t>
+          <t>4.36億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.80</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-2.050%</t>
+          <t>-0.490%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8.02千萬</t>
+          <t>6.98千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.04千萬</t>
+          <t>6.91千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.51</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.73億</t>
+          <t>1.85億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.66億</t>
+          <t>2.34億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>13.61</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-1.850%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-1.350%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.20千萬</t>
+          <t>3.98千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6.03千萬</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>+2.030%</t>
+          <t>+9.050%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>+2.420%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>35.47萬</t>
+          <t>3.81百萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.23百萬</t>
+          <t>51.05萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>+3.270%</t>
+          <t>-0.850%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-1.180%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.98千萬</t>
+          <t>2.66千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8.27千萬</t>
+          <t>2.62千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>17.62</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>+0.970%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11.69億</t>
+          <t>20.30億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>16.82億</t>
+          <t>23.97億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+0.480%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.69億</t>
+          <t>7.36億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>9.41億</t>
+          <t>7.48億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>12.68</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-2.200%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.57億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>3.46億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>8.81</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>-1.360%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>37.77億</t>
+          <t>34.17億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>38.92億</t>
+          <t>46.71億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>28.49</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.20億</t>
+          <t>7.60億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>15.15億</t>
+          <t>8.38億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>37.99</t>
+          <t>35.29</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27.33億</t>
+          <t>25.13億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31.82億</t>
+          <t>30.20億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.36</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.16千萬</t>
+          <t>4.62千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.86千萬</t>
+          <t>5.05千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>13.63</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-1.030%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-1.540%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.42億</t>
+          <t>11.72億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11.62億</t>
+          <t>9.89億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>15.92</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+1.100%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2.53億</t>
+          <t>1.44億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.66億</t>
+          <t>2.41億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.83</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-2.000%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.00千萬</t>
+          <t>1.51千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3.69千萬</t>
+          <t>2.85千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>21.34</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>+3.070%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7.61千萬</t>
+          <t>5.91千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.17億</t>
+          <t>9.84千萬</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.130%</t>
+          <t>+2.560%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-1.200%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11.69億</t>
+          <t>13.48億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>20.09億</t>
+          <t>15.68億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>19.09</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>+0.700%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.66百萬</t>
+          <t>3.10百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.46百萬</t>
+          <t>8.93百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.720%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5.19千萬</t>
+          <t>8.20千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7.46千萬</t>
+          <t>9.55千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>24.52</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.07百萬</t>
+          <t>2.44百萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.36百萬</t>
+          <t>4.17百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.89</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+1.210%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>3.27億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3.27億</t>
+          <t>3.46億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.66</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-1.100%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.78千萬</t>
+          <t>1.44千萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.55千萬</t>
+          <t>2.20千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>14.10</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-1.300%</t>
+          <t>+1.860%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4.07億</t>
+          <t>3.98億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>6.22億</t>
+          <t>4.00億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>22.19</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.81千萬</t>
+          <t>6.69千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9.16千萬</t>
+          <t>7.57千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.15</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>23.01億</t>
+          <t>26.08億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>39.50億</t>
+          <t>29.65億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.09</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>+1.040%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.720%</t>
+          <t>+1.950%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>38.04億</t>
+          <t>62.11億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>76.99億</t>
+          <t>52.26億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>27.42</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.480%</t>
+          <t>-0.340%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>+1.810%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.82千萬</t>
+          <t>5.11千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.76千萬</t>
+          <t>7.06千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>268.51</t>
+          <t>215.18</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-1.140%</t>
+          <t>+1.280%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14.81億</t>
+          <t>10.71億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>12.77億</t>
+          <t>10.79億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>109.52</t>
+          <t>100.93</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+1.720%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.61億</t>
+          <t>1.27億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.59億</t>
+          <t>1.81億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>+1.030%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.34億</t>
+          <t>5.68億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5.24億</t>
+          <t>2.89億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>100.39</t>
+          <t>100.94</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+2.700%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.12億</t>
+          <t>5.59億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.14億</t>
+          <t>5.05億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>377.45</t>
+          <t>394.57</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+0.960%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-4.580%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>4.62千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.59</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-2.800%</t>
+          <t>-1.550%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.20百萬</t>
+          <t>5.73千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.64千萬</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.43</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-0.710%</t>
+          <t>+0.640%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>46.08億</t>
+          <t>70.54億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>93.01億</t>
+          <t>58.15億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.30</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.30百萬</t>
+          <t>1.81百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.29百萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.20</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-3.730%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>-0.770%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6.63千萬</t>
+          <t>2.94千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>5.85千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>8.18</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.870%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.77億</t>
+          <t>8.14億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>14.30億</t>
+          <t>12.48億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.75</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.58億</t>
+          <t>2.80億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.16億</t>
+          <t>2.55億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>14.88</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>+13.280%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>35.97萬</t>
+          <t>1.44百萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.78百萬</t>
+          <t>44.70萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>7.90</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>+1.100%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-1.390%</t>
+          <t>+0.830%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>11.84億</t>
+          <t>16.96億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>28.79億</t>
+          <t>19.37億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>10.33</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>+0.920%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>14.80億</t>
+          <t>27.92億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>27.61億</t>
+          <t>24.67億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>14.57</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.73億</t>
+          <t>5.04億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.46億</t>
+          <t>4.72億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.01</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-1.880%</t>
+          <t>+4.620%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.01千萬</t>
+          <t>2.08千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5.33千萬</t>
+          <t>3.31千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-1.690%</t>
+          <t>+1.570%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-2.570%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.59千萬</t>
+          <t>4.74千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5.45千萬</t>
+          <t>4.97千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.02</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>+1.030%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5.88百萬</t>
+          <t>9.97百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1.15千萬</t>
+          <t>7.43百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>+2.690%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5.53千萬</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.33千萬</t>
+          <t>1.49億</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>11.98</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>24.15億</t>
+          <t>16.59億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>24.61億</t>
+          <t>25.09億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.12</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-0.720%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>2.85億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4.00億</t>
+          <t>3.46億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>26.67</t>
         </is>
       </c>
     </row>
@@ -4183,22 +4183,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.12千萬</t>
+          <t>1.04千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.89千萬</t>
+          <t>1.41千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-3.090%</t>
+          <t>-1.640%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6.65千萬</t>
+          <t>5.88千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.48</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+1.640%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.13億</t>
+          <t>1.95億</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6.68千萬</t>
+          <t>1.09億</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.79</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+1.150%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>74.58億</t>
+          <t>123.92億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>66.91億</t>
+          <t>64.58億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26.21</t>
+          <t>25.96</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>+1.650%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.92億</t>
+          <t>7.63億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.78億</t>
+          <t>3.44億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-1.320%</t>
+          <t>+2.480%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-1.410%</t>
+          <t>+0.150%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>9.63千萬</t>
+          <t>1.65億</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>7.25千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>15.44</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+3.530%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.40億</t>
+          <t>5.42億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10.45億</t>
+          <t>7.22億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.55</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>+1.160%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-1.680%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4.94億</t>
+          <t>4.68億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4.65億</t>
+          <t>5.78億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>+1.930%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>21.61億</t>
+          <t>32.10億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>28.49億</t>
+          <t>37.69億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.74</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2.42億</t>
+          <t>3.86億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.05億</t>
+          <t>4.55億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>14.60</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>+1.040%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>8.31億</t>
+          <t>8.41億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>17.46億</t>
+          <t>12.22億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>11.03</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>+2.350%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-1.120%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.82億</t>
+          <t>2.04億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.79億</t>
+          <t>3.36億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.920%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.86億</t>
+          <t>1.68億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3.40億</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31.67</t>
+          <t>33.13</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-1.300%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>8.31億</t>
+          <t>6.68億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11.16億</t>
+          <t>7.13億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.890%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-1.390%</t>
+          <t>-2.300%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.17百萬</t>
+          <t>1.67百萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3.69百萬</t>
+          <t>2.02百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.77</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>+8.660%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>27.14萬</t>
+          <t>2.05百萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>57.06萬</t>
+          <t>2.19百萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>60.07</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+2.900%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-1.760%</t>
+          <t>+2.370%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>83.56億</t>
+          <t>131.54億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>199.32億</t>
+          <t>108.13億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23.88</t>
+          <t>25.31</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-8.380%</t>
+          <t>+4.780%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-2.660%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>6.96千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>7.77千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>52.15</t>
+          <t>52.54</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>+1.020%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-1.340%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>85.49億</t>
+          <t>84.87億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>123.16億</t>
+          <t>90.78億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>17.10</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-1.950%</t>
+          <t>+1.960%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.13億</t>
+          <t>9.88億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>12.39億</t>
+          <t>18.80億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.18</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.990%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-1.620%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>8.35億</t>
+          <t>15.72億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>22.47億</t>
+          <t>12.60億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>6.76</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-1.110%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>10.50億</t>
+          <t>27.22億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>16.30億</t>
+          <t>14.80億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>22.20</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-0.940%</t>
+          <t>+0.750%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>23.06億</t>
+          <t>28.52億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>32.39億</t>
+          <t>37.19億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>135.05</t>
+          <t>129.48</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+4.100%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-1.780%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>41.24億</t>
+          <t>65.97億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>66.41億</t>
+          <t>35.55億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>64.03</t>
+          <t>61.57</t>
         </is>
       </c>
     </row>
@@ -5071,22 +5071,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-0.030%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.04千萬</t>
+          <t>8.17百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.67千萬</t>
+          <t>7.18百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2.32百萬</t>
+          <t>2.87百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3.83百萬</t>
+          <t>7.97百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>18.69</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-1.060%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-1.140%</t>
+          <t>+0.750%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13.28億</t>
+          <t>13.97億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>22.39億</t>
+          <t>15.88億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>10.46</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>+9.420%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+4.030%</t>
+          <t>-1.060%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>16.44億</t>
+          <t>42.92億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>31.94億</t>
+          <t>59.66億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>26.25</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+1.530%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+2.330%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.93億</t>
+          <t>3.29億</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>2.74億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-1.980%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2.07千萬</t>
+          <t>2.13千萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.38千萬</t>
+          <t>2.18千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+1.040%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>15.24億</t>
+          <t>16.82億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>18.70億</t>
+          <t>19.32億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>8.92</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2.66億</t>
+          <t>3.17億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>2.62億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.56</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-1.870%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2.75億</t>
+          <t>1.62億</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2.16億</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-0.170%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>-0.420%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.170%</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.47億</t>
+          <t>6.99億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.95億</t>
+          <t>9.19億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.66</t>
+          <t>32.04</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-0.280%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>-0.330%</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.300%</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.96千萬</t>
+          <t>3.07千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.88千萬</t>
+          <t>5.53千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>12.28</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>+0.870%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>+0.120%</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+0.340%</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.15億</t>
+          <t>10.81億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.09億</t>
+          <t>14.37億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>14.78</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>+0.300%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>-0.540%</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.010%</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.72億</t>
+          <t>1.73億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49億</t>
+          <t>2.29億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>-0.040%</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>+0.200%</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.54億</t>
+          <t>2.25億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.67億</t>
+          <t>2.60億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>6.86</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>+2.880%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>+1.260%</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-1.680%</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13.34億</t>
+          <t>22.00億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.90億</t>
+          <t>11.24億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.79</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.08萬</t>
+          <t>4.92萬</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.21萬</t>
+          <t>3.55萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>+3.020%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>-1.590%</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-0.300%</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.18千萬</t>
+          <t>8.33百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.65千萬</t>
+          <t>1.40千萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.80</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-0.350%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>+0.910%</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>+0.020%</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.60億</t>
+          <t>3.89億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.06億</t>
+          <t>5.47億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.18</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>+1.450%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>+0.310%</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>+1.350%</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97.56億</t>
+          <t>155.18億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>131.65億</t>
+          <t>117.68億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>9.38</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>+0.320%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>+0.900%</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>+0.340%</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.37億</t>
+          <t>8.39億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11.33億</t>
+          <t>10.42億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30.14</t>
+          <t>31.56</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>+0.150%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>-0.770%</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-0.480%</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>101.59億</t>
+          <t>94.69億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>117.76億</t>
+          <t>109.20億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61.91</t>
+          <t>61.69</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-0.050%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>+0.080%</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>+1.520%</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.32億</t>
+          <t>3.74億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.84億</t>
+          <t>3.83億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>18.91</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-0.110%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>+1.550%</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-0.230%</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14.96億</t>
+          <t>16.48億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25.36億</t>
+          <t>23.25億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.76</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>+1.530%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>-1.560%</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>+0.210%</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.05億</t>
+          <t>6.65億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12.45億</t>
+          <t>13.34億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>12.89</t>
         </is>
       </c>
     </row>
@@ -1038,17 +1038,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>+1.130%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>-0.760%</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+0.650%</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.06百萬</t>
+          <t>4.58百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31.21</t>
+          <t>31.10</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>+0.160%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>-0.110%</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>+0.030%</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.27億</t>
+          <t>11.06億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.40億</t>
+          <t>7.72億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>7.44</t>
         </is>
       </c>
     </row>
@@ -1112,17 +1112,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>+0.740%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>-0.210%</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>+0.020%</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.26億</t>
+          <t>24.80億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>21.11</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>-0.810%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>+0.760%</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-1.080%</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.78億</t>
+          <t>3.08億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.52億</t>
+          <t>4.05億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>11.31</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>+1.710%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>-1.170%</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-0.520%</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>224.32億</t>
+          <t>119.06億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>115.81億</t>
+          <t>142.58億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>13.98</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>+0.540%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>-2.850%</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-0.910%</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>188.28億</t>
+          <t>95.95億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>93.57億</t>
+          <t>109.74億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>47.79</t>
+          <t>48.18</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>+0.540%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>+0.110%</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>+0.800%</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>9.87千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.48億</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18.44</t>
+          <t>18.60</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>-0.210%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>+2.040%</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>+0.620%</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.36億</t>
+          <t>14.06億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.79億</t>
+          <t>11.87億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>334.56</t>
+          <t>335.43</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>+3.140%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>-0.310%</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>+0.770%</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.68百萬</t>
+          <t>1.73千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.23百萬</t>
+          <t>7.03百萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>+1.740%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>-0.400%</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-0.260%</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.65億</t>
+          <t>3.25億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.42億</t>
+          <t>4.29億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22.54</t>
+          <t>22.70</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>-0.780%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>-0.230%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10.99億</t>
+          <t>9.03億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12.08億</t>
+          <t>12.17億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.37</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>-2.100%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>+5.420%</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-1.700%</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.28千萬</t>
+          <t>2.37千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.06千萬</t>
+          <t>1.96千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>+0.390%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>-0.230%</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-0.280%</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.54千萬</t>
+          <t>6.63千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.37千萬</t>
+          <t>8.28千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>-0.190%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>+0.350%</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-0.080%</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.31百萬</t>
+          <t>4.24百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.33百萬</t>
+          <t>6.24百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>+0.710%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>+1.010%</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>+2.420%</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10.73億</t>
+          <t>13.16億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11.74億</t>
+          <t>11.85億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>33.15</t>
+          <t>32.92</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>+0.420%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>+2.870%</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>+2.220%</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.40億</t>
+          <t>1.36億</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.70千萬</t>
+          <t>9.91千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>64.91</t>
+          <t>65.62</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>-0.390%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>+1.290%</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>+1.060%</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.44億</t>
+          <t>7.20億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.29億</t>
+          <t>8.39億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.80</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>+0.780%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>-0.310%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>+0.160%</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.93億</t>
+          <t>5.13億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.41億</t>
+          <t>4.29億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>16.20</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>-0.670%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>+3.730%</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-0.080%</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.72億</t>
+          <t>6.94億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.21億</t>
+          <t>8.13億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.53</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>-0.290%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>+1.690%</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-0.780%</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.00億</t>
+          <t>10.82億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.12億</t>
+          <t>6.94億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>126.52</t>
+          <t>130.73</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>+6.550%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>+0.270%</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-0.290%</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8.50千萬</t>
+          <t>7.65億</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.52億</t>
+          <t>1.67億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>11.38</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>+0.550%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>+0.070%</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>+0.560%</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.63億</t>
+          <t>3.33億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.68億</t>
+          <t>3.36億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.13</t>
+          <t>17.14</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>-1.850%</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>+0.230%</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-0.340%</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11.00億</t>
+          <t>9.23億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.50億</t>
+          <t>8.18億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>52.06</t>
+          <t>51.82</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>+0.620%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>+0.320%</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-0.450%</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.31百萬</t>
+          <t>2.53百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.73百萬</t>
+          <t>3.42百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>-0.040%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>-0.200%</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>+1.400%</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>88.01億</t>
+          <t>76.95億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>93.72億</t>
+          <t>95.20億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>+0.940%</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>+0.590%</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-0.320%</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.67億</t>
+          <t>4.68億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.26億</t>
+          <t>5.04億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>37.12</t>
+          <t>37.06</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>+0.720%</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>+1.120%</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-1.140%</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>37.72億</t>
+          <t>45.60億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>53.26億</t>
+          <t>49.53億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>13.63</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>-0.610%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>-2.400%</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-4.020%</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.02千萬</t>
+          <t>4.97千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.88億</t>
+          <t>1.26億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>84.82</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>+1.710%</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>-1.170%</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>+0.870%</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>565.94億</t>
+          <t>613.54億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>541.14億</t>
+          <t>565.32億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>132.75</t>
+          <t>128.98</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>+6.880%</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>-0.320%</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>+0.310%</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8.39億</t>
+          <t>14.19億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.32億</t>
+          <t>6.82億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>27.08</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>-0.710%</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>+0.560%</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>+0.520%</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13.00億</t>
+          <t>14.04億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>20.21億</t>
+          <t>19.40億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>11.97</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>+0.920%</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>+2.160%</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>-0.300%</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11.99億</t>
+          <t>10.64億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8.31億</t>
+          <t>9.43億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>21.41</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>+1.430%</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>+0.440%</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>-0.020%</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.16億</t>
+          <t>2.37億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.88億</t>
+          <t>2.70億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>33.30</t>
+          <t>34.34</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-1.110%</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>+2.370%</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-1.170%</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.77億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>1.67億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>15.55</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>+0.140%</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>+1.170%</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>-0.200%</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.90千萬</t>
+          <t>7.60千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.53億</t>
+          <t>1.47億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>16.17</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>-1.040%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>+0.590%</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>+1.550%</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.77千萬</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.25億</t>
+          <t>1.21億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25.33</t>
+          <t>25.54</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>-1.590%</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>+1.140%</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>+0.290%</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.80億</t>
+          <t>3.44億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.36億</t>
+          <t>4.78億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.74</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>-1.010%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>+0.720%</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>-0.490%</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.98千萬</t>
+          <t>6.30千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6.91千萬</t>
+          <t>7.04千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.42</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>-1.050%</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>-0.290%</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>+0.170%</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.85億</t>
+          <t>1.70億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.34億</t>
+          <t>2.28億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.66</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>-3.400%</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>-1.850%</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>+0.310%</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.98千萬</t>
+          <t>3.08千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>+1.810%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>+9.050%</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>+2.420%</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.81百萬</t>
+          <t>1.35百萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>51.05萬</t>
+          <t>1.27百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>+2.480%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>-0.850%</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>+0.720%</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.66千萬</t>
+          <t>2.68千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.62千萬</t>
+          <t>2.58千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>17.67</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>+1.130%</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>-0.150%</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>+0.970%</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>20.30億</t>
+          <t>18.69億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>23.97億</t>
+          <t>23.79億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.34</t>
         </is>
       </c>
     </row>
@@ -2629,22 +2629,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>+0.480%</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>+0.360%</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.36億</t>
+          <t>6.14億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>7.48億</t>
+          <t>7.22億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>+0.360%</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>-0.150%</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>-2.200%</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.78億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.46億</t>
+          <t>3.33億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.84</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>+2.270%</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>-0.470%</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-1.360%</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>34.17億</t>
+          <t>43.83億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>46.71億</t>
+          <t>44.27億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>31.58</t>
         </is>
       </c>
     </row>
@@ -2740,22 +2740,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>-0.700%</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>-0.190%</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7.60億</t>
+          <t>7.96億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8.38億</t>
+          <t>7.40億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>+0.570%</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>-0.590%</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>+0.940%</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>25.13億</t>
+          <t>32.04億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>30.20億</t>
+          <t>29.53億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>18.70</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>-0.320%</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>-0.270%</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>+0.130%</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.62千萬</t>
+          <t>5.54千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.05千萬</t>
+          <t>5.15千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t>13.64</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>+0.350%</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>+0.160%</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>-0.240%</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11.72億</t>
+          <t>8.35億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>9.89億</t>
+          <t>10.06億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>16.03</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>-0.280%</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>-0.270%</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>-0.480%</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.44億</t>
+          <t>2.21億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.41億</t>
+          <t>2.14億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.81</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>-1.060%</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>-0.900%</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>-0.420%</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.51千萬</t>
+          <t>3.18千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.85千萬</t>
+          <t>2.61千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>21.43</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>+1.150%</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>+0.010%</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>+3.070%</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.91千萬</t>
+          <t>1.16億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>9.84千萬</t>
+          <t>7.96千萬</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>-1.330%</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>+2.560%</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>-1.080%</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13.48億</t>
+          <t>15.25億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15.68億</t>
+          <t>15.72億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19.09</t>
+          <t>18.98</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>-3.140%</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>-0.070%</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>+0.020%</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.10百萬</t>
+          <t>5.95百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>8.93百萬</t>
+          <t>7.61百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.05</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>+1.700%</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>-0.060%</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>+0.840%</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>8.20千萬</t>
+          <t>1.16億</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>9.55千萬</t>
+          <t>9.78千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>24.36</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>-0.440%</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>+0.250%</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>-0.570%</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.44百萬</t>
+          <t>1.28百萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.17百萬</t>
+          <t>4.26百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.86</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>-2.770%</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>+1.210%</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>-0.700%</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.27億</t>
+          <t>3.47億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3.46億</t>
+          <t>3.45億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.49</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>+1.120%</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>+0.130%</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>-0.370%</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.44千萬</t>
+          <t>2.06千萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.20千萬</t>
+          <t>2.09千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>14.26</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>+1.230%</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>+1.860%</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>-0.180%</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.98億</t>
+          <t>6.34億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.00億</t>
+          <t>3.86億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>21.93</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>+1.150%</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>+0.680%</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>-0.040%</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.69千萬</t>
+          <t>5.12千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7.57千萬</t>
+          <t>7.91千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>16.33</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>-0.520%</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>+0.100%</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>+0.380%</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>26.08億</t>
+          <t>26.43億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>29.65億</t>
+          <t>28.12億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.06</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>-0.170%</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>+1.040%</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>+1.950%</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>62.11億</t>
+          <t>49.87億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>52.26億</t>
+          <t>55.70億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>28.34</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>+0.090%</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>-0.340%</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>+1.810%</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.11千萬</t>
+          <t>3.37千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.06千萬</t>
+          <t>7.32千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>215.18</t>
+          <t>216.52</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>-0.240%</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>+1.280%</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>+0.980%</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10.71億</t>
+          <t>9.09億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10.79億</t>
+          <t>10.21億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>100.93</t>
+          <t>100.83</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>+2.230%</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>-1.220%</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>+0.400%</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>3.19億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.81億</t>
+          <t>1.70億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.57</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>+0.440%</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>+0.820%</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>+1.030%</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5.68億</t>
+          <t>3.56億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.89億</t>
+          <t>3.12億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>100.94</t>
+          <t>103.61</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>-0.300%</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>+2.700%</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>-0.380%</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5.59億</t>
+          <t>10.59億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5.05億</t>
+          <t>5.47億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>394.57</t>
+          <t>384.03</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>-2.610%</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>+0.690%</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>-0.010%</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4.62千萬</t>
+          <t>7.81千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.11億</t>
+          <t>1.04億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.53</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>+1.500%</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>+0.310%</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>-1.550%</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.73千萬</t>
+          <t>8.90千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>1.49億</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.45</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>+0.650%</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>+0.840%</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>+0.640%</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>70.54億</t>
+          <t>48.01億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>58.15億</t>
+          <t>57.66億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.36</t>
         </is>
       </c>
     </row>
@@ -3665,22 +3665,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>-1.340%</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>-1.300%</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>+0.400%</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.81百萬</t>
+          <t>5.20百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>1.28百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>-0.880%</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>+1.110%</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>-0.770%</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.94千萬</t>
+          <t>3.75千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5.85千萬</t>
+          <t>4.48千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.15</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>-0.510%</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>+0.870%</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>+0.560%</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8.14億</t>
+          <t>11.54億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>12.48億</t>
+          <t>11.56億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.78</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>+2.280%</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>-0.170%</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>+0.360%</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.80億</t>
+          <t>2.73億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.55億</t>
+          <t>2.56億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>14.98</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>-2.550%</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>+13.280%</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>+0.680%</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.44百萬</t>
+          <t>24.29萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>44.70萬</t>
+          <t>66.64萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>7.72</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>+1.890%</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>-0.550%</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>+0.830%</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>16.96億</t>
+          <t>22.74億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>19.37億</t>
+          <t>19.53億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>10.61</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>-0.160%</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>+0.080%</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>+0.920%</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>27.92億</t>
+          <t>23.76億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>24.67億</t>
+          <t>26.80億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>14.45</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>-0.080%</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>+0.440%</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>+0.560%</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>4.24億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.72億</t>
+          <t>4.95億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>23.78</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>-0.860%</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>-0.530%</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>+4.620%</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.08千萬</t>
+          <t>2.70千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.31千萬</t>
+          <t>2.76千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>-1.720%</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>+1.570%</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>-0.510%</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.74千萬</t>
+          <t>4.66千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.97千萬</t>
+          <t>4.81千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>+0.750%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>+0.180%</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>+0.340%</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>9.97百萬</t>
+          <t>1.87千萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>7.43百萬</t>
+          <t>7.62百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>-2.450%</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>+2.690%</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>+0.580%</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.15億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.49億</t>
+          <t>1.61億</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.04</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>+1.320%</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>-0.200%</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>+1.010%</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>16.59億</t>
+          <t>20.92億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>25.09億</t>
+          <t>23.14億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>11.18</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>-0.100%</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>+0.020%</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>-0.720%</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.85億</t>
+          <t>2.93億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.46億</t>
+          <t>3.32億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>26.87</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>+1.350%</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>+0.080%</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>+0.430%</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.04千萬</t>
+          <t>1.51千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.41千萬</t>
+          <t>1.24千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>-0.610%</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>-0.090%</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-1.640%</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5.88千萬</t>
+          <t>1.47億</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.11億</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.59</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>+0.180%</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>-1.190%</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>+1.640%</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.95億</t>
+          <t>7.98千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>10.61</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>+1.800%</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>-0.320%</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>+0.650%</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>123.92億</t>
+          <t>90.30億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>64.58億</t>
+          <t>75.08億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>26.21</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>+0.990%</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>+1.650%</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>+0.090%</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>7.63億</t>
+          <t>4.58億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.44億</t>
+          <t>4.26億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.52</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>+0.790%</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>+2.480%</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>+0.150%</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.65億</t>
+          <t>5.15千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.25千萬</t>
+          <t>8.53千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>15.96</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>+0.980%</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>+0.020%</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>+3.530%</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5.42億</t>
+          <t>5.83億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.22億</t>
+          <t>6.22億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.63</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>+1.740%</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>+0.270%</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>+0.820%</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4.68億</t>
+          <t>6.65億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5.78億</t>
+          <t>5.98億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>+1.300%</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>-0.380%</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>+1.930%</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>32.10億</t>
+          <t>62.31億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>37.69億</t>
+          <t>39.68億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>12.81</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>+0.640%</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>-0.380%</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>+0.690%</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3.86億</t>
+          <t>3.47億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4.55億</t>
+          <t>4.54億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>14.46</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>+0.580%</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>+0.430%</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>+1.040%</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>8.41億</t>
+          <t>24.53億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>12.22億</t>
+          <t>11.78億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>11.09</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>+1.610%</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>+2.350%</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>-1.120%</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2.04億</t>
+          <t>2.35億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3.36億</t>
+          <t>2.59億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>-1.230%</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>-1.280%</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>+0.920%</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.68億</t>
+          <t>2.11億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1.97億</t>
+          <t>2.00億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>33.13</t>
+          <t>32.91</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>-0.080%</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>+0.490%</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>+0.800%</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6.68億</t>
+          <t>7.12億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>7.13億</t>
+          <t>6.83億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.83</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>-1.850%</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>+1.890%</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>-2.300%</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.67百萬</t>
+          <t>1.11百萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2.02百萬</t>
+          <t>1.87百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>-1.090%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>+8.660%</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>-1.540%</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2.05百萬</t>
+          <t>1.53百萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2.19百萬</t>
+          <t>2.55百萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>60.07</t>
+          <t>60.10</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>+0.640%</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>+2.900%</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>+2.370%</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>131.54億</t>
+          <t>107.66億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>108.13億</t>
+          <t>104.87億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>25.47</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>+4.490%</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>+4.780%</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>+0.210%</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6.96千萬</t>
+          <t>1.69億</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>7.77千萬</t>
+          <t>7.03千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>52.54</t>
+          <t>54.83</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>-1.740%</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>+1.020%</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>+0.860%</t>
-        </is>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>84.87億</t>
+          <t>96.20億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>90.78億</t>
+          <t>91.20億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>17.12</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>-3.330%</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>+1.960%</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>-0.590%</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>9.88億</t>
+          <t>14.37億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>18.80億</t>
+          <t>17.18億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.12</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>+0.900%</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>+0.990%</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>+0.620%</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>15.72億</t>
+          <t>14.03億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>12.60億</t>
+          <t>13.51億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.71</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>-0.320%</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>+0.460%</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>-0.420%</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>27.22億</t>
+          <t>26.93億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>14.80億</t>
+          <t>18.01億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>22.37</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>-0.680%</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>+0.720%</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>+0.750%</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>28.52億</t>
+          <t>22.26億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>37.19億</t>
+          <t>35.51億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>129.48</t>
+          <t>130.01</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>-1.900%</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>+4.100%</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>-0.530%</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>65.97億</t>
+          <t>39.89億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>35.55億</t>
+          <t>39.34億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>61.57</t>
+          <t>61.33</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>-0.500%</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>-0.030%</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>-0.180%</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>8.17百萬</t>
+          <t>1.55千萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>7.18百萬</t>
+          <t>7.52百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.49</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>+1.500%</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>-0.060%</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>-0.200%</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2.87百萬</t>
+          <t>8.15百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>7.97百萬</t>
+          <t>7.71百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>19.21</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>+0.870%</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>-0.580%</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>+0.750%</t>
-        </is>
-      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13.97億</t>
+          <t>13.62億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>15.88億</t>
+          <t>15.33億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.56</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>+0.530%</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>+9.420%</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>-1.060%</t>
-        </is>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>42.92億</t>
+          <t>52.25億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>59.66億</t>
+          <t>62.96億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>26.30</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>-1.090%</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>+0.120%</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>-0.420%</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3.29億</t>
+          <t>5.71億</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2.74億</t>
+          <t>3.15億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.38</t>
         </is>
       </c>
     </row>
@@ -5256,22 +5256,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>-0.670%</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>-1.040%</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>+0.010%</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>8.82百萬</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>2.13千萬</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2.18千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>+1.020%</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>+0.760%</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>+0.410%</t>
-        </is>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>16.82億</t>
+          <t>12.08億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>19.32億</t>
+          <t>20.54億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.95</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>+1.720%</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>-0.460%</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>+0.050%</t>
-        </is>
-      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3.17億</t>
+          <t>2.87億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.62億</t>
+          <t>2.65億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>20.02</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>+0.740%</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>-0.360%</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>+0.590%</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1.62億</t>
+          <t>2.21億</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.810%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.99億</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.19億</t>
+          <t>6.84億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32.04</t>
+          <t>32.06</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+4.190%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.07千萬</t>
+          <t>3.96千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.53千萬</t>
+          <t>5.74千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>11.77</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.81億</t>
+          <t>6.05億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.37億</t>
+          <t>15.02億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>15.13</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.73億</t>
+          <t>6.30千萬</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.29億</t>
+          <t>4.03億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.790%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.25億</t>
+          <t>8.30千萬</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.60億</t>
+          <t>3.16億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.83</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+2.880%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>+1.030%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.00億</t>
+          <t>2.79億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.24億</t>
+          <t>14.45億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-2.310%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+2.420%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.92萬</t>
+          <t>1.24千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.55萬</t>
+          <t>9.28萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>15.85</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+3.020%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.33百萬</t>
+          <t>84.86萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.40千萬</t>
+          <t>7.18百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>5.78</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.910%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.89億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.47億</t>
+          <t>6.54億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>13.07</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+1.450%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>155.18億</t>
+          <t>39.96億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>117.68億</t>
+          <t>174.38億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.89</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>+2.070%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.39億</t>
+          <t>7.29億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.42億</t>
+          <t>21.78億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>33.35</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+0.150%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.770%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.69億</t>
+          <t>33.18億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>109.20億</t>
+          <t>128.49億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>61.69</t>
+          <t>56.20</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+2.530%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.74億</t>
+          <t>1.29億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.83億</t>
+          <t>5.90億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>21.34</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+1.550%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16.48億</t>
+          <t>10.47億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23.25億</t>
+          <t>31.77億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.68</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+1.530%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.65億</t>
+          <t>2.28億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13.34億</t>
+          <t>8.44億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>14.09</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+1.130%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+3.910%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.58百萬</t>
+          <t>80.52萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.82百萬</t>
+          <t>1.04千萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>14.79</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>-0.790%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.06億</t>
+          <t>3.26億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.72億</t>
+          <t>8.09億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.23</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.80億</t>
+          <t>2.89億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.39億</t>
+          <t>18.55億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>20.08</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>-1.680%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.08億</t>
+          <t>7.29千萬</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.05億</t>
+          <t>3.44億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>10.91</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+1.710%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.170%</t>
+          <t>-1.110%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>119.06億</t>
+          <t>28.45億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>142.58億</t>
+          <t>112.65億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>13.60</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-2.850%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>95.95億</t>
+          <t>28.37億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>109.74億</t>
+          <t>102.08億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>48.18</t>
+          <t>46.22</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.540%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.87千萬</t>
+          <t>3.21千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>1.77億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>18.98</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+2.040%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14.06億</t>
+          <t>5.57億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.87億</t>
+          <t>14.66億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>335.43</t>
+          <t>366.20</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+3.140%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.73千萬</t>
+          <t>3.43百萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.03百萬</t>
+          <t>1.17千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.66</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.25億</t>
+          <t>7.13千萬</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.29億</t>
+          <t>5.07億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22.70</t>
+          <t>22.00</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.850%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.03億</t>
+          <t>4.83億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12.17億</t>
+          <t>16.74億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.69</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-2.100%</t>
+          <t>-3.060%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+5.420%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.37千萬</t>
+          <t>3.73百萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.96千萬</t>
+          <t>3.29千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.35</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>+0.740%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>-1.620%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.63千萬</t>
+          <t>7.13百萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.28千萬</t>
+          <t>5.85千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.69</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>+1.330%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+1.560%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.24百萬</t>
+          <t>1.10百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6.24百萬</t>
+          <t>6.33百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>7.71</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13.16億</t>
+          <t>2.50億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11.85億</t>
+          <t>9.83億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>32.92</t>
+          <t>39.16</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.420%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+2.870%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>1.67千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.91千萬</t>
+          <t>1.09億</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>59.86</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.20億</t>
+          <t>3.08億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.39億</t>
+          <t>7.99億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.13億</t>
+          <t>9.75千萬</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.29億</t>
+          <t>4.99億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>18.52</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+1.590%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+3.730%</t>
+          <t>+3.350%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.94億</t>
+          <t>3.18億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8.13億</t>
+          <t>9.83億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+1.690%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.82億</t>
+          <t>3.32億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6.94億</t>
+          <t>7.81億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>130.73</t>
+          <t>120.27</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+6.550%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.65億</t>
+          <t>2.41千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.67億</t>
+          <t>3.38億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>12.02</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.33億</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.36億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>17.82</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-1.850%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9.23億</t>
+          <t>1.85億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8.18億</t>
+          <t>6.47億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>51.82</t>
+          <t>56.55</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+0.790%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.53百萬</t>
+          <t>35.54萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.42百萬</t>
+          <t>3.67百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.80</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>76.95億</t>
+          <t>24.47億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>95.20億</t>
+          <t>88.28億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.47</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.68億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>11.59億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>37.06</t>
+          <t>35.47</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>+0.530%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+1.120%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>45.60億</t>
+          <t>20.80億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>49.53億</t>
+          <t>40.47億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t>12.83</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-2.250%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-2.400%</t>
+          <t>+2.300%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.97千萬</t>
+          <t>4.44千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.26億</t>
+          <t>2.88億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>90.58</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+1.710%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-1.170%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>613.54億</t>
+          <t>184.88億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>565.32億</t>
+          <t>613.63億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>128.98</t>
+          <t>149.00</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+6.880%</t>
+          <t>-0.940%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-0.950%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14.19億</t>
+          <t>3.39億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.82億</t>
+          <t>11.70億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>26.93</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.710%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>-1.180%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14.04億</t>
+          <t>4.38億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>19.40億</t>
+          <t>16.30億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>11.45</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.920%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+2.160%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10.64億</t>
+          <t>6.09億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9.43億</t>
+          <t>25.78億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>21.85</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+1.430%</t>
+          <t>+0.740%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+1.030%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.37億</t>
+          <t>3.02億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.70億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34.34</t>
+          <t>33.82</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-1.110%</t>
+          <t>+1.880%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+2.370%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.67億</t>
+          <t>1.84億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>21.20</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.60千萬</t>
+          <t>7.14千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.47億</t>
+          <t>1.28億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>15.93</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>-0.880%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.53億</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.21億</t>
+          <t>1.18億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25.54</t>
+          <t>24.14</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+1.140%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.44億</t>
+          <t>1.09億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.78億</t>
+          <t>4.74億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-1.010%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.30千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7.04千萬</t>
+          <t>8.40千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.29</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.70億</t>
+          <t>7.40千萬</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.28億</t>
+          <t>1.87億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>13.81</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-3.400%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-1.850%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.08千萬</t>
+          <t>8.26百萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>4.41千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>+1.810%</t>
+          <t>+1.740%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>+9.050%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.35百萬</t>
+          <t>4.26萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.27百萬</t>
+          <t>3.04百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>+2.480%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.850%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.68千萬</t>
+          <t>1.27千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.58千萬</t>
+          <t>2.45千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>17.51</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+1.130%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>18.69億</t>
+          <t>5.76億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>23.79億</t>
+          <t>25.56億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.480%</t>
+          <t>-1.340%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.14億</t>
+          <t>5.48億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>7.22億</t>
+          <t>11.59億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>12.95</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>6.72千萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.33億</t>
+          <t>2.85億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.37</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+2.270%</t>
+          <t>+1.850%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>+2.110%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>43.83億</t>
+          <t>16.53億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>44.27億</t>
+          <t>62.09億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31.58</t>
+          <t>30.59</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>-2.000%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7.96億</t>
+          <t>2.35億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7.40億</t>
+          <t>8.28億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>35.29</t>
+          <t>33.51</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>-0.810%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>32.04億</t>
+          <t>7.87億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>29.53億</t>
+          <t>53.87億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.70</t>
+          <t>18.36</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.54千萬</t>
+          <t>3.59千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.15千萬</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>14.86</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.35億</t>
+          <t>4.49億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10.06億</t>
+          <t>10.58億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16.03</t>
+          <t>16.41</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2898,17 +2898,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2.21億</t>
+          <t>6.17千萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.14億</t>
+          <t>2.13億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.74</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-1.060%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.18千萬</t>
+          <t>3.92百萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.61千萬</t>
+          <t>2.16千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>21.72</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+1.150%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.16億</t>
+          <t>5.47千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7.96千萬</t>
+          <t>2.40億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.330%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+2.560%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15.25億</t>
+          <t>5.95億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15.72億</t>
+          <t>19.48億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.98</t>
+          <t>19.00</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-3.140%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+1.240%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.95百萬</t>
+          <t>1.83百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.61百萬</t>
+          <t>4.33百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>+1.700%</t>
+          <t>-2.280%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.16億</t>
+          <t>4.27千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>9.78千萬</t>
+          <t>2.15億</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24.36</t>
+          <t>23.99</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+0.220%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.28百萬</t>
+          <t>15.47萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.26百萬</t>
+          <t>1.87百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-2.770%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+1.210%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.47億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3.45億</t>
+          <t>2.81億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.46</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+1.120%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.06千萬</t>
+          <t>3.91百萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.09千萬</t>
+          <t>1.70千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>13.84</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+1.230%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+1.860%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6.34億</t>
+          <t>1.18億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.86億</t>
+          <t>5.31億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>23.67</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+1.150%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>-1.970%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.12千萬</t>
+          <t>1.31千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7.91千萬</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>16.21</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>26.43億</t>
+          <t>8.18億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>28.12億</t>
+          <t>21.04億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+1.040%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>49.87億</t>
+          <t>9.54億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>55.70億</t>
+          <t>53.67億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>28.06</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-0.340%</t>
+          <t>+3.090%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.37千萬</t>
+          <t>1.24千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.32千萬</t>
+          <t>4.57千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>216.52</t>
+          <t>208.55</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>+1.280%</t>
+          <t>-4.250%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>9.09億</t>
+          <t>26.35億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10.21億</t>
+          <t>24.30億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>100.83</t>
+          <t>34.51</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+2.230%</t>
+          <t>+0.750%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>+0.870%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.19億</t>
+          <t>2.23億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.70億</t>
+          <t>2.39億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3.56億</t>
+          <t>8.27千萬</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.12億</t>
+          <t>3.58億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>103.61</t>
+          <t>122.63</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.990%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+2.700%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10.59億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5.47億</t>
+          <t>8.81億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>384.03</t>
+          <t>357.80</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-2.610%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>-2.010%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7.81千萬</t>
+          <t>2.42千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.04億</t>
+          <t>8.96千萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+1.500%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>8.90千萬</t>
+          <t>7.46百萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.49億</t>
+          <t>8.73千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.51</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>48.01億</t>
+          <t>11.50億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>57.66億</t>
+          <t>55.01億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.03</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-1.340%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-1.300%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.20百萬</t>
+          <t>51.57萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.28百萬</t>
+          <t>3.47百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>+1.900%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.75千萬</t>
+          <t>3.11千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4.48千萬</t>
+          <t>4.94千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.12</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>+0.770%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>11.54億</t>
+          <t>7.65億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>11.56億</t>
+          <t>10.96億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.88</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>+2.280%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.73億</t>
+          <t>1.03億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.56億</t>
+          <t>3.23億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>14.91</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-2.550%</t>
+          <t>+1.120%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+13.280%</t>
+          <t>+2.430%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>24.29萬</t>
+          <t>60.91萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>66.64萬</t>
+          <t>98.63萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.34</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>+1.890%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>22.74億</t>
+          <t>7.28億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>19.53億</t>
+          <t>20.06億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>10.89</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>23.76億</t>
+          <t>9.64億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>26.80億</t>
+          <t>23.81億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>14.26</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4.24億</t>
+          <t>1.09億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.95億</t>
+          <t>4.03億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>23.59</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-0.860%</t>
+          <t>+1.250%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-1.350%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.70千萬</t>
+          <t>8.23百萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2.76千萬</t>
+          <t>4.15千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-1.720%</t>
+          <t>-1.520%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>+1.570%</t>
+          <t>+0.330%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.66千萬</t>
+          <t>8.86百萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.81千萬</t>
+          <t>4.70千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.90</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>+0.750%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.87千萬</t>
+          <t>2.08百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>7.62百萬</t>
+          <t>8.60百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-2.450%</t>
+          <t>-7.270%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>+2.690%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>6.82千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.61億</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>14.38</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>+1.320%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>20.92億</t>
+          <t>6.31億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>23.14億</t>
+          <t>24.65億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>10.41</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>+1.640%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+1.240%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.93億</t>
+          <t>9.50千萬</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.32億</t>
+          <t>3.73億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>25.32</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+1.350%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-1.740%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.51千萬</t>
+          <t>9.88百萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.24千萬</t>
+          <t>2.59千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+1.760%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.47億</t>
+          <t>4.42千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>8.40千萬</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>9.43</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-1.190%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>7.98千萬</t>
+          <t>1.08千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>5.57千萬</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>12.71</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+1.800%</t>
+          <t>-0.960%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-1.700%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>90.30億</t>
+          <t>15.59億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>75.08億</t>
+          <t>81.69億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26.21</t>
+          <t>25.89</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>+1.650%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.58億</t>
+          <t>9.28千萬</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4.26億</t>
+          <t>4.52億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>+2.480%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5.15千萬</t>
+          <t>1.90千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>8.53千萬</t>
+          <t>7.55千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>15.86</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>-0.890%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+1.510%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5.83億</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>6.22億</t>
+          <t>8.88億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>8.88</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6.65億</t>
+          <t>2.00億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5.98億</t>
+          <t>6.10億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.90</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>62.31億</t>
+          <t>11.10億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>39.68億</t>
+          <t>42.32億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.67</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3.47億</t>
+          <t>1.30億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4.54億</t>
+          <t>4.36億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>14.28</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>24.53億</t>
+          <t>2.83億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11.78億</t>
+          <t>12.26億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>10.96</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+1.610%</t>
+          <t>+0.830%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>+2.350%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2.35億</t>
+          <t>3.42千萬</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.59億</t>
+          <t>2.54億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>-2.380%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2.11億</t>
+          <t>8.59千萬</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2.00億</t>
+          <t>2.13億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>32.91</t>
+          <t>29.93</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>7.12億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.83億</t>
+          <t>8.63億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>9.28</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-1.850%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>+1.890%</t>
+          <t>+2.900%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.11百萬</t>
+          <t>4.61萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1.87百萬</t>
+          <t>1.77百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.41</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>+8.660%</t>
+          <t>-1.990%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.53百萬</t>
+          <t>7.77萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2.55百萬</t>
+          <t>60.42萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>60.10</t>
+          <t>64.01</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+2.900%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>107.66億</t>
+          <t>39.68億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>104.87億</t>
+          <t>153.23億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>28.27</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>+4.490%</t>
+          <t>-1.770%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>+4.780%</t>
+          <t>+1.390%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.69億</t>
+          <t>2.15千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>7.03千萬</t>
+          <t>8.51千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>54.83</t>
+          <t>52.92</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-1.740%</t>
+          <t>+1.340%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>+1.020%</t>
+          <t>-1.510%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>96.20億</t>
+          <t>40.77億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>91.20億</t>
+          <t>106.78億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>17.25</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-3.330%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>+1.960%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>14.37億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>17.18億</t>
+          <t>14.27億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>+1.480%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>14.03億</t>
+          <t>18.06億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>13.51億</t>
+          <t>13.70億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.60</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>+4.070%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>26.93億</t>
+          <t>4.29億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>18.01億</t>
+          <t>15.72億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.37</t>
+          <t>23.60</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.680%</t>
+          <t>-0.480%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-0.340%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>22.26億</t>
+          <t>14.79億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>35.51億</t>
+          <t>38.39億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>130.01</t>
+          <t>140.01</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-1.900%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>+4.100%</t>
+          <t>+1.720%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>39.89億</t>
+          <t>34.85億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>39.34億</t>
+          <t>53.93億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>61.33</t>
+          <t>54.60</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>+1.210%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.55千萬</t>
+          <t>2.49百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>7.52百萬</t>
+          <t>8.73百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.47</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>+1.500%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>8.15百萬</t>
+          <t>1.96百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>7.71百萬</t>
+          <t>5.04百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>19.33</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.580%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13.62億</t>
+          <t>4.93億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>15.33億</t>
+          <t>21.24億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>10.95</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+9.420%</t>
+          <t>+1.700%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>52.25億</t>
+          <t>18.23億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>62.96億</t>
+          <t>54.28億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26.30</t>
+          <t>25.16</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>5.71億</t>
+          <t>4.67千萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3.15億</t>
+          <t>2.69億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>6.00</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+3.880%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>8.82百萬</t>
+          <t>9.59百萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.13千萬</t>
+          <t>2.75千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+1.020%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+1.430%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>12.08億</t>
+          <t>1.86億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>20.54億</t>
+          <t>10.78億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.99</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>+1.720%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2.87億</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.65億</t>
+          <t>2.27億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>19.77</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>+1.960%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2.21億</t>
+          <t>8.27千萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>1.76億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.32</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>6.45億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32.06</t>
+          <t>31.66</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+4.190%</t>
+          <t>+5.330%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.96千萬</t>
+          <t>8.14千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>11.94</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.05億</t>
+          <t>15.27億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>15.07</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-2.040%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.30千萬</t>
+          <t>1.87億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.30千萬</t>
+          <t>2.80億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.84</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.79億</t>
+          <t>9.10億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>6.62</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.310%</t>
+          <t>-3.070%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.24千</t>
+          <t>1.93萬</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.85</t>
+          <t>15.69</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>-0.850%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.86萬</t>
+          <t>6.39百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.80</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+0.800%</t>
+          <t>+0.990%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>5.87億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>39.96億</t>
+          <t>95.78億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+2.140%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.29億</t>
+          <t>16.45億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>33.35</t>
+          <t>33.63</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.18億</t>
+          <t>85.02億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>56.20</t>
+          <t>56.26</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+2.530%</t>
+          <t>+1.530%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.29億</t>
+          <t>5.18億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>22.21</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+0.330%</t>
+          <t>+1.020%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.47億</t>
+          <t>23.36億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.86</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-3.340%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.28億</t>
+          <t>6.68億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>14.45</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-2.210%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.52萬</t>
+          <t>3.81百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>14.69</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.930%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.26億</t>
+          <t>8.58億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>7.29</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.89億</t>
+          <t>9.64億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20.08</t>
+          <t>20.06</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.29千萬</t>
+          <t>2.38億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>10.85</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>28.45億</t>
+          <t>68.71億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>13.82</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>+0.640%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28.37億</t>
+          <t>71.66億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46.22</t>
+          <t>46.81</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.21千萬</t>
+          <t>9.89千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18.98</t>
+          <t>18.97</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.57億</t>
+          <t>12.57億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>366.20</t>
+          <t>367.30</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.43百萬</t>
+          <t>1.35千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.13千萬</t>
+          <t>2.78億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>21.76</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.83億</t>
+          <t>13.34億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.66</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-3.060%</t>
+          <t>-2.030%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.73百萬</t>
+          <t>1.30千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.13百萬</t>
+          <t>4.43千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+1.330%</t>
+          <t>+2.630%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.10百萬</t>
+          <t>7.61百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>8.90</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.50億</t>
+          <t>9.77億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>39.16</t>
+          <t>39.23</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+0.420%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.67千萬</t>
+          <t>5.44千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>59.86</t>
+          <t>54.54</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>+2.540%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.08億</t>
+          <t>9.71億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.28</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.75千萬</t>
+          <t>3.21億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>17.96</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+1.590%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.18億</t>
+          <t>8.98億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.32億</t>
+          <t>6.03億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120.27</t>
+          <t>125.55</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+1.660%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.41千萬</t>
+          <t>9.66千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.50</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>3.30億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>17.67</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-1.140%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.85億</t>
+          <t>6.48億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>56.55</t>
+          <t>56.13</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>35.54萬</t>
+          <t>3.04百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>-0.790%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>24.47億</t>
+          <t>75.58億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.45</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>3.28億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.47</t>
+          <t>35.04</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20.80億</t>
+          <t>47.24億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>12.94</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-2.250%</t>
+          <t>-3.370%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.44千萬</t>
+          <t>8.74千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>90.05</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>184.88億</t>
+          <t>412.14億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>150.12</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.940%</t>
+          <t>-1.730%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.39億</t>
+          <t>8.10億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.93</t>
+          <t>27.16</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.38億</t>
+          <t>12.44億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6.09億</t>
+          <t>17.42億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>21.72</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>+3.090%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.02億</t>
+          <t>14.91億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>33.82</t>
+          <t>34.65</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+1.880%</t>
+          <t>+1.760%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>4.83億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>21.05</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.14千萬</t>
+          <t>2.00億</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>16.03</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>+0.970%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.53億</t>
+          <t>2.56億</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24.14</t>
+          <t>25.24</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>3.44億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.59</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.83千萬</t>
+          <t>7.52千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.26</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.40千萬</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>13.78</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8.26百萬</t>
+          <t>2.29千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>+2.400%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.26萬</t>
+          <t>1.06百萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.27千萬</t>
+          <t>6.08千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>17.44</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.76億</t>
+          <t>14.73億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.49</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.48億</t>
+          <t>22.85億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>12.90</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6.72千萬</t>
+          <t>1.74億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>8.31</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+1.850%</t>
+          <t>+3.650%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>16.53億</t>
+          <t>45.06億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30.59</t>
+          <t>31.57</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2.35億</t>
+          <t>4.84億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.51</t>
+          <t>33.47</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7.87億</t>
+          <t>21.18億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>18.33</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.59千萬</t>
+          <t>8.87千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.86</t>
+          <t>14.81</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.49億</t>
+          <t>11.43億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>16.42</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6.17千萬</t>
+          <t>2.02億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>7.77</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.930%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.92百萬</t>
+          <t>1.72千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>21.60</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.47千萬</t>
+          <t>2.34億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.95億</t>
+          <t>15.26億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>18.88</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>-2.890%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.83百萬</t>
+          <t>5.70百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-2.280%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4.27千萬</t>
+          <t>9.71千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>25.75</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15.47萬</t>
+          <t>1.18百萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.80</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>+0.730%</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>+0.400%</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>+0.400%</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>3.37億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.44</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.91百萬</t>
+          <t>9.26百萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>13.78</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>3.63億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>23.45</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.31千萬</t>
+          <t>3.65千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.11</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8.18億</t>
+          <t>23.21億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9.54億</t>
+          <t>27.43億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28.06</t>
+          <t>28.19</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-0.750%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.24千萬</t>
+          <t>3.54千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>208.55</t>
+          <t>220.20</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>26.35億</t>
+          <t>54.24億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>34.51</t>
+          <t>36.51</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+0.750%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.23億</t>
+          <t>3.87億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>8.27千萬</t>
+          <t>2.39億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>122.63</t>
+          <t>122.71</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>+3.540%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.42億</t>
+          <t>3.52億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>357.80</t>
+          <t>390.70</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.42千萬</t>
+          <t>4.33千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.71</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7.46百萬</t>
+          <t>2.41千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>-1.580%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>11.50億</t>
+          <t>49.07億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+2.040%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>51.57萬</t>
+          <t>2.99百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.23</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+1.900%</t>
+          <t>+8.110%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.11千萬</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.28</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.65億</t>
+          <t>18.35億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.03億</t>
+          <t>3.08億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>+1.120%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>60.91萬</t>
+          <t>2.41百萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.35</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.28億</t>
+          <t>17.78億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>10.95</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>9.64億</t>
+          <t>23.61億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.20</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.030%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>2.62億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.59</t>
+          <t>23.88</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+1.250%</t>
+          <t>+2.340%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>8.23百萬</t>
+          <t>1.96千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-1.520%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>8.86百萬</t>
+          <t>5.32千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.84</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.350%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.08百萬</t>
+          <t>4.91百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-7.270%</t>
+          <t>-9.360%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6.82千萬</t>
+          <t>1.24億</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>14.26</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6.31億</t>
+          <t>17.66億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>10.40</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>+1.640%</t>
+          <t>+1.590%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>9.50千萬</t>
+          <t>3.02億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25.32</t>
+          <t>25.34</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>9.88百萬</t>
+          <t>2.43千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.65</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+1.760%</t>
+          <t>+2.130%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.42千萬</t>
+          <t>9.80千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.63</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.08千萬</t>
+          <t>4.07千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>12.76</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-0.960%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>15.59億</t>
+          <t>42.08億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25.89</t>
+          <t>25.86</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>9.28千萬</t>
+          <t>2.97億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.22</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>+0.860%</t>
+          <t>+3.290%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.90千萬</t>
+          <t>5.61千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.86</t>
+          <t>17.14</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.890%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.97億</t>
+          <t>5.93億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.87</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.00億</t>
+          <t>4.56億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>-1.100%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>11.10億</t>
+          <t>26.30億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-0.880%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.30億</t>
+          <t>3.09億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2.83億</t>
+          <t>7.78億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>11.01</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+0.830%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3.42千萬</t>
+          <t>1.52億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>8.59千萬</t>
+          <t>2.43億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>28.59</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2.58億</t>
+          <t>6.26億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.27</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-1.190%</t>
+          <t>-1.660%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4.61萬</t>
+          <t>40.37萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.37</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>7.77萬</t>
+          <t>15.43萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>64.01</t>
+          <t>64.27</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>39.68億</t>
+          <t>134.46億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28.27</t>
+          <t>28.71</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-1.770%</t>
+          <t>-2.810%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2.15千萬</t>
+          <t>6.22千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>52.92</t>
+          <t>52.36</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>+1.340%</t>
+          <t>+1.480%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>40.77億</t>
+          <t>92.62億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>17.62</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>-1.600%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>9.19億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.03</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-1.040%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>18.06億</t>
+          <t>33.55億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.64</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+4.070%</t>
+          <t>+4.100%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.29億</t>
+          <t>9.88億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>23.51</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>14.79億</t>
+          <t>37.58億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>140.01</t>
+          <t>140.94</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>+1.500%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>34.85億</t>
+          <t>68.77億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>54.60</t>
+          <t>54.94</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2.49百萬</t>
+          <t>1.70千萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.53</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1.96百萬</t>
+          <t>5.86百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.38</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4.93億</t>
+          <t>11.37億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>11.01</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>18.23億</t>
+          <t>40.63億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>24.44</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4.67千萬</t>
+          <t>1.17億</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.91</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>+3.880%</t>
+          <t>+5.270%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>9.59百萬</t>
+          <t>3.06千萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1.86億</t>
+          <t>6.01億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>9.08</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>+0.900%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1.01億</t>
+          <t>2.65億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.77</t>
+          <t>19.33</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-1.150%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>8.27千萬</t>
+          <t>2.15億</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.780%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.45億</t>
+          <t>4.94億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.84億</t>
+          <t>6.80億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.66</t>
+          <t>32.14</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-1.910%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>+5.330%</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.890%</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.14千萬</t>
+          <t>3.32千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.74千萬</t>
+          <t>6.19千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>11.72</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-0.740%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>-0.160%</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+0.760%</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.27億</t>
+          <t>7.13億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.02億</t>
+          <t>15.55億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>14.87</t>
         </is>
       </c>
     </row>
@@ -594,22 +594,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.040%</t>
+          <t>-2.870%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>-1.820%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.87億</t>
+          <t>1.69億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03億</t>
+          <t>3.91億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.80億</t>
+          <t>1.50億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.16億</t>
+          <t>3.31億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-2.310%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.030%</t>
+          <t>-1.030%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.10億</t>
+          <t>7.53億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.45億</t>
+          <t>13.61億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>6.48</t>
         </is>
       </c>
     </row>
@@ -705,22 +705,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>-3.070%</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>+2.420%</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.93萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.28萬</t>
+          <t>6.87萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>-0.190%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>-0.850%</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-0.300%</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.39百萬</t>
+          <t>3.21百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.18百萬</t>
+          <t>7.04百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-0.660%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>+0.990%</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.87億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.54億</t>
+          <t>6.61億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.05</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-1.310%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.78億</t>
+          <t>73.04億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>174.38億</t>
+          <t>170.43億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.00</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+2.140%</t>
+          <t>+2.470%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+2.070%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16.45億</t>
+          <t>11.57億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>21.78億</t>
+          <t>22.67億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>33.63</t>
+          <t>34.55</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>-2.070%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.02億</t>
+          <t>53.70億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>128.49億</t>
+          <t>122.47億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>56.26</t>
+          <t>55.96</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+1.530%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+1.510%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.18億</t>
+          <t>2.33億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.90億</t>
+          <t>6.44億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22.21</t>
+          <t>22.26</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+1.020%</t>
+          <t>-1.910%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>+0.960%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.36億</t>
+          <t>14.83億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31.77億</t>
+          <t>27.23億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.90</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-3.340%</t>
+          <t>-1.380%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>-3.390%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.68億</t>
+          <t>2.73億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.44億</t>
+          <t>8.47億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>14.17</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>-1.670%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>-2.210%</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+3.910%</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.81百萬</t>
+          <t>3.36百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.04千萬</t>
+          <t>1.09千萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>14.59</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+0.930%</t>
+          <t>-1.500%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.790%</t>
+          <t>+0.870%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.58億</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.09億</t>
+          <t>7.76億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.20</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.840%</t>
+          <t>-0.430%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.64億</t>
+          <t>9.46億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18.55億</t>
+          <t>16.49億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>19.64</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-2.420%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-1.680%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.38億</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.44億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>10.53</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-2.290%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.110%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>68.71億</t>
+          <t>44.54億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>112.65億</t>
+          <t>106.49億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>13.41</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>-2.210%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.66億</t>
+          <t>34.83億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>102.08億</t>
+          <t>95.32億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>45.47</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>+0.670%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>+0.230%</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-0.210%</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.89千萬</t>
+          <t>6.58億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.77億</t>
+          <t>1.76億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>19.13</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.57億</t>
+          <t>5.20億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14.66億</t>
+          <t>15.02億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>367.30</t>
+          <t>357.13</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.35千萬</t>
+          <t>2.59億</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.17千萬</t>
+          <t>1.29千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>+0.120%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>-0.870%</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-0.370%</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.78億</t>
+          <t>2.24億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.07億</t>
+          <t>4.59億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.76</t>
+          <t>21.37</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>-0.560%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>+0.020%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>+0.850%</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.34億</t>
+          <t>7.40億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>16.74億</t>
+          <t>16.44億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-2.030%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-1.960%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.30千萬</t>
+          <t>9.67百萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.29千萬</t>
+          <t>3.16千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-1.620%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.43千萬</t>
+          <t>1.78千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.85千萬</t>
+          <t>5.05千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>+0.430%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>+2.630%</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>+1.560%</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.61百萬</t>
+          <t>4.05百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6.33百萬</t>
+          <t>6.31百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.70</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.77億</t>
+          <t>5.73億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.83億</t>
+          <t>10.22億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>39.23</t>
+          <t>37.60</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.420%</t>
+          <t>-1.670%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.44千萬</t>
+          <t>3.65千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>9.32千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54.54</t>
+          <t>56.70</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+2.540%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+2.350%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9.71億</t>
+          <t>4.15億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.99億</t>
+          <t>8.95億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+1.430%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.21億</t>
+          <t>2.12億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.99億</t>
+          <t>4.83億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17.96</t>
+          <t>18.25</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+3.350%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8.98億</t>
+          <t>4.49億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.83億</t>
+          <t>10.23億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.16</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>-0.790%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.03億</t>
+          <t>4.26億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.81億</t>
+          <t>7.66億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>125.55</t>
+          <t>120.88</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+1.660%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>+1.760%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.66千萬</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.38億</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>12.61</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.30億</t>
+          <t>1.74億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.78億</t>
+          <t>4.05億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>17.60</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-1.140%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.48億</t>
+          <t>3.42億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.47億</t>
+          <t>6.60億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>56.13</t>
+          <t>54.96</t>
         </is>
       </c>
     </row>
@@ -1889,22 +1889,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>-0.120%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>+0.260%</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>+0.790%</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.04百萬</t>
+          <t>2.62百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.67百萬</t>
+          <t>3.26百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.790%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>75.58億</t>
+          <t>43.57億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>88.28億</t>
+          <t>89.20億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.47</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.700%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.28億</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>11.59億</t>
+          <t>11.24億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>34.35</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>47.24億</t>
+          <t>29.07億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>40.47億</t>
+          <t>42.68億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>12.61</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>-4.650%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>-3.370%</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>+2.300%</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8.74千萬</t>
+          <t>6.24千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.88億</t>
+          <t>2.98億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>85.86</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-1.810%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>412.14億</t>
+          <t>261.84億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>613.63億</t>
+          <t>603.66億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>150.12</t>
+          <t>141.38</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-1.730%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.950%</t>
+          <t>-1.720%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8.10億</t>
+          <t>4.32億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11.70億</t>
+          <t>10.52億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>26.53</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-1.180%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12.44億</t>
+          <t>6.24億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16.30億</t>
+          <t>15.84億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>11.41</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17.42億</t>
+          <t>14.69億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25.78億</t>
+          <t>27.26億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>21.76</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+3.090%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+1.030%</t>
+          <t>+3.280%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.91億</t>
+          <t>4.00億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>5.43億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34.65</t>
+          <t>34.72</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-0.900%</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>+1.760%</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-0.460%</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.83億</t>
+          <t>2.47億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.84億</t>
+          <t>2.14億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>20.87</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.00億</t>
+          <t>6.71千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.28億</t>
+          <t>1.48億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.03</t>
+          <t>15.81</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>+0.970%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>+0.990%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2.56億</t>
+          <t>6.87千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>1.52億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>25.59</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.44億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.74億</t>
+          <t>4.77億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.54</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.52千萬</t>
+          <t>3.96千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8.40千萬</t>
+          <t>8.46千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.23</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>-1.100%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>9.76千萬</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.87億</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.77</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-1.210%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+0.770%</t>
+          <t>-1.380%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.29千萬</t>
+          <t>1.16千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.41千萬</t>
+          <t>3.79千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>-1.780%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>+2.400%</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>-1.130%</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.06百萬</t>
+          <t>29.31萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.04百萬</t>
+          <t>3.07百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>-0.170%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>-0.580%</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>+0.570%</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.08千萬</t>
+          <t>2.07千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.45千萬</t>
+          <t>3.18千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.44</t>
+          <t>17.41</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.440%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14.73億</t>
+          <t>6.94億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>25.56億</t>
+          <t>24.96億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.46</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-1.340%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>22.85億</t>
+          <t>13.44億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11.59億</t>
+          <t>15.34億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>12.91</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-1.930%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>-1.480%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.74億</t>
+          <t>8.35千萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.85億</t>
+          <t>2.84億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.06</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+3.650%</t>
+          <t>+2.170%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+2.110%</t>
+          <t>+3.790%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>45.06億</t>
+          <t>28.02億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>62.09億</t>
+          <t>63.18億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31.57</t>
+          <t>32.16</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-2.000%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.84億</t>
+          <t>3.72億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8.28億</t>
+          <t>7.85億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.47</t>
+          <t>33.21</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>-1.490%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.810%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>21.18億</t>
+          <t>15.05億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>53.87億</t>
+          <t>49.22億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18.33</t>
+          <t>17.75</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.580%</t>
+          <t>-0.640%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8.87千萬</t>
+          <t>6.73千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>1.41億</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>14.65</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.750%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11.43億</t>
+          <t>5.80億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10.58億</t>
+          <t>11.42億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>16.01</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2.02億</t>
+          <t>8.04千萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.13億</t>
+          <t>2.25億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.76</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.930%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-1.210%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.72千萬</t>
+          <t>2.60千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.16千萬</t>
+          <t>2.22千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>21.54</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+1.160%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.34億</t>
+          <t>1.32億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.40億</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.77</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>-1.670%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15.26億</t>
+          <t>5.30億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>19.48億</t>
+          <t>20.50億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>18.58</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>+1.260%</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>-2.890%</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>+1.240%</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.70百萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.33百萬</t>
+          <t>5.00百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>-1.180%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-1.400%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>9.71千萬</t>
+          <t>3.54千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.15億</t>
+          <t>2.12億</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25.75</t>
+          <t>25.71</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>+0.110%</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>-0.510%</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>-0.460%</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.18百萬</t>
+          <t>10.25萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.87百萬</t>
+          <t>1.89百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.79</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>-1.000%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.37億</t>
+          <t>1.68億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.81億</t>
+          <t>2.85億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.19</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.630%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9.26百萬</t>
+          <t>6.07百萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.70千萬</t>
+          <t>1.69千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.68</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.63億</t>
+          <t>1.86億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5.31億</t>
+          <t>4.99億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23.45</t>
+          <t>23.30</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-1.970%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3.65千萬</t>
+          <t>1.34千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>8.17千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>16.29</t>
         </is>
       </c>
     </row>
@@ -3295,22 +3295,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>23.21億</t>
+          <t>9.79億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>21.04億</t>
+          <t>22.09億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>27.43億</t>
+          <t>25.62億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>53.67億</t>
+          <t>49.63億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28.19</t>
+          <t>27.37</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+3.090%</t>
+          <t>-1.360%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.54千萬</t>
+          <t>1.23千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4.57千萬</t>
+          <t>4.48千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>220.20</t>
+          <t>217.83</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-4.250%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>54.24億</t>
+          <t>35.95億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>24.30億</t>
+          <t>33.50億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>36.51</t>
+          <t>39.79</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+1.160%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>+1.270%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.87億</t>
+          <t>2.12億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.39億</t>
+          <t>2.80億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.87</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>-1.000%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.39億</t>
+          <t>2.16億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.58億</t>
+          <t>3.61億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>122.71</t>
+          <t>130.07</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>+7.870%</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>+3.540%</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>+0.650%</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.52億</t>
+          <t>3.51億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8.81億</t>
+          <t>8.49億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>390.70</t>
+          <t>442.37</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-2.010%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4.33千萬</t>
+          <t>3.53千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>8.96千萬</t>
+          <t>8.92千萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.41千萬</t>
+          <t>1.12千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8.73千萬</t>
+          <t>5.74千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-1.580%</t>
+          <t>-0.760%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-1.590%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>49.07億</t>
+          <t>24.26億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>55.01億</t>
+          <t>57.39億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.96</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>-2.280%</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>+2.040%</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>-0.910%</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.99百萬</t>
+          <t>1.15百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.47百萬</t>
+          <t>3.61百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+8.110%</t>
+          <t>-0.620%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>+8.200%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>4.51千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4.94千萬</t>
+          <t>5.90千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.21</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.770%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>18.35億</t>
+          <t>8.22億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10.96億</t>
+          <t>12.73億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.82</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-1.300%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-0.890%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3.08億</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.23億</t>
+          <t>3.46億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>14.72</t>
         </is>
       </c>
     </row>
@@ -3813,22 +3813,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>-0.560%</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>+0.300%</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>+2.430%</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.41百萬</t>
+          <t>1.48百萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>98.63萬</t>
+          <t>1.26百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>17.78億</t>
+          <t>9.30億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>20.06億</t>
+          <t>19.86億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>10.63</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-0.580%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>-0.940%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>23.61億</t>
+          <t>13.89億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>23.81億</t>
+          <t>25.36億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>13.79</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.62億</t>
+          <t>1.31億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.03億</t>
+          <t>3.56億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.88</t>
+          <t>23.28</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>+1.920%</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>+2.340%</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>-1.350%</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.96千萬</t>
+          <t>3.11千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4.15千萬</t>
+          <t>3.89千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>-0.940%</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>-0.440%</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>+0.330%</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5.32千萬</t>
+          <t>3.54千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.70千萬</t>
+          <t>4.82千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>-0.530%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>-0.520%</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>-0.180%</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4.91百萬</t>
+          <t>1.66百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.60百萬</t>
+          <t>8.18百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-9.360%</t>
+          <t>-1.390%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-0.600%</t>
+          <t>-9.220%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.24億</t>
+          <t>3.84千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>13.95</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17.66億</t>
+          <t>13.60億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>24.65億</t>
+          <t>25.53億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>10.13</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>+1.590%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+1.240%</t>
+          <t>+1.570%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3.02億</t>
+          <t>1.95億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.73億</t>
+          <t>3.89億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>25.09</t>
         </is>
       </c>
     </row>
@@ -4183,22 +4183,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-1.740%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.43千萬</t>
+          <t>1.22千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.59千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+2.130%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+2.100%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>9.80千萬</t>
+          <t>4.41千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>8.40千萬</t>
+          <t>8.70千萬</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>9.39</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4.07千萬</t>
+          <t>2.17千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5.57千萬</t>
+          <t>5.70千萬</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>12.71</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-1.210%</t>
+          <t>-1.070%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-1.700%</t>
+          <t>-1.150%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>42.08億</t>
+          <t>37.79億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>81.69億</t>
+          <t>72.52億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25.86</t>
+          <t>25.46</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>-0.660%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.97億</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4.52億</t>
+          <t>4.24億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.10</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>+3.290%</t>
+          <t>-2.130%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>+3.280%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>5.61千萬</t>
+          <t>4.65千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.55千萬</t>
+          <t>7.50千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>16.04</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+1.510%</t>
+          <t>-1.780%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5.93億</t>
+          <t>1.82億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>8.88億</t>
+          <t>9.08億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>8.73</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4.56億</t>
+          <t>1.25億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>6.10億</t>
+          <t>6.25億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-1.100%</t>
+          <t>-1.000%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>-1.120%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>26.30億</t>
+          <t>17.31億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>42.32億</t>
+          <t>40.10億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.49</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3.09億</t>
+          <t>1.13億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4.36億</t>
+          <t>4.28億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>14.22</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>-0.740%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+0.210%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7.78億</t>
+          <t>4.74億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>12.26億</t>
+          <t>10.63億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.80</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.52億</t>
+          <t>4.83千萬</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.54億</t>
+          <t>2.48億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.03</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>-4.120%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-2.380%</t>
+          <t>-1.570%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2.43億</t>
+          <t>1.33億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2.13億</t>
+          <t>2.34億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>26.36</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6.26億</t>
+          <t>3.45億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>8.63億</t>
+          <t>7.94億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.14</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>-0.480%</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>-1.660%</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>+2.900%</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>40.37萬</t>
+          <t>54.64萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1.77百萬</t>
+          <t>1.67百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>9.32</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>-0.850%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>+0.380%</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>-1.990%</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>15.43萬</t>
+          <t>13.63萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>60.42萬</t>
+          <t>44.04萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>64.27</t>
+          <t>64.30</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>-0.220%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>134.46億</t>
+          <t>84.32億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>153.23億</t>
+          <t>162.44億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>28.00</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>-1.750%</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>-2.810%</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>+1.390%</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6.22千萬</t>
+          <t>2.85千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>8.51千萬</t>
+          <t>7.99千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>52.36</t>
+          <t>51.45</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>+1.480%</t>
+          <t>-1.090%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-1.510%</t>
+          <t>+1.800%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>92.62億</t>
+          <t>35.71億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>106.78億</t>
+          <t>108.81億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>17.14</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-1.600%</t>
+          <t>-1.680%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-1.220%</t>
+          <t>-1.620%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>9.19億</t>
+          <t>4.52億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>14.27億</t>
+          <t>14.20億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+1.480%</t>
+          <t>-0.880%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>33.55億</t>
+          <t>10.53億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>13.70億</t>
+          <t>18.57億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.51</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+4.100%</t>
+          <t>+1.330%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+4.180%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>9.88億</t>
+          <t>8.98億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>15.72億</t>
+          <t>14.65億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23.51</t>
+          <t>23.07</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-0.340%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>37.58億</t>
+          <t>26.96億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>38.39億</t>
+          <t>42.06億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>140.94</t>
+          <t>147.55</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>+1.500%</t>
+          <t>-1.870%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>+1.720%</t>
+          <t>+1.700%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>68.77億</t>
+          <t>36.97億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>53.93億</t>
+          <t>62.65億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>54.94</t>
+          <t>54.38</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>-1.000%</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>+0.210%</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>+1.210%</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.70千萬</t>
+          <t>8.71百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>8.73百萬</t>
+          <t>1.03千萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.45</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>-1.120%</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>+0.050%</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>-1.190%</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>5.86百萬</t>
+          <t>1.46百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5.04百萬</t>
+          <t>5.65百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>19.05</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11.37億</t>
+          <t>6.81億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>21.24億</t>
+          <t>21.34億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.76</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+1.700%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>40.63億</t>
+          <t>20.81億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>54.28億</t>
+          <t>44.71億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24.44</t>
+          <t>25.38</t>
         </is>
       </c>
     </row>
@@ -5219,22 +5219,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>-1.150%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.17億</t>
+          <t>7.44千萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2.69億</t>
+          <t>2.42億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>+5.270%</t>
+          <t>-1.000%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>+0.490%</t>
+          <t>+5.030%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3.06千萬</t>
+          <t>5.84百萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.75千萬</t>
+          <t>3.22千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>-1.640%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+1.430%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>6.01億</t>
+          <t>6.15億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>10.78億</t>
+          <t>9.67億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>8.98</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>+0.520%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2.65億</t>
+          <t>5.32千萬</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.27億</t>
+          <t>2.51億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>19.30</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-1.150%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>+1.960%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2.15億</t>
+          <t>5.62千萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.76億</t>
+          <t>1.95億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.32</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.780%</t>
+          <t>-1.390%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.94億</t>
+          <t>6.79億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.80億</t>
+          <t>7.12億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>31.20</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.910%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+5.330%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.32千萬</t>
+          <t>2.08千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.19千萬</t>
+          <t>5.19千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.60</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>+3.900%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.13億</t>
+          <t>9.19億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.55億</t>
+          <t>15.18億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>14.90</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.870%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.820%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.69億</t>
+          <t>2.62億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.91億</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.200%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.960%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.50億</t>
+          <t>3.50億</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.31億</t>
+          <t>3.22億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.76</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.310%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.030%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.53億</t>
+          <t>13.43億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.61億</t>
+          <t>12.43億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.57</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-3.070%</t>
+          <t>+1.640%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.83千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.87萬</t>
+          <t>1.14萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>15.77</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.850%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.21百萬</t>
+          <t>1.01千萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.04百萬</t>
+          <t>6.05百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.72</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>+1.670%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.42億</t>
+          <t>4.65億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.61億</t>
+          <t>4.76億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>15.51</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.310%</t>
+          <t>-2.290%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>+1.450%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.04億</t>
+          <t>208.72億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>170.43億</t>
+          <t>131.49億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.55</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+2.470%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+2.330%</t>
+          <t>-1.190%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11.57億</t>
+          <t>14.13億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22.67億</t>
+          <t>17.84億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>35.63</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-2.070%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>+0.790%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53.70億</t>
+          <t>131.82億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>122.47億</t>
+          <t>102.42億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>55.96</t>
+          <t>54.36</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+1.510%</t>
+          <t>-0.960%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.33億</t>
+          <t>6.06億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.44億</t>
+          <t>4.92億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>22.29</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1.910%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+0.960%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14.83億</t>
+          <t>24.65億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>27.23億</t>
+          <t>24.48億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.49</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-1.380%</t>
+          <t>+1.220%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-3.390%</t>
+          <t>-1.020%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.73億</t>
+          <t>6.38億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.47億</t>
+          <t>11.31億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14.17</t>
+          <t>13.78</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>-2.800%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-2.210%</t>
+          <t>+1.110%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.36百萬</t>
+          <t>3.66百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.09千萬</t>
+          <t>6.18百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>14.43</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.500%</t>
+          <t>-1.490%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+0.870%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.40億</t>
+          <t>11.72億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.76億</t>
+          <t>8.52億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>7.13</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.280%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.430%</t>
+          <t>-1.240%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.46億</t>
+          <t>8.05億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16.49億</t>
+          <t>13.36億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>19.43</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-2.420%</t>
+          <t>-2.040%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.540%</t>
+          <t>-0.210%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.01億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>2.82億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>10.01</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-2.290%</t>
+          <t>-1.270%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>44.54億</t>
+          <t>67.48億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>106.49億</t>
+          <t>80.91億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.41</t>
+          <t>13.04</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-2.210%</t>
+          <t>-2.520%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>34.83億</t>
+          <t>73.02億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>95.32億</t>
+          <t>67.68億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45.47</t>
+          <t>44.33</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>-0.330%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.58億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.76億</t>
+          <t>5.26億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.13</t>
+          <t>19.23</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.370%</t>
+          <t>-0.630%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.20億</t>
+          <t>13.75億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15.02億</t>
+          <t>12.74億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>357.13</t>
+          <t>361.75</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.59億</t>
+          <t>8.06千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.29千萬</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.01</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.870%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.24億</t>
+          <t>5.52億</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.59億</t>
+          <t>3.27億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.37</t>
+          <t>21.22</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.40億</t>
+          <t>12.13億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>16.44億</t>
+          <t>13.33億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-1.960%</t>
+          <t>-3.030%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.67百萬</t>
+          <t>1.16千萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.16千萬</t>
+          <t>2.13千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>+1.000%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.78千萬</t>
+          <t>4.39千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.05千萬</t>
+          <t>4.09千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.69</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+2.630%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.05百萬</t>
+          <t>4.14百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6.31百萬</t>
+          <t>5.60百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.25</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>-3.830%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.73億</t>
+          <t>7.38億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.22億</t>
+          <t>10.40億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>38.21</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>+2.340%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-2.580%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.65千萬</t>
+          <t>1.90億</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.32千萬</t>
+          <t>6.14千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>56.70</t>
+          <t>53.69</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+2.350%</t>
+          <t>+1.370%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.15億</t>
+          <t>8.32億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.95億</t>
+          <t>8.50億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.29</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+1.430%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.220%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.12億</t>
+          <t>4.16億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.83億</t>
+          <t>3.97億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>19.28</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.49億</t>
+          <t>9.64億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10.23億</t>
+          <t>10.44億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.790%</t>
+          <t>-1.800%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.26億</t>
+          <t>5.03億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.66億</t>
+          <t>6.29億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120.88</t>
+          <t>118.06</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1778,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+1.760%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>1.08億</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>12.17</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.74億</t>
+          <t>2.49億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.05億</t>
+          <t>4.33億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>18.37</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-1.190%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-1.260%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.42億</t>
+          <t>8.24億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.60億</t>
+          <t>6.74億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>54.96</t>
+          <t>55.15</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>-2.560%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.62百萬</t>
+          <t>1.36百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.26百萬</t>
+          <t>3.81百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>43.57億</t>
+          <t>101.80億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>89.20億</t>
+          <t>92.21億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.39</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.700%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.40億</t>
+          <t>4.00億</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>11.24億</t>
+          <t>4.93億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>34.93</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>+2.020%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>29.07億</t>
+          <t>47.47億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>42.68億</t>
+          <t>50.25億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>13.71</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-4.650%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-3.370%</t>
+          <t>-1.820%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6.24千萬</t>
+          <t>3.52千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.98億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>83.77</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-1.810%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>+0.540%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>261.84億</t>
+          <t>501.32億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>603.66億</t>
+          <t>553.68億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>141.38</t>
+          <t>144.42</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-1.720%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.32億</t>
+          <t>7.76億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10.52億</t>
+          <t>6.60億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>26.68</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-0.820%</t>
+          <t>-1.000%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6.24億</t>
+          <t>16.76億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15.84億</t>
+          <t>14.32億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>11.35</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-1.110%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>+2.700%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14.69億</t>
+          <t>12.17億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>27.26億</t>
+          <t>18.84億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.76</t>
+          <t>22.30</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-1.430%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+3.280%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.00億</t>
+          <t>3.55億</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.43億</t>
+          <t>6.82億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>33.79</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-0.900%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+1.760%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.47億</t>
+          <t>2.25億</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.14億</t>
+          <t>2.92億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>20.73</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>+5.030%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6.71千萬</t>
+          <t>9.97千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.48億</t>
+          <t>1.36億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>15.79</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6.87千萬</t>
+          <t>1.13億</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.52億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25.59</t>
+          <t>25.17</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>3.25億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.77億</t>
+          <t>3.48億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.60</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>+1.340%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.96千萬</t>
+          <t>8.87千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8.46千萬</t>
+          <t>7.04千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>6.41</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-1.100%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9.76千萬</t>
+          <t>1.71億</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.97億</t>
+          <t>2.05億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.70</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-1.380%</t>
+          <t>-1.070%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.16千萬</t>
+          <t>3.77千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3.79千萬</t>
+          <t>2.59千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1.780%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>+2.400%</t>
+          <t>-0.370%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>29.31萬</t>
+          <t>87.63萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.07百萬</t>
+          <t>4.42百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.580%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.07千萬</t>
+          <t>5.98千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.18千萬</t>
+          <t>4.59千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.41</t>
+          <t>17.26</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.94億</t>
+          <t>25.99億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>24.96億</t>
+          <t>19.35億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-1.380%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13.44億</t>
+          <t>12.20億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15.34億</t>
+          <t>21.09億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>12.15</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-1.930%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-1.480%</t>
+          <t>-1.600%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8.35千萬</t>
+          <t>1.43億</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.84億</t>
+          <t>1.89億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.18</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+2.170%</t>
+          <t>+1.750%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+3.790%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>28.02億</t>
+          <t>37.81億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>63.18億</t>
+          <t>58.17億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>32.16</t>
+          <t>32.79</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>-2.470%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+1.710%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.72億</t>
+          <t>23.92億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7.85億</t>
+          <t>5.27億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.21</t>
+          <t>33.03</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-1.490%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15.05億</t>
+          <t>21.55億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>49.22億</t>
+          <t>25.75億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>17.19</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-1.640%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.640%</t>
+          <t>-0.580%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6.73千萬</t>
+          <t>7.04千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>8.63千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>14.41</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-1.540%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.80億</t>
+          <t>18.59億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11.42億</t>
+          <t>14.03億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>17.12</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8.04千萬</t>
+          <t>1.64億</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.25億</t>
+          <t>2.18億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.83</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+0.910%</t>
+          <t>-1.480%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.60千萬</t>
+          <t>2.50千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.22千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>21.57</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>-1.080%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+1.110%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.32億</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>3.02億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>-0.730%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-1.670%</t>
+          <t>-2.320%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.30億</t>
+          <t>16.66億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>20.50億</t>
+          <t>17.58億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>18.45</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-2.890%</t>
+          <t>-1.260%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>5.76百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5.00百萬</t>
+          <t>5.12百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1.180%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>+1.420%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.54千萬</t>
+          <t>4.73千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.12億</t>
+          <t>1.07億</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>27.66</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.510%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10.25萬</t>
+          <t>49.14萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.89百萬</t>
+          <t>78.04萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.72</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>+1.850%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>+1.820%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.68億</t>
+          <t>2.32億</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.85億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.06</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>+1.830%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6.07百萬</t>
+          <t>1.63千萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.69千萬</t>
+          <t>6.11千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>13.69</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+1.610%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.86億</t>
+          <t>15.61億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.99億</t>
+          <t>3.21億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>22.40</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-1.250%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.34千萬</t>
+          <t>9.30千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>8.17千萬</t>
+          <t>9.63千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>15.93</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>-1.580%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>9.79億</t>
+          <t>18.04億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>22.09億</t>
+          <t>20.13億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.95</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-1.540%</t>
+          <t>-0.930%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25.62億</t>
+          <t>33.62億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>49.63億</t>
+          <t>39.62億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27.37</t>
+          <t>27.03</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-1.360%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>1.63千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4.48千萬</t>
+          <t>3.16千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>217.83</t>
+          <t>215.37</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>-1.510%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>+1.270%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>35.95億</t>
+          <t>41.07億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>33.50億</t>
+          <t>62.07億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>39.79</t>
+          <t>36.65</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+1.270%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.12億</t>
+          <t>1.72億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.80億</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.84</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-0.200%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>+1.650%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.16億</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.61億</t>
+          <t>3.79億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>130.07</t>
+          <t>122.44</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+7.870%</t>
+          <t>+0.560%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+3.540%</t>
+          <t>-1.940%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.51億</t>
+          <t>5.04億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8.49億</t>
+          <t>5.78億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>442.37</t>
+          <t>435.81</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-1.120%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+0.600%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3.53千萬</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>8.92千萬</t>
+          <t>9.42千萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.53</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-0.910%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.12千萬</t>
+          <t>3.25千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5.74千萬</t>
+          <t>2.44千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-1.590%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>24.26億</t>
+          <t>48.25億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>57.39億</t>
+          <t>44.21億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.90</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-2.280%</t>
+          <t>+3.510%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>+2.040%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.15百萬</t>
+          <t>3.04百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.61百萬</t>
+          <t>4.43百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>-3.670%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+8.200%</t>
+          <t>+2.180%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.51千萬</t>
+          <t>3.51千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5.90千萬</t>
+          <t>6.57千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.92</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.640%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>-1.160%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8.22億</t>
+          <t>8.23億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>12.73億</t>
+          <t>13.77億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.90</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+1.260%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>-1.790%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.15億</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.46億</t>
+          <t>3.30億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>20.85</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-0.560%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.48百萬</t>
+          <t>2.23百萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.26百萬</t>
+          <t>1.98百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.41</t>
         </is>
       </c>
     </row>
@@ -3855,22 +3855,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>-1.180%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>9.30億</t>
+          <t>15.27億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>19.86億</t>
+          <t>19.76億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.51</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-1.420%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-0.940%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13.89億</t>
+          <t>19.05億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>25.36億</t>
+          <t>28.81億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>13.85</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-0.290%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+0.160%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.31億</t>
+          <t>2.74億</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.56億</t>
+          <t>4.24億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.28</t>
+          <t>22.96</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+1.920%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>+2.340%</t>
+          <t>-1.600%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.11千萬</t>
+          <t>2.12千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.89千萬</t>
+          <t>3.34千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-0.940%</t>
+          <t>+0.550%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-0.440%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3.54千萬</t>
+          <t>5.14千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.82千萬</t>
+          <t>5.08千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.73</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-3.610%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>+1.490%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.66百萬</t>
+          <t>2.15千萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.18百萬</t>
+          <t>8.08百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-1.390%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-9.220%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3.84千萬</t>
+          <t>7.93千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.05億</t>
+          <t>8.49千萬</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-1.460%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13.60億</t>
+          <t>25.11億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>25.53億</t>
+          <t>23.13億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10.13</t>
+          <t>9.89</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+1.570%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.95億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.89億</t>
+          <t>3.49億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>24.58</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-0.690%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.22千萬</t>
+          <t>2.99億</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.83千萬</t>
+          <t>1.91千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.59</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-0.520%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>+2.100%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.41千萬</t>
+          <t>1.44億</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>8.70千萬</t>
+          <t>8.72千萬</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>6.66</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>+2.230%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>+2.600%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.17千萬</t>
+          <t>2.03億</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5.70千萬</t>
+          <t>7.00千萬</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>16.05</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-1.070%</t>
+          <t>-1.320%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-1.150%</t>
+          <t>-0.520%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>37.79億</t>
+          <t>51.71億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>72.52億</t>
+          <t>50.07億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25.46</t>
+          <t>26.94</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-0.660%</t>
+          <t>+0.480%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>-0.560%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>2.40億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4.24億</t>
+          <t>3.47億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.05</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-2.130%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>+3.280%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.65千萬</t>
+          <t>6.62千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.50千萬</t>
+          <t>7.43千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16.04</t>
+          <t>15.06</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+1.350%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-1.780%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.82億</t>
+          <t>6.24億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>9.08億</t>
+          <t>6.43億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>8.84</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.25億</t>
+          <t>4.42億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>6.25億</t>
+          <t>5.10億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>-0.670%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>17.31億</t>
+          <t>30.84億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>40.10億</t>
+          <t>32.09億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>12.38</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>-0.540%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.13億</t>
+          <t>2.60億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4.28億</t>
+          <t>3.99億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-0.740%</t>
+          <t>-0.590%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4.74億</t>
+          <t>7.58億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10.63億</t>
+          <t>9.12億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>10.67</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-0.320%</t>
+          <t>-1.360%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.83千萬</t>
+          <t>2.22億</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.48億</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-4.120%</t>
+          <t>-0.960%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-1.570%</t>
+          <t>-1.310%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.33億</t>
+          <t>6.62億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2.34億</t>
+          <t>4.13億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>24.78</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3.45億</t>
+          <t>7.05億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>7.94億</t>
+          <t>6.35億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.49</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-0.480%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-1.660%</t>
+          <t>-0.970%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>54.64萬</t>
+          <t>65.93萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1.67百萬</t>
+          <t>94.51萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>9.28</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-0.850%</t>
+          <t>-2.390%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>-1.300%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>13.63萬</t>
+          <t>60.34萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>44.04萬</t>
+          <t>21.85萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>64.30</t>
+          <t>63.20</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-0.220%</t>
+          <t>+0.600%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>+2.050%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>84.32億</t>
+          <t>176.19億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>162.44億</t>
+          <t>149.76億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>29.86</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-1.750%</t>
+          <t>+2.780%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-2.810%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2.85千萬</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>7.99千萬</t>
+          <t>5.34千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>51.45</t>
+          <t>53.42</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-1.090%</t>
+          <t>-1.810%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>+1.800%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>35.71億</t>
+          <t>255.64億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>108.81億</t>
+          <t>115.94億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>16.88</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-1.680%</t>
+          <t>-0.920%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-1.620%</t>
+          <t>+1.080%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4.52億</t>
+          <t>6.58億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>14.20億</t>
+          <t>8.75億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-0.880%</t>
+          <t>-2.080%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10.53億</t>
+          <t>21.36億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>18.57億</t>
+          <t>21.42億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.48</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+1.330%</t>
+          <t>-1.550%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+4.180%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>8.98億</t>
+          <t>23.45億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>14.65億</t>
+          <t>20.89億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>22.22</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>+0.800%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>-1.540%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>26.96億</t>
+          <t>28.73億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>42.06億</t>
+          <t>40.76億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>147.55</t>
+          <t>142.92</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-1.870%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>+1.700%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>36.97億</t>
+          <t>50.38億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>62.65億</t>
+          <t>58.42億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>54.38</t>
+          <t>52.80</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>-0.530%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>8.71百萬</t>
+          <t>6.42百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.03千萬</t>
+          <t>1.01千萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.46</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1.46百萬</t>
+          <t>2.98百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5.65百萬</t>
+          <t>5.19百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19.05</t>
+          <t>19.55</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-1.280%</t>
+          <t>-0.680%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.820%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6.81億</t>
+          <t>12.82億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>21.34億</t>
+          <t>14.39億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>10.53</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>-1.420%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>20.81億</t>
+          <t>37.82億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>44.71億</t>
+          <t>35.87億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.38</t>
+          <t>25.47</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+2.140%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-1.150%</t>
+          <t>-0.470%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>7.44千萬</t>
+          <t>1.78億</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2.42億</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.97</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-1.000%</t>
+          <t>+2.220%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>+5.030%</t>
+          <t>-2.740%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>5.84百萬</t>
+          <t>2.35千萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3.22千萬</t>
+          <t>2.33千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.49</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-1.640%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>6.15億</t>
+          <t>9.19億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>9.67億</t>
+          <t>8.80億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>8.76</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-1.650%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5.32千萬</t>
+          <t>2.18億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.51億</t>
+          <t>2.05億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.30</t>
+          <t>19.56</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>5.62千萬</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.95億</t>
+          <t>1.61億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.26</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-0.040%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>-1.390%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.120%</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.79億</t>
+          <t>1.61億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.12億</t>
+          <t>6.47億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>31.49</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>+0.600%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>-0.800%</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.590%</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.08千萬</t>
+          <t>1.23百萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.19千萬</t>
+          <t>4.19千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>11.61</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>+0.080%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>-0.310%</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+3.900%</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.19億</t>
+          <t>7.18千萬</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.18億</t>
+          <t>12.86億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>14.91</t>
         </is>
       </c>
     </row>
@@ -594,22 +594,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>+1.130%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>-0.010%</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.840%</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.62億</t>
+          <t>3.33千萬</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.66億</t>
+          <t>2.55億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>-0.060%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>+0.460%</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-0.960%</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.50億</t>
+          <t>1.14千萬</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.22億</t>
+          <t>2.72億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.77</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>+0.840%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>+0.610%</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>+0.230%</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13.43億</t>
+          <t>7.44千萬</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.43億</t>
+          <t>11.92億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.63</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+1.640%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.14萬</t>
+          <t>1.21萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>+0.110%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>-0.240%</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-0.110%</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.01千萬</t>
+          <t>2.92百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.05百萬</t>
+          <t>7.23百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.73</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>+0.200%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>+1.670%</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-0.710%</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.65億</t>
+          <t>1.84千萬</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.76億</t>
+          <t>4.59億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>15.99</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>+0.430%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>-2.290%</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>+1.450%</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>208.72億</t>
+          <t>6.53億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>131.49億</t>
+          <t>137.69億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.76</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>+0.290%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>-1.290%</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-1.190%</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14.13億</t>
+          <t>4.82千萬</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17.84億</t>
+          <t>16.52億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35.63</t>
+          <t>35.74</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>-0.470%</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>+0.790%</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>131.82億</t>
+          <t>11.32億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>102.42億</t>
+          <t>107.24億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>54.36</t>
+          <t>54.39</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-0.230%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>-0.090%</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-0.960%</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.06億</t>
+          <t>1.97千萬</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.92億</t>
+          <t>5.36億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>21.91</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>+1.940%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>-1.270%</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-0.150%</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.65億</t>
+          <t>3.13億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>24.48億</t>
+          <t>25.02億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>7.00</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>-0.300%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>+1.220%</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-1.020%</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.38億</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11.31億</t>
+          <t>9.79億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.84</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>+0.390%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>-2.800%</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+1.110%</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.66百萬</t>
+          <t>45.50萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.18百萬</t>
+          <t>3.76百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>14.53</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>+0.530%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>-1.490%</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>+0.570%</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.72億</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.52億</t>
+          <t>9.15億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>+0.450%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>+0.050%</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-1.240%</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.05億</t>
+          <t>7.06千萬</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13.36億</t>
+          <t>12.44億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>19.47</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>+0.090%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>-2.040%</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-0.210%</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>8.36百萬</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.82億</t>
+          <t>2.17億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>10.06</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>+0.570%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>-1.270%</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>+0.280%</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>67.48億</t>
+          <t>3.63億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>80.91億</t>
+          <t>71.10億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>13.10</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>+0.940%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>-2.520%</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-0.080%</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>73.02億</t>
+          <t>4.46億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>67.68億</t>
+          <t>63.41億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>44.36</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>+0.210%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>-0.330%</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>+0.300%</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>1.94千萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.26億</t>
+          <t>5.49億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>19.22</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>+1.320%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>+0.270%</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-0.630%</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13.75億</t>
+          <t>2.95億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12.74億</t>
+          <t>10.98億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>361.75</t>
+          <t>372.92</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>-0.720%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>-0.080%</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-0.690%</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.06千萬</t>
+          <t>2.90百萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.05億</t>
+          <t>1.20億</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.03</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>-0.460%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>-1.210%</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-0.350%</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.52億</t>
+          <t>2.49千萬</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.27億</t>
+          <t>3.76億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>21.32</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>+0.360%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>-0.500%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-0.090%</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12.13億</t>
+          <t>6.43千萬</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13.33億</t>
+          <t>11.84億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
@@ -1445,22 +1445,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>+0.070%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>-0.230%</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-3.030%</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.16千萬</t>
+          <t>31.50萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.13千萬</t>
+          <t>1.40千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>+0.310%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>+0.250%</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>+1.000%</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.39千萬</t>
+          <t>1.89百萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.09千萬</t>
+          <t>4.54千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>+0.220%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>-0.100%</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-0.910%</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.14百萬</t>
+          <t>72.46萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.60百萬</t>
+          <t>5.52百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.27</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>-0.390%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>-1.250%</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-3.830%</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.38億</t>
+          <t>2.03千萬</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.40億</t>
+          <t>9.54億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>38.38</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>+0.350%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>+2.340%</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-2.580%</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>1.60千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.14千萬</t>
+          <t>8.60千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>53.69</t>
+          <t>53.83</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>+0.790%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>+0.100%</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>+1.370%</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8.32億</t>
+          <t>5.56千萬</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.50億</t>
+          <t>7.95億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.31</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>-0.050%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>+1.190%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>+0.220%</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.16億</t>
+          <t>4.07千萬</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.97億</t>
+          <t>3.86億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>19.35</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>+1.210%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>+0.550%</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>+0.820%</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9.64億</t>
+          <t>5.25千萬</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10.44億</t>
+          <t>9.55億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.25</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>+0.170%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>-1.800%</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-0.610%</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.03億</t>
+          <t>2.29千萬</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6.29億</t>
+          <t>5.54億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>118.06</t>
+          <t>120.07</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>+0.180%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>-0.070%</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>+0.550%</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.08億</t>
+          <t>1.19千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>1.92億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>12.45</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>+0.250%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>+0.350%</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>+0.660%</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.49億</t>
+          <t>1.35千萬</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.33億</t>
+          <t>3.06億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18.37</t>
+          <t>18.39</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>+0.110%</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>+0.130%</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-0.400%</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.24億</t>
+          <t>3.71千萬</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.74億</t>
+          <t>7.05億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>55.15</t>
+          <t>55.40</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>+0.080%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>-2.560%</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-0.710%</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.36百萬</t>
+          <t>1.13百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.81百萬</t>
+          <t>3.23百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>+0.120%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>+0.290%</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>-1.260%</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>101.80億</t>
+          <t>6.84億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>92.21億</t>
+          <t>89.49億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>7.41</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>+0.680%</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>-0.250%</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-1.050%</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.00億</t>
+          <t>3.81千萬</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.93億</t>
+          <t>4.27億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>34.93</t>
+          <t>35.05</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>+0.670%</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>+0.880%</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>+2.020%</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>47.47億</t>
+          <t>5.06億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50.25億</t>
+          <t>50.28億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>13.80</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>+0.630%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>-1.230%</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-1.820%</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.52千萬</t>
+          <t>1.22百萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>6.56千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>83.77</t>
+          <t>84.29</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>+0.190%</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>-0.090%</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>+0.540%</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>501.32億</t>
+          <t>38.18億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>553.68億</t>
+          <t>539.41億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>144.42</t>
+          <t>137.23</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>+2.100%</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>+0.660%</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>-0.250%</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.76億</t>
+          <t>4.10千萬</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.60億</t>
+          <t>6.66億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>26.81</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>+0.710%</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>+0.040%</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>-1.000%</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16.76億</t>
+          <t>1.35億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>14.32億</t>
+          <t>13.80億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>11.42</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>+0.580%</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>-1.110%</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>+2.700%</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12.17億</t>
+          <t>9.90千萬</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>18.84億</t>
+          <t>16.75億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22.30</t>
+          <t>22.32</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>-0.120%</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>-1.430%</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>-0.390%</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.55億</t>
+          <t>7.80百萬</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.82億</t>
+          <t>6.83億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>33.79</t>
+          <t>33.78</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-0.050%</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>+0.260%</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-0.730%</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.25億</t>
+          <t>5.26百萬</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.92億</t>
+          <t>3.13億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.73</t>
+          <t>20.70</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>+2.770%</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>+0.390%</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>+5.030%</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.97千萬</t>
+          <t>1.06千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.36億</t>
+          <t>1.19億</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>15.77</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>-0.050%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>+0.050%</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>+0.500%</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.13億</t>
+          <t>9.59百萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.42億</t>
+          <t>1.47億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>24.71</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>+0.210%</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>-0.990%</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>-0.050%</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.25億</t>
+          <t>1.96千萬</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3.48億</t>
+          <t>2.95億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.63</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>+1.000%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>+1.340%</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>+0.940%</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8.87千萬</t>
+          <t>6.45百萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7.04千萬</t>
+          <t>6.96千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>+0.340%</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>+0.180%</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-1.560%</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.71億</t>
+          <t>1.48千萬</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.05億</t>
+          <t>2.06億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.70</t>
+          <t>14.08</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>+0.290%</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>+0.720%</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-1.070%</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.77千萬</t>
+          <t>80.39萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.59千萬</t>
+          <t>2.44千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>-0.750%</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>-0.370%</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>87.63萬</t>
+          <t>67.32萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4.42百萬</t>
+          <t>3.29百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,22 +2555,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>-0.010%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>-0.410%</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>+0.140%</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.98千萬</t>
+          <t>1.65百萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4.59千萬</t>
+          <t>5.08千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>+0.500%</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>-0.570%</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>-0.550%</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>25.99億</t>
+          <t>2.57億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>19.35億</t>
+          <t>19.02億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.52</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>+0.680%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>-0.060%</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>-1.380%</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12.20億</t>
+          <t>2.21億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>21.09億</t>
+          <t>19.14億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.35</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>+0.010%</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>-0.500%</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>-1.600%</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.43億</t>
+          <t>5.15百萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>1.84億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.17</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>+1.810%</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>+1.750%</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-1.040%</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>37.81億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>58.17億</t>
+          <t>44.32億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>32.79</t>
+          <t>33.98</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>+0.370%</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>-2.470%</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>+1.710%</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>23.92億</t>
+          <t>4.61千萬</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.27億</t>
+          <t>8.69億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.03</t>
+          <t>33.20</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>+0.320%</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>-1.560%</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>+0.580%</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>21.55億</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>25.75億</t>
+          <t>23.45億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>17.22</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>+0.300%</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>-1.640%</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>-0.580%</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7.04千萬</t>
+          <t>1.03千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8.63千萬</t>
+          <t>8.12千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>14.37</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>+0.620%</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>+0.110%</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>+0.720%</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18.59億</t>
+          <t>8.66千萬</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14.03億</t>
+          <t>15.82億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>17.25</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>+0.040%</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>+0.200%</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>-0.290%</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.64億</t>
+          <t>8.54百萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.18億</t>
+          <t>1.98億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.84</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>+0.060%</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>+0.300%</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>-1.480%</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.50千萬</t>
+          <t>2.31百萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.83千萬</t>
+          <t>2.75千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>21.58</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>+0.360%</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>-1.080%</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>-0.820%</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.34億</t>
+          <t>8.41百萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.02億</t>
+          <t>2.29億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>+0.430%</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>-0.730%</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>-2.320%</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>16.66億</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>17.58億</t>
+          <t>16.19億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>18.42</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>-0.290%</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>-1.050%</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>-1.260%</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.76百萬</t>
+          <t>47.95萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5.12百萬</t>
+          <t>5.49百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>+0.130%</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>-0.530%</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>+1.420%</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4.73千萬</t>
+          <t>3.40百萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.07億</t>
+          <t>7.58千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>27.67</t>
         </is>
       </c>
     </row>
@@ -3110,14 +3110,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>+0.460%</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>-0.670%</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>49.14萬</t>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>78.04萬</t>
+          <t>68.18萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>+0.090%</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>+1.850%</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>+1.820%</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.32億</t>
+          <t>2.04千萬</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.86億</t>
+          <t>2.71億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.12</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>+1.830%</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>-2.180%</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.63千萬</t>
+          <t>7.65萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6.11千萬</t>
+          <t>5.97千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>13.73</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>+0.530%</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>+1.610%</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>+0.510%</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>15.61億</t>
+          <t>5.14千萬</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.21億</t>
+          <t>5.53億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>22.55</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>-0.290%</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>0.000%</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>-1.250%</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9.30千萬</t>
+          <t>5.61百萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9.63千萬</t>
+          <t>8.39千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>15.88</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>+0.240%</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>-1.580%</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>-0.310%</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>18.04億</t>
+          <t>8.82千萬</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>20.13億</t>
+          <t>19.51億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>+0.360%</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>-0.930%</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>+0.010%</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>33.62億</t>
+          <t>1.60億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>39.62億</t>
+          <t>36.89億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>28.04</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>+0.200%</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>-0.290%</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>+0.400%</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.63千萬</t>
+          <t>1.07千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3.16千萬</t>
+          <t>2.08千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>215.37</t>
+          <t>215.43</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>+0.360%</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>-1.510%</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>+1.270%</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>41.07億</t>
+          <t>2.20億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>62.07億</t>
+          <t>56.61億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>36.65</t>
+          <t>36.62</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>+0.470%</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>+0.300%</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>+0.860%</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.72億</t>
+          <t>5.54百萬</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.01</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>-0.030%</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>-0.970%</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>+1.650%</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3.40億</t>
+          <t>2.15千萬</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.79億</t>
+          <t>3.56億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>120.60</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>-1.120%</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>+0.560%</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>-1.940%</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5.04億</t>
+          <t>3.36千萬</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5.78億</t>
+          <t>4.64億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>435.81</t>
+          <t>435.74</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>+0.530%</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>-1.120%</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>+0.600%</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>3.42千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>9.42千萬</t>
+          <t>9.75千萬</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.54</t>
         </is>
       </c>
     </row>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>+0.170%</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>-0.670%</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>+0.380%</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3.25千萬</t>
+          <t>1.15百萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.44千萬</t>
+          <t>2.41千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>+0.240%</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>+0.690%</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>-1.300%</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>48.25億</t>
+          <t>2.91億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>44.21億</t>
+          <t>43.56億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.92</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>-0.170%</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>+3.510%</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>+0.400%</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.04百萬</t>
+          <t>6.00萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.43百萬</t>
+          <t>4.47百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>+1.520%</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>-3.670%</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>+2.180%</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.51千萬</t>
+          <t>3.45百萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>6.57千萬</t>
+          <t>6.15千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>8.01</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>+0.050%</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>+0.640%</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-1.160%</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8.23億</t>
+          <t>5.52千萬</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>13.77億</t>
+          <t>12.29億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>+0.250%</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>+1.260%</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-1.790%</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>9.09百萬</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.30億</t>
+          <t>2.93億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>21.11</t>
         </is>
       </c>
     </row>
@@ -3813,22 +3813,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>+0.880%</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>+0.410%</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>-1.170%</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.23百萬</t>
+          <t>20.60萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.98百萬</t>
+          <t>1.85百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>-0.040%</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>-0.650%</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>-1.180%</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>15.27億</t>
+          <t>7.74千萬</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>19.76億</t>
+          <t>16.76億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.53</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>+0.640%</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>-0.250%</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>-0.240%</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>19.05億</t>
+          <t>4.33億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>28.81億</t>
+          <t>24.99億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>13.94</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>+0.640%</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>-0.290%</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>-0.530%</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.74億</t>
+          <t>2.15千萬</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.24億</t>
+          <t>3.88億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>23.94</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>+0.280%</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>0.000%</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>-1.600%</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.12千萬</t>
+          <t>3.81百萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.34千萬</t>
+          <t>3.18千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.56</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>+0.760%</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>+0.550%</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>-0.350%</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5.14千萬</t>
+          <t>4.10百萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5.08千萬</t>
+          <t>5.18千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.37</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>-0.240%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>-3.610%</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>+1.490%</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.15千萬</t>
+          <t>79.29萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.08百萬</t>
+          <t>8.01百萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.62</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>+0.670%</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>-1.170%</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7.93千萬</t>
+          <t>1.56百萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.49千萬</t>
+          <t>8.37千萬</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>14.07</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>-0.210%</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>0.000%</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>-1.460%</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>25.11億</t>
+          <t>1.61億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>23.13億</t>
+          <t>23.62億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.91</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>-0.140%</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>-0.160%</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>-0.180%</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.86億</t>
+          <t>1.97千萬</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.49億</t>
+          <t>3.02億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24.58</t>
+          <t>24.60</t>
         </is>
       </c>
     </row>
@@ -4183,22 +4183,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>-0.970%</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>-0.590%</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>-0.540%</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.99億</t>
+          <t>1.47千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.91千萬</t>
+          <t>7.57千萬</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>-0.760%</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>+0.180%</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>+0.200%</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.44億</t>
+          <t>9.70百萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>8.72千萬</t>
+          <t>1.04億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>+0.800%</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>+2.230%</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>+2.600%</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.03億</t>
+          <t>3.02千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>7.00千萬</t>
+          <t>1.02億</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>16.54</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>+0.170%</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>-1.320%</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>-0.520%</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>51.71億</t>
+          <t>2.39億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>50.07億</t>
+          <t>49.55億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>27.13</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>+0.110%</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>+0.480%</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>-0.560%</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.40億</t>
+          <t>1.87千萬</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.47億</t>
+          <t>3.00億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.06</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>-0.130%</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>-0.400%</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>-0.150%</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6.62千萬</t>
+          <t>1.65百萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.43千萬</t>
+          <t>6.40千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>15.05</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>+0.080%</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>+1.350%</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>-0.550%</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6.24億</t>
+          <t>4.13千萬</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>6.43億</t>
+          <t>5.46億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.85</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>+0.010%</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>+0.340%</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>+0.280%</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4.42億</t>
+          <t>3.07千萬</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5.10億</t>
+          <t>4.28億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.80</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>-0.130%</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>-0.670%</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>30.84億</t>
+          <t>2.12億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>32.09億</t>
+          <t>28.13億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.29</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>+0.260%</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>+0.090%</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>-0.540%</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2.60億</t>
+          <t>1.84千萬</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.99億</t>
+          <t>3.19億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>14.22</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>+0.230%</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>-0.590%</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>-0.690%</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7.58億</t>
+          <t>9.38千萬</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>9.12億</t>
+          <t>8.22億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>10.69</t>
         </is>
       </c>
     </row>
@@ -4590,22 +4590,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>+0.030%</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>-0.420%</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>-1.360%</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2.22億</t>
+          <t>8.74百萬</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>1.90億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>+1.150%</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>-0.960%</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>-1.310%</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>6.62億</t>
+          <t>1.91千萬</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4.13億</t>
+          <t>5.03億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>25.23</t>
         </is>
       </c>
     </row>
@@ -4664,22 +4664,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>-0.020%</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>-0.270%</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>+0.570%</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>7.05億</t>
+          <t>3.48千萬</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.35億</t>
+          <t>6.16億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>-0.490%</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>0.000%</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>-0.970%</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>65.93萬</t>
+          <t>8.16千</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>94.51萬</t>
+          <t>71.46萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.23</t>
         </is>
       </c>
     </row>
@@ -4738,22 +4738,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>-2.390%</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>-1.300%</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>60.34萬</t>
+          <t>4.24萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>21.85萬</t>
+          <t>27.53萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>+0.990%</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>+0.600%</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>+2.050%</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>176.19億</t>
+          <t>15.92億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>149.76億</t>
+          <t>151.45億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>30.03</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>0.000%</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>+2.780%</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>-1.540%</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>8.15百萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>5.34千萬</t>
+          <t>5.98千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>53.42</t>
+          <t>53.21</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>+0.210%</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>-1.810%</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>+0.240%</t>
-        </is>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>255.64億</t>
+          <t>19.11億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>115.94億</t>
+          <t>143.31億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16.88</t>
+          <t>16.90</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>-0.160%</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>-0.920%</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>+1.080%</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>6.58億</t>
+          <t>5.30千萬</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>8.75億</t>
+          <t>7.83億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.98</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>+0.910%</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>+0.290%</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>-2.080%</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>21.36億</t>
+          <t>1.90億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>21.42億</t>
+          <t>21.86億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.53</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>+0.560%</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>-1.550%</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>+0.410%</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>23.45億</t>
+          <t>9.07千萬</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>20.89億</t>
+          <t>23.42億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>22.85</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>+0.100%</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>-0.650%</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>-1.540%</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>28.73億</t>
+          <t>9.90千萬</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>40.76億</t>
+          <t>36.86億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>142.92</t>
+          <t>143.49</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>-0.150%</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>-1.650%</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>-0.080%</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>50.38億</t>
+          <t>2.61億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>58.42億</t>
+          <t>52.08億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>52.80</t>
+          <t>52.83</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>-0.020%</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>-0.830%</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>-0.530%</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>6.42百萬</t>
+          <t>3.50百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1.01千萬</t>
+          <t>9.45百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.45</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>-1.370%</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>-0.060%</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>+0.380%</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2.98百萬</t>
+          <t>1.43百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5.19百萬</t>
+          <t>4.59百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>18.87</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>+0.250%</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>-0.680%</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>-0.240%</t>
-        </is>
-      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>12.82億</t>
+          <t>6.54千萬</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>14.39億</t>
+          <t>12.30億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>10.60</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>+0.410%</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>-0.800%</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>-1.420%</t>
-        </is>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>37.82億</t>
+          <t>4.47億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>35.87億</t>
+          <t>33.06億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>25.34</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>+4.370%</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>+2.140%</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>-0.470%</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.78億</t>
+          <t>1.30千萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>1.27億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>6.00</t>
         </is>
       </c>
     </row>
@@ -5256,22 +5256,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>-0.070%</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>+2.220%</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>-2.740%</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2.35千萬</t>
+          <t>28.69萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.33千萬</t>
+          <t>2.49千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>+0.280%</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>-0.040%</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>-0.350%</t>
-        </is>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>9.19億</t>
+          <t>3.61千萬</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>8.80億</t>
+          <t>7.99億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.82</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>-0.190%</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>-0.020%</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>-1.650%</t>
-        </is>
-      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2.18億</t>
+          <t>6.24百萬</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.05億</t>
+          <t>1.91億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>19.55</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>-0.230%</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>+0.070%</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>-0.360%</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>9.23百萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.61億</t>
+          <t>1.50億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.27</t>
         </is>
       </c>
     </row>

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.390%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.61億</t>
+          <t>3.03百萬</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.47億</t>
+          <t>6.07億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>31.79</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>-0.770%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.23百萬</t>
+          <t>4.05萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19千萬</t>
+          <t>2.95千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.78</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.18千萬</t>
+          <t>1.56千萬</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.86億</t>
+          <t>11.18億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>14.95</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+1.130%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>+0.630%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.33千萬</t>
+          <t>37.98萬</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.55億</t>
+          <t>2.93億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -631,22 +631,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.14千萬</t>
+          <t>3.21百萬</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.72億</t>
+          <t>2.73億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+1.070%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.44千萬</t>
+          <t>1.23千萬</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.92億</t>
+          <t>12.99億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.71</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.560%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.83千</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.21萬</t>
+          <t>1.35萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>15.52</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.820%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.92百萬</t>
+          <t>7.25萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.23百萬</t>
+          <t>6.84百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.72</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+1.670%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.84千萬</t>
+          <t>1.17億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.59億</t>
+          <t>4.27億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>16.98</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-2.290%</t>
+          <t>+1.260%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.53億</t>
+          <t>5.99億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>137.69億</t>
+          <t>141.07億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.95</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>+3.160%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.82千萬</t>
+          <t>9.29百萬</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16.52億</t>
+          <t>15.50億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35.74</t>
+          <t>36.98</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.470%</t>
+          <t>+1.090%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.32億</t>
+          <t>2.88億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>107.24億</t>
+          <t>106.90億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>54.39</t>
+          <t>54.44</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.97千萬</t>
+          <t>2.18百萬</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.36億</t>
+          <t>4.86億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>21.93</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+1.940%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>+5.140%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.13億</t>
+          <t>4.31千萬</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25.02億</t>
+          <t>29.31億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.20</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.300%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>-0.830%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>8.24百萬</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.79億</t>
+          <t>9.88億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>13.82</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-2.800%</t>
+          <t>+1.960%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>45.50萬</t>
+          <t>1.28千</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.76百萬</t>
+          <t>3.89百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>14.37</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-1.490%</t>
+          <t>+2.720%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>1.69千萬</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.15億</t>
+          <t>9.32億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.29</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+0.450%</t>
+          <t>+0.150%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.450%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.06千萬</t>
+          <t>6.43百萬</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12.44億</t>
+          <t>12.05億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>19.80</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-2.040%</t>
+          <t>+2.990%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.36百萬</t>
+          <t>44.85萬</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.17億</t>
+          <t>2.09億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>10.19</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.270%</t>
+          <t>+1.690%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.63億</t>
+          <t>1.99千萬</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>71.10億</t>
+          <t>68.05億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.10</t>
+          <t>13.27</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-2.520%</t>
+          <t>+2.780%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.46億</t>
+          <t>2.85千萬</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>63.41億</t>
+          <t>60.09億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>44.36</t>
+          <t>45.17</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.330%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.94千萬</t>
+          <t>6.77百萬</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.49億</t>
+          <t>5.74億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>18.80</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+1.320%</t>
+          <t>+0.530%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+0.270%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.95億</t>
+          <t>8.78千萬</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.98億</t>
+          <t>13.15億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>372.92</t>
+          <t>383.71</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.720%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-1.910%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.90百萬</t>
+          <t>9.56百萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.20億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-1.210%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.49千萬</t>
+          <t>63.88萬</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.76億</t>
+          <t>4.12億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.32</t>
+          <t>21.42</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>+0.970%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.43千萬</t>
+          <t>2.09百萬</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11.84億</t>
+          <t>11.24億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>-0.140%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>31.50萬</t>
+          <t>5.52千</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.40千萬</t>
+          <t>1.48千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.89百萬</t>
+          <t>9.14千</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.54千萬</t>
+          <t>5.50千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>+0.360%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.46萬</t>
+          <t>2.89百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.52百萬</t>
+          <t>5.36百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.36</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.390%</t>
+          <t>+2.940%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1.250%</t>
+          <t>-2.290%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.03千萬</t>
+          <t>1.13千萬</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.54億</t>
+          <t>8.59億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>40.72</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+2.340%</t>
+          <t>-1.290%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.60千萬</t>
+          <t>40.60萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.60千萬</t>
+          <t>9.28千萬</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>53.83</t>
+          <t>53.89</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>+0.790%</t>
+          <t>-0.030%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.640%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.56千萬</t>
+          <t>7.37百萬</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.95億</t>
+          <t>7.56億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>7.38</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.07千萬</t>
+          <t>1.53百萬</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.86億</t>
+          <t>4.19億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19.35</t>
+          <t>19.71</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+1.210%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>+1.570%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.25千萬</t>
+          <t>4.94千萬</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.55億</t>
+          <t>9.42億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.35</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-1.800%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.29千萬</t>
+          <t>1.90百萬</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.54億</t>
+          <t>5.32億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120.07</t>
+          <t>118.05</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+4.330%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.19千萬</t>
+          <t>26.62萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.92億</t>
+          <t>1.89億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>13.36</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.070%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>+1.380%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.35千萬</t>
+          <t>22.89萬</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.06億</t>
+          <t>2.83億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18.39</t>
+          <t>18.25</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>+2.850%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.71千萬</t>
+          <t>3.78百萬</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.05億</t>
+          <t>6.73億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>55.40</t>
+          <t>55.49</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-2.560%</t>
+          <t>+1.590%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.13百萬</t>
+          <t>1.75萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.23百萬</t>
+          <t>3.36百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.97</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.84億</t>
+          <t>6.54千萬</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>89.49億</t>
+          <t>94.87億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.42</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>+2.020%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.81千萬</t>
+          <t>86.74萬</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.27億</t>
+          <t>4.88億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>34.95</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>+2.250%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.06億</t>
+          <t>8.52千萬</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50.28億</t>
+          <t>52.02億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>13.91</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.630%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-1.230%</t>
+          <t>+1.870%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.22百萬</t>
+          <t>30.83萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6.56千萬</t>
+          <t>5.43千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>85.86</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+0.130%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+2.260%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>38.18億</t>
+          <t>14.82億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>539.41億</t>
+          <t>554.59億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>137.23</t>
+          <t>143.27</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+2.100%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+2.290%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.10千萬</t>
+          <t>9.59百萬</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.66億</t>
+          <t>6.43億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.81</t>
+          <t>26.95</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.710%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+1.530%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.35億</t>
+          <t>2.71千萬</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13.80億</t>
+          <t>14.34億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.58</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-1.110%</t>
+          <t>+1.240%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9.90千萬</t>
+          <t>1.38千萬</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16.75億</t>
+          <t>17.16億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22.32</t>
+          <t>23.08</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-1.430%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.80百萬</t>
+          <t>95.31萬</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.83億</t>
+          <t>4.29億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>33.78</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5.26百萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.13億</t>
+          <t>2.44億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.70</t>
+          <t>20.95</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+2.770%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>+2.210%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.06千萬</t>
+          <t>5.68萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.19億</t>
+          <t>9.83千萬</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>16.14</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9.59百萬</t>
+          <t>72.17萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.47億</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24.71</t>
+          <t>24.38</t>
         </is>
       </c>
     </row>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.96千萬</t>
+          <t>25.73萬</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.95億</t>
+          <t>2.98億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+1.000%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+1.340%</t>
+          <t>+0.180%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.45百萬</t>
+          <t>2.43千</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6.96千萬</t>
+          <t>7.54千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.40</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>+0.340%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>+0.570%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.48千萬</t>
+          <t>23.12萬</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.06億</t>
+          <t>1.94億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>13.46</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>+2.160%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>80.39萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.44千萬</t>
+          <t>2.53千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -2523,22 +2523,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.750%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>67.32萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.29百萬</t>
+          <t>3.37百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.410%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.65百萬</t>
+          <t>13.92萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.08千萬</t>
+          <t>4.58千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>17.32</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+0.500%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-0.570%</t>
+          <t>+1.290%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.57億</t>
+          <t>7.24千萬</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>19.02億</t>
+          <t>20.75億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.45</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.21億</t>
+          <t>3.00千萬</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>19.14億</t>
+          <t>17.87億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.50</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.350%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.500%</t>
+          <t>+7.010%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5.15百萬</t>
+          <t>62.38萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.84億</t>
+          <t>1.83億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>8.59</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+1.810%</t>
+          <t>+1.740%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+1.750%</t>
+          <t>+2.510%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3.78億</t>
+          <t>29.38億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>44.32億</t>
+          <t>45.64億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>33.98</t>
+          <t>32.43</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-2.470%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.61千萬</t>
+          <t>3.70百萬</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8.69億</t>
+          <t>8.93億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.20</t>
+          <t>33.19</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+0.530%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.06億</t>
+          <t>5.22百萬</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>23.45億</t>
+          <t>22.68億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>17.35</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-1.640%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.03千萬</t>
+          <t>14.09萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8.12千萬</t>
+          <t>7.78千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>14.29</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>+0.240%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.66千萬</t>
+          <t>4.21千萬</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15.82億</t>
+          <t>15.95億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>17.40</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8.54百萬</t>
+          <t>35.19萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.98億</t>
+          <t>1.92億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.83</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.31百萬</t>
+          <t>77.25萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.75千萬</t>
+          <t>3.00千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>21.32</t>
         </is>
       </c>
     </row>
@@ -2962,27 +2962,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-1.080%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8.41百萬</t>
+          <t>17.30萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.29億</t>
+          <t>1.96億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>+0.430%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-0.730%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>7.82千萬</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>16.19億</t>
+          <t>15.78億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>18.58</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>47.95萬</t>
+          <t>2.56萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5.49百萬</t>
+          <t>5.18百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.81</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.530%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.40百萬</t>
+          <t>5.52萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7.58千萬</t>
+          <t>7.13千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27.67</t>
+          <t>27.68</t>
         </is>
       </c>
     </row>
@@ -3115,22 +3115,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+0.460%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>49.14萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>68.18萬</t>
+          <t>79.53萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+1.850%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.04千萬</t>
+          <t>52.82萬</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.71億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.10</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+1.830%</t>
+          <t>+2.450%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7.65萬</t>
+          <t>7.96千</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>5.97千萬</t>
+          <t>6.03千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>14.03</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+1.610%</t>
+          <t>+0.830%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.14千萬</t>
+          <t>66.97萬</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5.53億</t>
+          <t>5.80億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>22.93</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.61百萬</t>
+          <t>8.55萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>8.39千萬</t>
+          <t>9.19千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15.88</t>
+          <t>16.05</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-1.580%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8.82千萬</t>
+          <t>4.85千萬</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19.51億</t>
+          <t>19.73億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.97</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.220%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.930%</t>
+          <t>+3.910%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.60億</t>
+          <t>1.67千萬</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>36.89億</t>
+          <t>51.47億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28.04</t>
+          <t>28.74</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+0.200%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+1.470%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.07千萬</t>
+          <t>3.11萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.08千萬</t>
+          <t>1.90千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>215.43</t>
+          <t>214.25</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-1.510%</t>
+          <t>+2.310%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.20億</t>
+          <t>4.95百萬</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>56.61億</t>
+          <t>49.94億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>37.07</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>+0.650%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>+1.740%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5.54百萬</t>
+          <t>86.09萬</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.52億</t>
+          <t>2.38億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.25</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>-2.180%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.15千萬</t>
+          <t>12.59萬</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.56億</t>
+          <t>3.55億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120.60</t>
+          <t>121.22</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.36千萬</t>
+          <t>88.20萬</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.64億</t>
+          <t>4.62億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>435.74</t>
+          <t>405.54</t>
         </is>
       </c>
     </row>
@@ -3554,27 +3554,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>+1.120%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-1.120%</t>
+          <t>+0.380%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3.42千萬</t>
+          <t>2.95百萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>9.75千萬</t>
+          <t>1.07億</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.670%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.15百萬</t>
+          <t>4.78萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.41千萬</t>
+          <t>2.69千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>+2.650%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.91億</t>
+          <t>5.49千萬</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>43.56億</t>
+          <t>46.71億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>6.07</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>+3.510%</t>
+          <t>-0.650%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6.00萬</t>
+          <t>3.76萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.47百萬</t>
+          <t>4.35百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+1.520%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-3.670%</t>
+          <t>+2.990%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.45百萬</t>
+          <t>4.04萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>6.15千萬</t>
+          <t>4.49千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.04</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5.52千萬</t>
+          <t>4.28百萬</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>12.29億</t>
+          <t>10.76億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>6.88</t>
         </is>
       </c>
     </row>
@@ -3776,27 +3776,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>+0.190%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>+2.090%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>9.09百萬</t>
+          <t>8.54百萬</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.93億</t>
+          <t>2.74億</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>21.73</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>20.60萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.85百萬</t>
+          <t>1.58百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.74千萬</t>
+          <t>4.89百萬</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>16.76億</t>
+          <t>15.57億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>10.63</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-0.250%</t>
+          <t>+2.430%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4.33億</t>
+          <t>1.99億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>24.99億</t>
+          <t>26.56億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>14.28</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-0.290%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.15千萬</t>
+          <t>2.94百萬</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.88億</t>
+          <t>3.76億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>23.37</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.060%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.81百萬</t>
+          <t>4.34萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.18千萬</t>
+          <t>3.17千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.65</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>+0.760%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>+0.550%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.10百萬</t>
+          <t>15.82萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5.18千萬</t>
+          <t>5.21千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.240%</t>
+          <t>-0.050%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-3.610%</t>
+          <t>+2.820%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>79.29萬</t>
+          <t>9.20千</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.01百萬</t>
+          <t>1.85千萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.56百萬</t>
+          <t>52.00萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.37千萬</t>
+          <t>7.29千萬</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>14.09</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-0.210%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.61億</t>
+          <t>3.76千萬</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>23.62億</t>
+          <t>25.40億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>10.02</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.97千萬</t>
+          <t>3.88百萬</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.02億</t>
+          <t>2.84億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24.60</t>
+          <t>24.68</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-0.970%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>-3.420%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.47千萬</t>
+          <t>17.25萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>7.57千萬</t>
+          <t>1.00億</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.37</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-0.760%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>-1.980%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>9.70百萬</t>
+          <t>4.43萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.04億</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>6.57</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>+0.800%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+2.230%</t>
+          <t>+4.230%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3.02千萬</t>
+          <t>3.72百萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1.02億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>18.44</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>+0.140%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-1.320%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2.39億</t>
+          <t>2.40億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>49.55億</t>
+          <t>48.43億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27.13</t>
+          <t>27.27</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>+0.480%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.87千萬</t>
+          <t>3.10百萬</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.00億</t>
+          <t>2.79億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.13</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>+0.740%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.65百萬</t>
+          <t>6.82萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>6.40千萬</t>
+          <t>7.92千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>15.41</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+1.350%</t>
+          <t>+2.450%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.13千萬</t>
+          <t>7.89百萬</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>5.46億</t>
+          <t>5.74億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.11</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>+0.340%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3.07千萬</t>
+          <t>6.14百萬</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4.28億</t>
+          <t>4.38億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.82</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2.12億</t>
+          <t>9.95百萬</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>28.13億</t>
+          <t>28.27億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>12.34</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+0.300%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.84千萬</t>
+          <t>1.89百萬</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.19億</t>
+          <t>3.30億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>14.32</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-0.590%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>9.38千萬</t>
+          <t>2.04百萬</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>8.22億</t>
+          <t>8.40億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>10.76</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>+0.010%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>+0.170%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>8.74百萬</t>
+          <t>26.72萬</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>2.07億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.02</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>+1.150%</t>
+          <t>+1.420%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-0.960%</t>
+          <t>+3.760%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.91千萬</t>
+          <t>4.23百萬</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5.03億</t>
+          <t>5.24億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>25.23</t>
+          <t>27.22</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-0.270%</t>
+          <t>+1.250%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3.48千萬</t>
+          <t>6.16百萬</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.16億</t>
+          <t>5.89億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.64</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-0.490%</t>
+          <t>+1.450%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>8.16千</t>
+          <t>4.20萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>71.46萬</t>
+          <t>72.37萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.50</t>
         </is>
       </c>
     </row>
@@ -4743,22 +4743,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-2.390%</t>
+          <t>+0.640%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4.24萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>27.53萬</t>
+          <t>34.26萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>63.20</t>
+          <t>63.65</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>+0.990%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+0.600%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>15.92億</t>
+          <t>6.15千萬</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>151.45億</t>
+          <t>150.03億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>31.79</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.400%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>+2.780%</t>
+          <t>+3.560%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>8.15百萬</t>
+          <t>3.10萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>5.98千萬</t>
+          <t>6.53千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>53.21</t>
+          <t>54.55</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>+0.210%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-1.810%</t>
+          <t>-0.990%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>19.11億</t>
+          <t>5.41億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>143.31億</t>
+          <t>162.19億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-0.920%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>5.30千萬</t>
+          <t>3.12百萬</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7.83億</t>
+          <t>7.15億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.10</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>+0.910%</t>
+          <t>+0.720%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+3.450%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1.90億</t>
+          <t>1.02千萬</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>21.86億</t>
+          <t>18.18億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.60</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+0.560%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-1.550%</t>
+          <t>+1.660%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>9.07千萬</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>23.42億</t>
+          <t>25.31億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.85</t>
+          <t>22.87</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>-0.030%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>9.90千萬</t>
+          <t>1.79千萬</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>36.86億</t>
+          <t>36.16億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>143.49</t>
+          <t>144.67</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-1.650%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2.61億</t>
+          <t>1.23千萬</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>52.08億</t>
+          <t>44.91億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>52.83</t>
+          <t>53.22</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+0.620%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3.50百萬</t>
+          <t>1.47萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>9.45百萬</t>
+          <t>6.85百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.48</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-1.370%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-0.620%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1.43百萬</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4.59百萬</t>
+          <t>6.58百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18.87</t>
+          <t>18.92</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>+0.250%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-0.680%</t>
+          <t>+1.240%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>6.54千萬</t>
+          <t>2.54千萬</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>12.30億</t>
+          <t>11.93億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.79</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-0.800%</t>
+          <t>+0.510%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4.47億</t>
+          <t>2.37千萬</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>33.06億</t>
+          <t>31.92億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>24.82</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+4.370%</t>
+          <t>+0.290%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+2.140%</t>
+          <t>+6.820%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.30千萬</t>
+          <t>53.08萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.27億</t>
+          <t>1.39億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.08</t>
         </is>
       </c>
     </row>
@@ -5256,22 +5256,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>+2.220%</t>
+          <t>-0.420%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>28.69萬</t>
+          <t>340.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.49千萬</t>
+          <t>2.25千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>-0.090%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3.61千萬</t>
+          <t>9.29千萬</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>7.99億</t>
+          <t>8.00億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>8.51</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-0.190%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.020%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>6.24百萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1.91億</t>
+          <t>1.74億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>19.45</t>
         </is>
       </c>
     </row>
@@ -5367,22 +5367,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-0.230%</t>
+          <t>+0.030%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>-1.050%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>9.23百萬</t>
+          <t>53.70萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.50億</t>
+          <t>1.41億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">

--- a/Data/indlist.xlsx
+++ b/Data/indlist.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03百萬</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.07億</t>
+          <t>5.06億</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>31.98</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.770%</t>
+          <t>+1.700%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+1.000%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.05萬</t>
+          <t>3.83千萬</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95千萬</t>
+          <t>2.88千萬</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>11.43</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.630%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.56千萬</t>
+          <t>2.93億</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.18億</t>
+          <t>8.38億</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>14.77</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.630%</t>
+          <t>-2.800%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37.98萬</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.93億</t>
+          <t>3.30億</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>+0.090%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.21百萬</t>
+          <t>6.93千萬</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.73億</t>
+          <t>2.91億</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.98</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>+1.790%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.070%</t>
+          <t>+0.580%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>4.27億</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.99億</t>
+          <t>13.19億</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.93</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.560%</t>
+          <t>+1.600%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.24千</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.35萬</t>
+          <t>1.87萬</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>15.69</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>+0.820%</t>
+          <t>-0.260%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+0.280%</t>
+          <t>-1.580%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.25萬</t>
+          <t>7.40百萬</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.84百萬</t>
+          <t>6.71百萬</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+2.070%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>+0.320%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.17億</t>
+          <t>4.17億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.27億</t>
+          <t>5.35億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>16.71</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+0.700%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+1.260%</t>
+          <t>+0.800%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.99億</t>
+          <t>36.32億</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>141.07億</t>
+          <t>141.93億</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.90</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>+0.470%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+3.160%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.29百萬</t>
+          <t>4.94億</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.50億</t>
+          <t>12.81億</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>36.98</t>
+          <t>39.39</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+0.110%</t>
+          <t>-0.910%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+1.090%</t>
+          <t>+1.440%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.88億</t>
+          <t>63.22億</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>106.90億</t>
+          <t>118.14億</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>54.44</t>
+          <t>57.97</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+1.610%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+1.790%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.18百萬</t>
+          <t>1.37億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.86億</t>
+          <t>3.98億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>23.76</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+1.580%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+5.140%</t>
+          <t>+1.500%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.31千萬</t>
+          <t>14.74億</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>29.31億</t>
+          <t>30.51億</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>7.42</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.830%</t>
+          <t>+1.910%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.24百萬</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.88億</t>
+          <t>6.42億</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.380%</t>
+          <t>+7.150%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+1.960%</t>
+          <t>+3.760%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.28千</t>
+          <t>8.93百萬</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.89百萬</t>
+          <t>5.14百萬</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>14.36</t>
         </is>
       </c>
     </row>
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>+1.340%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+2.720%</t>
+          <t>+0.840%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.69千萬</t>
+          <t>3.58億</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.32億</t>
+          <t>8.94億</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.14</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+0.150%</t>
+          <t>-0.870%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.450%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.43百萬</t>
+          <t>3.25億</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12.05億</t>
+          <t>8.67億</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>19.40</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>+1.200%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+2.990%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>44.85萬</t>
+          <t>1.30億</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.09億</t>
+          <t>2.19億</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>10.69</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+1.690%</t>
+          <t>+1.960%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.99千萬</t>
+          <t>17.72億</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68.05億</t>
+          <t>58.29億</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>13.89</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+2.780%</t>
+          <t>+2.800%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.85千萬</t>
+          <t>21.68億</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60.09億</t>
+          <t>61.29億</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45.17</t>
+          <t>46.48</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+1.610%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.77百萬</t>
+          <t>1.25億</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.74億</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>19.05</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8.78千萬</t>
+          <t>7.61億</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13.15億</t>
+          <t>14.31億</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>383.71</t>
+          <t>369.06</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.160%</t>
+          <t>+1.580%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-1.910%</t>
+          <t>+0.440%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.56百萬</t>
+          <t>8.56千萬</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>4.14千萬</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.97</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.820%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>63.88萬</t>
+          <t>8.42千萬</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.12億</t>
+          <t>3.87億</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>21.06</t>
         </is>
       </c>
     </row>
@@ -1408,27 +1408,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+1.270%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+0.970%</t>
+          <t>-0.350%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.09百萬</t>
+          <t>3.75億</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11.24億</t>
+          <t>10.13億</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.80</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.140%</t>
+          <t>-1.790%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-0.610%</t>
+          <t>+1.890%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.52千</t>
+          <t>7.62百萬</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.48千萬</t>
+          <t>1.82千萬</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.35</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.750%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+1.300%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.14千</t>
+          <t>8.92千萬</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.50千萬</t>
+          <t>9.65千萬</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.59</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+0.360%</t>
+          <t>+1.300%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.89百萬</t>
+          <t>8.17百萬</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.36百萬</t>
+          <t>5.34百萬</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>49.50</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>+2.940%</t>
+          <t>-0.250%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-2.290%</t>
+          <t>-9.010%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.13千萬</t>
+          <t>2.39億</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8.59億</t>
+          <t>7.18億</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>39.06</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-2.320%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-1.290%</t>
+          <t>+2.200%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>40.60萬</t>
+          <t>6.06千萬</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.28千萬</t>
+          <t>1.17億</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>53.89</t>
+          <t>52.47</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>+0.200%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.37百萬</t>
+          <t>5.17億</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.56億</t>
+          <t>7.58億</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.890%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>+0.940%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.53百萬</t>
+          <t>1.97億</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.19億</t>
+          <t>5.57億</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19.71</t>
+          <t>20.43</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+0.320%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+1.570%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.94千萬</t>
+          <t>3.40億</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.42億</t>
+          <t>9.62億</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.44</t>
         </is>
       </c>
     </row>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-1.150%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+0.940%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.90百萬</t>
+          <t>1.92億</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.32億</t>
+          <t>5.06億</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>118.05</t>
+          <t>134.16</t>
         </is>
       </c>
     </row>
@@ -1778,27 +1778,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-1.220%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+4.330%</t>
+          <t>+0.780%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>26.62萬</t>
+          <t>3.49千萬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.89億</t>
+          <t>1.37億</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>13.87</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>+0.070%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+1.380%</t>
+          <t>+1.600%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>22.89萬</t>
+          <t>1.30億</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.83億</t>
+          <t>2.66億</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>18.70</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.130%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+2.850%</t>
+          <t>-1.040%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.78百萬</t>
+          <t>2.29億</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.73億</t>
+          <t>6.10億</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>55.49</t>
+          <t>55.55</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+1.590%</t>
+          <t>+0.420%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.75萬</t>
+          <t>1.19百萬</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.36百萬</t>
+          <t>3.34百萬</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-0.610%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.54千萬</t>
+          <t>43.41億</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>94.87億</t>
+          <t>93.40億</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.36</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-0.120%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+2.020%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>86.74萬</t>
+          <t>8.42千萬</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.88億</t>
+          <t>4.05億</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>35.03</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>+1.160%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+2.250%</t>
+          <t>+3.690%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8.52千萬</t>
+          <t>25.21億</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>52.02億</t>
+          <t>62.96億</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>15.16</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+1.810%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+1.870%</t>
+          <t>-0.600%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30.83萬</t>
+          <t>1.56千萬</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5.43千萬</t>
+          <t>3.70千萬</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>88.48</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>+0.130%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+2.260%</t>
+          <t>+0.460%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14.82億</t>
+          <t>254.90億</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>554.59億</t>
+          <t>532.48億</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>143.27</t>
+          <t>139.34</t>
         </is>
       </c>
     </row>
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+0.310%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+2.290%</t>
+          <t>-0.270%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>9.59百萬</t>
+          <t>2.52億</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.43億</t>
+          <t>5.89億</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>27.57</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+1.370%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+1.530%</t>
+          <t>-0.460%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.71千萬</t>
+          <t>7.35億</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>14.34億</t>
+          <t>15.05億</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>11.68</t>
         </is>
       </c>
     </row>
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+1.240%</t>
+          <t>+1.800%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.38千萬</t>
+          <t>5.76億</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17.16億</t>
+          <t>14.42億</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>23.31</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+3.580%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>95.31萬</t>
+          <t>9.73千萬</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.29億</t>
+          <t>3.16億</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>34.30</t>
         </is>
       </c>
     </row>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.360%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+3.810%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.81千萬</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.44億</t>
+          <t>1.75億</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.95</t>
+          <t>23.01</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+2.210%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5.68萬</t>
+          <t>4.69千萬</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9.83千萬</t>
+          <t>8.75千萬</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>16.08</t>
         </is>
       </c>
     </row>
@@ -2333,27 +2333,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-0.010%</t>
+          <t>+2.370%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>+0.280%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>72.17萬</t>
+          <t>7.54千萬</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.14億</t>
+          <t>9.46千萬</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24.38</t>
+          <t>25.00</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>+1.620%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+0.840%</t>
+          <t>+0.450%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>25.73萬</t>
+          <t>2.58億</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.98億</t>
+          <t>2.88億</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.75</t>
         </is>
       </c>
     </row>
@@ -2407,27 +2407,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.940%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+0.180%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.43千</t>
+          <t>2.69千萬</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7.54千萬</t>
+          <t>8.12千萬</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.50</t>
         </is>
       </c>
     </row>
@@ -2444,27 +2444,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+0.570%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23.12萬</t>
+          <t>5.03千萬</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.94億</t>
+          <t>1.62億</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.87</t>
         </is>
       </c>
     </row>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+2.160%</t>
+          <t>-1.580%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.55千萬</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.53千萬</t>
+          <t>2.68千萬</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+2.710%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.360%</t>
+          <t>+0.250%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.83百萬</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.37百萬</t>
+          <t>1.70百萬</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
     </row>
@@ -2555,27 +2555,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+0.020%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>-0.300%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13.92萬</t>
+          <t>2.03千萬</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4.58千萬</t>
+          <t>4.77千萬</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>17.23</t>
         </is>
       </c>
     </row>
@@ -2592,27 +2592,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+2.000%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+1.290%</t>
+          <t>+1.490%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7.24千萬</t>
+          <t>10.01億</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>20.75億</t>
+          <t>21.98億</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.37</t>
         </is>
       </c>
     </row>
@@ -2629,27 +2629,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>+0.900%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.00千萬</t>
+          <t>5.49億</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>17.87億</t>
+          <t>12.60億</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>13.16</t>
         </is>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+0.350%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>+7.010%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>62.38萬</t>
+          <t>4.87千萬</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.83億</t>
+          <t>1.69億</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>9.06</t>
         </is>
       </c>
     </row>
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>-1.700%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+2.510%</t>
+          <t>+7.020%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29.38億</t>
+          <t>38.20億</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>45.64億</t>
+          <t>81.06億</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>32.43</t>
+          <t>34.52</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+0.310%</t>
+          <t>+0.610%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.110%</t>
+          <t>+1.420%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.70百萬</t>
+          <t>3.10億</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8.93億</t>
+          <t>9.66億</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33.19</t>
+          <t>33.58</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+0.530%</t>
+          <t>+0.830%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+0.780%</t>
+          <t>+0.880%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.22百萬</t>
+          <t>4.55億</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>22.68億</t>
+          <t>20.52億</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>17.50</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.980%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14.09萬</t>
+          <t>7.48千萬</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7.78千萬</t>
+          <t>6.73千萬</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>14.42</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+0.240%</t>
+          <t>+2.140%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+0.660%</t>
+          <t>+0.810%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.21千萬</t>
+          <t>12.40億</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15.95億</t>
+          <t>14.63億</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17.40</t>
+          <t>19.08</t>
         </is>
       </c>
     </row>
@@ -2888,27 +2888,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>-0.550%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.510%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35.19萬</t>
+          <t>6.45千萬</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.92億</t>
+          <t>2.43億</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.70</t>
         </is>
       </c>
     </row>
@@ -2925,27 +2925,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>+1.230%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+2.250%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>77.25萬</t>
+          <t>5.80千萬</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3.00千萬</t>
+          <t>3.50千萬</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.32</t>
+          <t>21.56</t>
         </is>
       </c>
     </row>
@@ -2962,22 +2962,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.160%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+0.880%</t>
+          <t>-1.210%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>17.30萬</t>
+          <t>3.04千萬</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.96億</t>
+          <t>1.15億</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2999,27 +2999,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.230%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.82千萬</t>
+          <t>7.28億</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15.78億</t>
+          <t>15.32億</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>18.63</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-3.390%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>+1.010%</t>
+          <t>-2.560%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.56萬</t>
+          <t>1.06百萬</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5.18百萬</t>
+          <t>4.82百萬</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>6.13</t>
         </is>
       </c>
     </row>
@@ -3073,27 +3073,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-0.900%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.310%</t>
+          <t>+0.230%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5.52萬</t>
+          <t>2.62千萬</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7.13千萬</t>
+          <t>6.93千萬</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27.68</t>
+          <t>27.79</t>
         </is>
       </c>
     </row>
@@ -3110,27 +3110,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.230%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.460%</t>
+          <t>-0.620%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48.35萬</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>79.53萬</t>
+          <t>1.07百萬</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -3147,27 +3147,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.280%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+0.260%</t>
+          <t>-0.100%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>52.82萬</t>
+          <t>9.92千萬</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.58億</t>
+          <t>2.35億</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -3184,27 +3184,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-3.130%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+2.450%</t>
+          <t>-0.120%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7.96千</t>
+          <t>2.71百萬</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6.03千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>14.17</t>
         </is>
       </c>
     </row>
@@ -3221,27 +3221,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>+1.020%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+0.830%</t>
+          <t>+0.910%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>66.97萬</t>
+          <t>2.40億</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5.80億</t>
+          <t>5.88億</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>23.05</t>
         </is>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+0.680%</t>
+          <t>+0.870%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+1.170%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8.55萬</t>
+          <t>5.40千萬</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9.19千萬</t>
+          <t>8.75千萬</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>16.19</t>
         </is>
       </c>
     </row>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-0.100%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+0.410%</t>
+          <t>+0.660%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.85千萬</t>
+          <t>10.43億</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19.73億</t>
+          <t>22.79億</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.96</t>
         </is>
       </c>
     </row>
@@ -3332,27 +3332,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+0.220%</t>
+          <t>+1.680%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+3.910%</t>
+          <t>+1.120%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.67千萬</t>
+          <t>20.39億</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>51.47億</t>
+          <t>49.68億</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>29.09</t>
         </is>
       </c>
     </row>
@@ -3369,27 +3369,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-0.180%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+1.470%</t>
+          <t>-0.150%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.11萬</t>
+          <t>3.43千萬</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.90千萬</t>
+          <t>2.29千萬</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>214.25</t>
+          <t>212.27</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>+2.310%</t>
+          <t>-0.060%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4.95百萬</t>
+          <t>4.22億</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>49.94億</t>
+          <t>25.79億</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>37.07</t>
+          <t>36.44</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+0.650%</t>
+          <t>+0.400%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+1.740%</t>
+          <t>+1.600%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>86.09萬</t>
+          <t>1.14億</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.38億</t>
+          <t>2.25億</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>6.79</t>
         </is>
       </c>
     </row>
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-2.180%</t>
+          <t>+1.010%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>12.59萬</t>
+          <t>8.45千萬</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.55億</t>
+          <t>3.24億</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>121.22</t>
+          <t>116.70</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.750%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>88.20萬</t>
+          <t>1.06億</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.62億</t>
+          <t>3.72億</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>405.54</t>
+          <t>421.32</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+1.120%</t>
+          <t>-1.520%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+0.380%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.95百萬</t>
+          <t>8.34千萬</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.95</t>
         </is>
       </c>
     </row>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+0.020%</t>
+          <t>+0.680%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.78萬</t>
+          <t>3.03千萬</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.69千萬</t>
+          <t>2.76千萬</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.46</t>
         </is>
       </c>
     </row>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+2.650%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5.49千萬</t>
+          <t>17.54億</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>46.71億</t>
+          <t>44.78億</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.04</t>
         </is>
       </c>
     </row>
@@ -3665,27 +3665,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>+0.590%</t>
+          <t>-1.470%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-0.650%</t>
+          <t>+0.490%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.76萬</t>
+          <t>5.15百萬</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.35百萬</t>
+          <t>5.51百萬</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3702,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.800%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+2.990%</t>
+          <t>+4.710%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.04萬</t>
+          <t>2.64千萬</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4.49千萬</t>
+          <t>4.53千萬</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>8.67</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-0.040%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>+0.110%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4.28百萬</t>
+          <t>3.26億</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10.76億</t>
+          <t>8.57億</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.85</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>+0.190%</t>
+          <t>+2.200%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+2.090%</t>
+          <t>-1.280%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8.54百萬</t>
+          <t>9.97千萬</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21.73</t>
+          <t>23.52</t>
         </is>
       </c>
     </row>
@@ -3813,27 +3813,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>-1.200%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>33.85萬</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.58百萬</t>
+          <t>1.38百萬</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.61</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3850,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>+0.860%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+0.610%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4.89百萬</t>
+          <t>5.11億</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>15.57億</t>
+          <t>13.32億</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.56</t>
         </is>
       </c>
     </row>
@@ -3887,27 +3887,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>+0.230%</t>
+          <t>+0.270%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>+2.430%</t>
+          <t>-0.010%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.99億</t>
+          <t>12.35億</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>26.56億</t>
+          <t>24.63億</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>14.36</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+0.390%</t>
+          <t>+0.730%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.94百萬</t>
+          <t>7.56千萬</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.76億</t>
+          <t>2.51億</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.37</t>
+          <t>23.82</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.020%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>+1.060%</t>
+          <t>-0.840%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.34萬</t>
+          <t>1.43千萬</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.17千萬</t>
+          <t>2.13千萬</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.63</t>
         </is>
       </c>
     </row>
@@ -3998,27 +3998,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.310%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>+0.050%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15.82萬</t>
+          <t>5.83千萬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5.21千萬</t>
+          <t>5.84千萬</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4035,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-0.050%</t>
+          <t>-2.810%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>+2.820%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>9.20千</t>
+          <t>3.07百萬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1.85千萬</t>
+          <t>2.16千萬</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -4072,27 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>+1.970%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>+1.190%</t>
+          <t>+0.810%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>52.00萬</t>
+          <t>5.80千萬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>7.29千萬</t>
+          <t>7.58千萬</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>14.10</t>
         </is>
       </c>
     </row>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.220%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+0.710%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3.76千萬</t>
+          <t>13.65億</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>25.40億</t>
+          <t>27.33億</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>10.38</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>-0.500%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>+0.760%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3.88百萬</t>
+          <t>1.45億</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2.84億</t>
+          <t>2.49億</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24.68</t>
+          <t>24.61</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>+1.080%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-3.420%</t>
+          <t>+0.590%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>17.25萬</t>
+          <t>1.55千萬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.00億</t>
+          <t>1.07億</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.29</t>
         </is>
       </c>
     </row>
@@ -4220,27 +4220,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-1.980%</t>
+          <t>+3.100%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.43萬</t>
+          <t>2.54千萬</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1.05億</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.74</t>
         </is>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-0.080%</t>
+          <t>-0.410%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>+4.230%</t>
+          <t>+4.140%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3.72百萬</t>
+          <t>9.64千萬</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1.23億</t>
+          <t>1.34億</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18.44</t>
+          <t>18.84</t>
         </is>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>+0.140%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>+0.730%</t>
+          <t>+1.090%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2.40億</t>
+          <t>12.36億</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>48.43億</t>
+          <t>41.09億</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>28.55</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>+0.440%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>+0.470%</t>
+          <t>+0.430%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3.10百萬</t>
+          <t>1.70億</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2.79億</t>
+          <t>2.45億</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.08</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>+0.050%</t>
+          <t>+0.080%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>+0.740%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6.82萬</t>
+          <t>1.83千萬</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.92千萬</t>
+          <t>7.66千萬</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>15.06</t>
         </is>
       </c>
     </row>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-0.060%</t>
+          <t>-0.980%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>+2.450%</t>
+          <t>+0.100%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7.89百萬</t>
+          <t>2.82億</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>5.74億</t>
+          <t>7.27億</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>9.04</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4442,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.160%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-0.260%</t>
+          <t>-0.690%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6.14百萬</t>
+          <t>2.25億</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4.38億</t>
+          <t>4.85億</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -4479,27 +4479,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>+0.670%</t>
+          <t>-0.860%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>9.95百萬</t>
+          <t>13.43億</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>28.27億</t>
+          <t>27.21億</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>12.40</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.380%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>+0.300%</t>
+          <t>-1.450%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.89百萬</t>
+          <t>2.10億</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.30億</t>
+          <t>3.98億</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>14.22</t>
         </is>
       </c>
     </row>
@@ -4553,27 +4553,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+0.060%</t>
+          <t>-0.240%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>+0.580%</t>
+          <t>-0.680%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2.04百萬</t>
+          <t>4.48億</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>8.40億</t>
+          <t>8.59億</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>10.67</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>+0.010%</t>
+          <t>+1.580%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>+0.170%</t>
+          <t>-0.040%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26.72萬</t>
+          <t>4.24千萬</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.07億</t>
+          <t>1.81億</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.04</t>
         </is>
       </c>
     </row>
@@ -4627,27 +4627,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>+1.420%</t>
+          <t>-0.400%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>+3.760%</t>
+          <t>-0.880%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4.23百萬</t>
+          <t>1.51億</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5.24億</t>
+          <t>4.78億</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>25.21</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>+0.040%</t>
+          <t>-0.190%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>+1.250%</t>
+          <t>+0.120%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6.16百萬</t>
+          <t>3.69億</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>5.89億</t>
+          <t>5.83億</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.55</t>
         </is>
       </c>
     </row>
@@ -4701,27 +4701,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>+1.450%</t>
+          <t>+0.690%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>+0.980%</t>
+          <t>+1.410%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4.20萬</t>
+          <t>1.48千萬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>72.37萬</t>
+          <t>1.55百萬</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>4.82</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.110%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>+0.640%</t>
+          <t>-0.320%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>23.32萬</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>34.26萬</t>
+          <t>28.00萬</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>54.20</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>+0.400%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+2.330%</t>
+          <t>+4.400%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>6.15千萬</t>
+          <t>51.26億</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>150.03億</t>
+          <t>139.25億</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>35.90</t>
         </is>
       </c>
     </row>
@@ -4812,27 +4812,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-1.400%</t>
+          <t>-1.450%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>+3.560%</t>
+          <t>-1.980%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3.10萬</t>
+          <t>1.01千萬</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>6.53千萬</t>
+          <t>7.65千萬</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>54.55</t>
+          <t>54.90</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>+0.090%</t>
+          <t>-0.800%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-0.990%</t>
+          <t>+3.010%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5.41億</t>
+          <t>40.91億</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>162.19億</t>
+          <t>174.84億</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>17.73</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.180%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-0.400%</t>
+          <t>+0.390%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3.12百萬</t>
+          <t>4.56億</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7.15億</t>
+          <t>7.46億</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.55</t>
         </is>
       </c>
     </row>
@@ -4923,27 +4923,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>+0.720%</t>
+          <t>+1.680%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>+3.450%</t>
+          <t>+0.520%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1.02千萬</t>
+          <t>5.58億</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>18.18億</t>
+          <t>16.46億</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.64</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4960,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>+0.100%</t>
+          <t>+0.040%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>+1.660%</t>
+          <t>+0.670%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.15億</t>
+          <t>8.51億</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>25.31億</t>
+          <t>21.38億</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>24.12</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-0.030%</t>
+          <t>+2.580%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>+0.370%</t>
+          <t>-0.720%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1.79千萬</t>
+          <t>9.43億</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>36.16億</t>
+          <t>29.66億</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>144.67</t>
+          <t>145.40</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5034,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>+0.370%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-0.550%</t>
+          <t>+1.530%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>6.45億</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>44.91億</t>
+          <t>36.38億</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>53.22</t>
+          <t>52.77</t>
         </is>
       </c>
     </row>
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>+0.620%</t>
+          <t>-0.710%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.47萬</t>
+          <t>5.33百萬</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>6.85百萬</t>
+          <t>4.92百萬</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.42</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-1.480%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-0.620%</t>
+          <t>+1.610%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.23百萬</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>6.58百萬</t>
+          <t>7.11百萬</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>19.46</t>
         </is>
       </c>
     </row>
@@ -5145,27 +5145,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-0.070%</t>
+          <t>+0.500%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>+1.240%</t>
+          <t>-1.130%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2.54千萬</t>
+          <t>8.97億</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>11.93億</t>
+          <t>12.95億</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>10.72</t>
         </is>
       </c>
     </row>
@@ -5182,27 +5182,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>+0.080%</t>
+          <t>-1.520%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>+0.510%</t>
+          <t>-2.160%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2.37千萬</t>
+          <t>17.78億</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>31.92億</t>
+          <t>33.54億</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>24.09</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>+0.290%</t>
+          <t>+0.410%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+6.820%</t>
+          <t>-0.390%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>53.08萬</t>
+          <t>4.13千萬</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.39億</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.03</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-0.170%</t>
+          <t>-0.070%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-0.420%</t>
+          <t>-0.080%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>340.00</t>
+          <t>6.60百萬</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2.25千萬</t>
+          <t>1.62千萬</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>+0.120%</t>
+          <t>-1.240%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-0.090%</t>
+          <t>+3.980%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>9.29千萬</t>
+          <t>5.90億</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>8.00億</t>
+          <t>7.87億</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>7.34</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.170%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-0.150%</t>
+          <t>+0.060%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1.74億</t>
+          <t>2.02億</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>19.68</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>+0.030%</t>
+          <t>-0.570%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-1.050%</t>
+          <t>+2.330%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>53.70萬</t>
+          <t>5.32千萬</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>1.53億</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.33</t>
         </is>
       </c>
     </row>
